--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>h2</t>
   </si>
@@ -25,308 +25,76 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>Как мариновать огурцы чтобы были хрустящими:</t>
-  </si>
-  <si>
-    <t>Основное блюдо</t>
-  </si>
-  <si>
-    <t>Закуски</t>
-  </si>
-  <si>
-    <t>Выпечка</t>
-  </si>
-  <si>
-    <t>Десерты</t>
-  </si>
-  <si>
-    <t>Напитки</t>
-  </si>
-  <si>
-    <t>Классический рецепт салата из огурцов с сухой горчицей</t>
-  </si>
-  <si>
-    <t>Салат из огурцов кружочками с горчичным порошком</t>
-  </si>
-  <si>
-    <t>Салат из огурцов дольками на зиму с порошком горчицы и луком</t>
-  </si>
-  <si>
-    <t>Быстрый рецепт салата из резаных огурцов с сухой горчицей</t>
-  </si>
-  <si>
-    <t>Рецепт острого салата из огурцов с сухой горчицей</t>
-  </si>
-  <si>
-    <t>Правила хранения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для консервирования отбираем небольшие, длиной до 5-6 см свежие огурцы правильной формы, с неповрежденной кожицей. Огурцы тщательно, перетирая каждый руками, промываем холодной водой. У огурцов отрезаем оба кончика и заливаем свежей водой. Выдерживаем огурцы в воде 2-3 часа.  Корень хрена нарезаем на кусочки длиной 4 -5 см и разрезаем каждый вдоль на 4 части. Острый перец нарезаем колечками. Стерилизуем банки, кипятим крышки.  Тщательно промываем зелень – листья смородины, вишни, зонтики укропа, листья хрена. Листья хрена нарезаем. Очищаем чеснок.  На дно каждой банки кладем укроп, чеснок, острый перец, перец горошком, лавровый лист, корень и лист хрена, лист вишни, черной смородины, семена горчицы.  Укладываем огурцы, пытаясь занять ими больше объема банки. Огурцы должны доходить до горлышка банки (не выше).  На огурцы насыпаем соль и сахар, наливаем уксус.  Прикрываем банки крышками и ставим их в кастрюлю, дно которой выстлано салфеткой. Наливаем прохладную воду, наливая ее по плечики банок. Кастрюлю с банками ставим на большой огонь и доводим воду до кипения. Затем огонь уменьшаем, чтобы не было слишком бурного кипения и стерилизуем в течение 25 минут.  Параллельно в чайнике (или другой кастрюле) кипятим воду. После стерилизации достаем одну банку с огурцами, заливаем кипятком и сразу герметично укупориваем. Затем повторяем  процесс для следующей банки.  Укупоренные банки сразу переворачиваем и укутываем одеялом. Выдерживаем так до полного остывания. Вкуснейшие хрустящие маринованные огурцы готовы, можно прятать их до зимы в погреб, кладовку или подвал.  Советы и рекомендации:  Если вы закрываете огурцы, маринованные способом сухой стерилизации, в 0,5 – 0,7 л банки,  стерилизуйте их 20 минут, полуторалитровые банки стерилизуйте 30 минут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всегда вкусные и хрустящие! Этот рецепт мне достался от моей бабушки. 5 лет за мужем, делаю эти огурчики и всегда!!!, Они всегда получаются! Сезон огурцов подходит к концу, но если еще актуально попробуйте, не пожалеете! Такого рецепта я еще не видела. 
-      Категория:
-            Заготовки
-            Маринады
-            Огурцы консервированные
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Что дает регистрация?
-    Вспомнить пароль Вход без регистрации </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-в горшочке
-гарнир
-грибные блюда
-жаркое
-запеканки
-из морепродуктов
-из фарша
-кальмар
-картофель
-картофельное пюре
-картошка
-картошка с мясом
-каша
-котлеты
-курица
-лапша
-макароны
-мясные блюда
-мясо
-начинка
-овощные блюда
-омлет
-паста
-перец фаршированный
-пюре
-рис
-рыба
-свинина
-семга
-шашлык
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-бастурма
-буженина
-бургер
-бутерброды
-гренки
-жульен
-жюльен
-заливное
-икра овощная
-канапе
-кимчи
-лечо
-мидии
-морковь по-корейски
-пастрома
-паштет
-печеночный торт
-роллы
-салаты
-селедка
-суши
-сырные палочки
-сырные шарики
-террин
-фаршированные яйца
-фондю
-форшмак
-холодец
-хумус
-чипсы
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-блины
-брауни
-булочки
-ватрушки
-кекс
-коржики
-кулич
-лаваш
-лепешки
-манник
-оладьи
-опара
-пирог
-пирожки
-пицца
-пончики
-пряник
-пышки
-рогалики
-рулет
-слойка
-сухари
-сырник
-тарталетки
-тесто
-трубочки
-хлеб
-чебуреки
-шарлотка
-штрудель
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-безе
-бисквит
-варенье
-вафли
-глазурь
-джем
-желе
-зефир
-карамель
-конфеты
-конфитюр
-крем
-мармелад
-мороженое
-мусс
-пасха
-печенье
-пирожное
-повидло
-помадка
-пудинг
-сгущенка
-сироп
-сладкие салаты
-суфле
-торт
-фруктовые салаты
-халва
-хворост
-чизкейк
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-айран
-вино
-глинтвейн
-грог
-какао
-квас
-кефир
-кисель
-компот
-кофе
-ликер
-лимонад
-молочный коктейль
-морс
-мохито
-наливка
-напиток
-настойка
-простокваша
-пунш
-ром
-самогон
-сбитень
-сидр
-смузи
-соки
-чай
-шипучка
-шоколад
-аджика
-баклажаны
-брокколи
-горчица
-гречка
-грибы
-заготовки
-закваска
-заправка для супа на зиму
-йогурт
-кабачки
-капуста
-колбаса
-кускус
-маринад
-маскарпоне
-мастика
-подливка
-приправа
-свекла
-соус
-сыр
-творог
-тещин язык
-тыква
-фасоль
-цветная капуста
-чечевица
-новогодние рецепты
-масленица
-шашлыки
-домашнее консервирование
-летние рецепты
-постные рецепты
-домашние напитки
-MyJane.ru
-stranamam.ru
-diets.ru
-mycharm.ru
-asienda.ru
-ptichka.ru
-myjulia.ru
-Уже 422 ответа
-Ответить
-    Главный редактор проекта –Евгения Грозова Подписка на RSS  Asienda.ru Социальная сетьдля дачников Myjane.ru Женский журнали новости шоу-бизнеса  Mycharm.ru Портал красоты Diets.ru Социальная сетьдля худеющих Stranamam.ru Социальная сетьдля мамочек Ptichka.ru Сайт для владельцевдомашних питомцев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Содержимое Резаные огурцы на зиму с сухой горчицей – один из популярнейших видов заготовок. Горчичный порошок – идеальное дополнение для маринадов и консерваций. Благодаря такому компоненту овощи получаются пикантными. Кроме этого, он выступает в качестве консерванта, благодаря которому заготовка, при соблюдении температурного режима, сохранится надолго. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для этого рецепта огурцов на зиму с порошковой горчицей рекомендуют брать банки по 0,5 л. Их моют и стерилизуют при помощи паровой бани, чтобы заготовку можно было сразу же консервировать на зиму. Список ингредиентов: Салат из огурцов легко приготовить из минимального количества ингредиентов Процесс приготовления: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Такая заготовка на зиму обязательно понравится любителям хрустящих огурцов. Их можно употреблять как самостоятельную закуску либо добавлять в состав других блюд. Чеснок и перец придают салату ароматный запах Потребуются: Пошаговая инструкция: Сделать салат можно следующим способом:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лук – отличное дополнение для заготовки на зиму из огурцов с горчичным порошком. Благодаря такому компоненту салат насыщается полезными веществами. К тому же лук увеличивает срок годности консерваций, так как препятствует размножению вредных микроорганизмов. Потребуются такие компоненты: Добавление лука в салат помогает увеличить срок годности заготовки Процесс приготовления: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приготовление салатов – несложный процесс. Однако подготовка ингредиентов и дальнейшие действия могут отнимать немало времени. Чтобы сократить срок приготовления, рекомендуется пользоваться предложенным рецептом. Сухая горчица является консервантом и помогает надолго сохранить закатку Необходимые компоненты: Процесс приготовления: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Секрет приготовления острой закуски заключается в добавлении сухого красного перца. Такая заготовка непременно понравится любителям блюд с выраженной остротой. На 5 кг основного продукта потребуется: Добавлять сухой перец нужно с осторожностью, помня, что умеренно жгучий вкус появляется не сразу Способ приготовления: Салат закрывают в стерильных банках на зиму. Заготовки остужают при комнатной температуре. Затем выносят в темное прохладное место. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хранить салат рекомендуется в погребе либо кладовой. Также можно использовать холодильник, но недостаток этого способа в том, что банки с заготовками занимают много места. При температуре 8-10 градусов консервация сохранится на 2-3 года. На каждой банке рекомендуется указать дату приготовления. Если заготовка хранится при температуре 11-16 градусов, срок годности составит 5-7 месяцев. Открытую банку с салатом следует хранить только в холодильнике не дольше 4 недель. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1691008_77062-710x550x-2.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/image001-64-638x480-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/image003-62-640x434-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/image005-50.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/image007-40-640x428-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/image009-34-640x364-1.jpg</t>
+    <t>PROBLEMS AND PROSPECTS OF THE DAIRY SUB-AGRO-INDUSTRIAL COMPLEX IN THE REPUBLIC OF DAGESTAN</t>
+  </si>
+  <si>
+    <t>Свежий номер</t>
+  </si>
+  <si>
+    <t>Иван Федяков, глава ГК INFOLine</t>
+  </si>
+  <si>
+    <t>Андрей Дахнович, председатель совета директоров Еланского и Семикаракорского сыродельных комбинатов</t>
+  </si>
+  <si>
+    <t>Вячеслав Гладков, губернатор Белгородской области</t>
+  </si>
+  <si>
+    <t>Анатолий Лосев, генеральный директор ГК «Молвест»</t>
+  </si>
+  <si>
+    <t>Александр Поляк, директор компании «ИТ молоко»</t>
+  </si>
+  <si>
+    <t>Дмитрий Матвеев, президент ГК «Кабош»</t>
+  </si>
+  <si>
+    <t>Артем Крецу, представитель ТОО «ДЕП» (Казахстан)</t>
+  </si>
+  <si>
+    <t>Игорь Брыло, помощник президента Беларуси по Витебской области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статья рассматривает развитие молочной субреспублики и нацелена на решение проблем, связанных с увеличением производства молока в RD. В статье проведен анализ структуры затрат на молоко и молочные продукты, что может свидетельствовать о неэффективностях в текущем процессе производства. Статья подчеркивает важность увеличения производства молока, вероятно, в связи с ростом спроса на молочные продукты. Дополнительные мысли и факты: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Министерство сельского хозяйства и продовольствия Дагестана планирует разработать госпрограмму, способствующую развитию молочного скотоводства. Главная цель этой программы заключается в увеличении объемов производства собственной молочной продукции и снижении завоза молока из других регионов. В связи с этим, премьер-министр Дагестана, Абдулмуслим Абдулмуслимов, посетил молочную ферму и выразил свою обеспокоенность фактом, что регион не обеспечивает себя достаточным количеством молочной продукции. Одной из молочных ферм, которую посетил премьер-министр, является ферма ООО «Мареновский», занимающаяся разведением двух пород коров — черно-пестрой и красной степной. Однако, по данным пресс-службы правительства республики, более половины молочной продукции в Дагестане по-прежнему импортируется из других регионов, что говорит о недостаточном уровне собственного производства. В свете этих фактов, Министерство сельского хозяйства и продовольствия Дагестана получило поручение разработать республиканскую программу по развитию молочного скотоводства, которая будет ориентирована на господдержку фермеров и направлена на решение проблемы нехватки собственной молочной продукции в регионе. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роботизированная система доения коров в хозяйстве АО «Голыцино» привела к значительному улучшению качества молока и организации процесса доения. Благодаря этой системе, предприятие стало одним из лучших по показателю удоя молока. В настоящий момент в хозяйстве функционирует 8 роботов, которые обслуживают 60 коров каждый. ООО Кизляр Урицкого мясокомбината планирует создать молокоперерабатывающий завод и разведение 1000 дойных коров, чтобы расширить свою сырьевую базу. Проект будет реализован поэтапно, начиная с молочно-товарной фермы на 250 коров. В Дагестане ставятся задачи по дальнейшему развитию молочного скотоводства, так как республика еще не полностью удовлетворяет свои внутренние потребности в молоке. Для достижения этой цели в республике реализуются инвестиционные проекты при поддержке государства.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискаунтеры являются популярным выбором для бедного населения из-за своего формата, предлагающего низкие цены и ограниченный ассортимент товаров. На данный момент российские дискаунтеры сосредоточены на увеличении доли продаж товаров под маркой СТМ, и планируют достичь 50% продаж под этой маркой в течение ближайших 3-5 лет. Развитие сетей дискаунтеров является важной стратегией для крупных розничных сетей, которые хотят укрепить свою позицию на рынке и конкурировать с другими сетями. С увеличением числа бедного населения, спрос на дискаунтеры также увеличивается. Марка СТМ, скорее всего, является собственной торговой маркой дискаунтеров, позволяющей им поддерживать низкие цены на товары. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В России ежемесячное потребление пиццачиза составляет около 1200-1400 тонн. Однако, аналоги пиццачиза потребляются в России гораздо больше — около 4000 тонн в месяц. Соотношение потребления пиццы с настоящей моцареллой и пиццы с аналогом приблизительно равно 1:3. Эти данные отражают лишь потребность в пиццачизе внутри России. Заметно большее потребление аналогов пиццачиза по сравнению с настоящей моцареллой. В то же время, неизвестны факторы, влияющие на такое значительное потребление аналогов. Возможно, это связано с их доступностью и низкой стоимостью. Чтобы лучше понять причины этого различия, может быть полезна дополнительная информация о происхождении пиццачиза. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В Белгородской области аграрии сталкиваются с непростыми условиями, которые включают обстрелы и минирование. В связи с этим аграрии вынуждены работать в очень тяжелых условиях, в касках и бронежилетах. Однако, несмотря на все трудности, мужественные аграрии продолжают справляться со своими задачами. Автор искренне благодарен аграриям за их работу и усилия. Опасные условия для аграриев в Белгородской области могут быть связаны с военными действиями и конфликтами, которые представляют угрозу им и окружающей среде. Обстрелы и минирование создают серьезную угрозу для безопасности аграриев во время их работы на полях. Чтобы снизить риск, аграрии вынуждены носить каски и бронежилеты, что позволяет им защититься от возможных опасностей. Это свидетельствует о том, насколько тяжелыми и опасными являются условия работы для аграриев в регионе. Несмотря на все трудности, мужество аграриев проявляется в их способности продолжать работу в сложных условиях. Они не только справляются со своими задачами, но и успешно выполняют их, несмотря на риски, которые сопряжены с их профессией. Автор данного текста возносит благодарность аграриям за их посильный вклад и усилия. Он признает их мужество, преданность своей работе и способность преодолевать трудности, с которыми они сталкиваются ежедневно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Повышение ключевой ставки до 12% и уменьшение субсидирования от ключевой ставки являются болезненной мерой для производителей и переработчиков молока. Это означает, что предприятия, которые планировали развиваться и модернизироваться, будут вынуждены уменьшить свои инвестиции. Это приведет к сокращению объемов инвестиций в молочную отрасль. Переработчики молока, такие как сыроварни и молочные комбинаты, будут столкнуться с высокими затратами на кредиты, что может ограничить их способность рассчитывать на новое оборудование и технологии. Увеличение себестоимости молочной продукции может привести к росту цен для потребителей, что может ухудшить конкурентоспособность молочной отрасли на рынке.  Повышение ставки кредитования также повлияет на предприятия, работающие в молочной отрасли. Увеличение стоимости денег приведет к росту себестоимости производства молочной продукции. Это означает, что производители молока будут сталкиваться с большими затратами на заемные средства для покупки кормов и оборудования, а также для оплаты рабочей силы. В итоге, себестоимость производства молочной продукции вырастет, что может привести к необходимости поднятия цен на продукцию. Это осложнит конкуренцию на рынке молочной отрасли и может снизить спрос.  В свете этих изменений предприятия в молочной отрасли могут быть вынуждены искать альтернативные источники финансирования или снижать свою деятельность. Они могут обратиться к частным инвесторам или искать государственные программы поддержки. Однако, это может быть сложно, особенно для малых предприятий, которые не имеют доступа к большим источникам финансирования. В результате, развитие и инновации в молочной отрасли могут замедлиться, что негативно скажется на развитии отрасли в целом. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В ближайшем будущем ожидается повышение ключевой ставки до 12%. Это решение Центрального банка направлено на контроль инфляции и укрепление рубля. Однако, такое повышение может продлиться недолго. Спустя полгода ожидается стабилизация ставки. Стабилизация ставки будет связана с положительным торговым сальдо России за 2023 год. Улучшение экономической ситуации страны, включая рост торгового сальдо, способствует стабилизации. Это может быть достигнуто за счет увеличения экспорта и сокращения импорта товаров и услуг. Увеличение экспорта может быть обусловлено ростом мирового спроса на российскую продукцию, такую как энергоносители или сельскохозяйственные товары. Это может положительно сказаться на торговом сальдо и способствовать стабилизации экономики. Стабильная экономическая ситуация также имеет положительный эффект на бизнес-среду. Она может привлечь инвестиции в Россию и способствовать развитию страны. Таким образом, повышение ключевой ставки и стабилизация экономики имеют важное значение для будущего России. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Азия, Ближний Восток и Евросоюз имеют различия в менталитете и культуре потребления. Так, в Азии и на Ближнем Востоке существуют уникальные предпочтения и традиции при выборе и потреблении товаров, отличающиеся от европейских стандартов. Для успешного экспорта продукции в эти регионы необходимо совместное действие государства и бизнеса. Одной из важных составляющих является адаптация продукции к менталитету и культуре данных регионов. В частности, могут потребоваться изменения в упаковке, маркировке и содержании товаров. Кроме того, в странах Азии и Ближнего Востока особое внимание уделяется прошлому опыту деловых отношений и доверию к поставщику. Поэтому для успешного экспорта необходимо учитывать эти аспекты. Государство может оказать поддержку для успешного экспорта продукции в эти регионы. Среди возможных мер поддержки можно выделить установление торговых соглашений, совместное продвижение продукции на внешних рынках, привлечение инвестиций в экономику и обеспечение юридической защиты интересов бизнеса. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Россия приняла решение поддержать молочную отрасль Казахстана с целью способствовать развитию этого сектора в стране. Это решение является одной из мер поддержки российских экспортеров и поможет им укрепить свои позиции на рынке.  Поддержка молочной отрасли Казахстана имеет важное значение для республики. Казахстан является импортером продуктов сухих фракций из России, поэтому поддержка этой отрасли будет способствовать расширению ассортимента продуктов на казахстанском рынке и диверсификации его структуры.  Для развития молочной отрасли в Казахстане может потребоваться дополнительная поддержка, так как конкуренция на российском рынке достаточно высока. Поддержка экспортеров поможет увеличить объемы экспорта молочных продуктов из Казахстана и укрепить позиции на международном рынке. Ввоз продуктов сухих фракций из России способствует расширению ассортимента предлагаемых товаров и помогает разнообразить рынок в Казахстане. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Животноводческое производство в Витебской области имеет большой потенциал для увеличения производства мяса и молока. Витебская область расположена в северо-восточной части Беларуси и характеризуется хорошими природными условиями для животноводства, такими как плодородные почвы и обилие пастбищ. Правительство области планирует уделить максимальное внимание развитию животноводческой продукции. Если будет добавлено 5-7% производства ежегодно, производство мяса и молока может значительно увеличиться в течение трех-четырех лет. Увеличение производства мяса и молока может повысить самообеспеченность региона продуктами питания и уменьшить зависимость от импорта. Для достижения поставленных целей по увеличению производства необходимо внедрять современные технологии, повышать квалификацию работников и развивать инфраструктуру для животноводства. Активное развитие животноводческого сектора может привести к увеличению экономического роста и улучшению жизни сельского населения области. </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-1.png</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-5.jpg</t>
   </si>
 </sst>
 </file>
@@ -697,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,18 +490,18 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -741,7 +509,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -749,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -760,10 +531,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -771,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -782,10 +553,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -793,18 +567,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -812,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -826,76 +603,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -88,13 +88,13 @@
     <t xml:space="preserve">Животноводческое производство в Витебской области имеет большой потенциал для увеличения производства мяса и молока. Витебская область расположена в северо-восточной части Беларуси и характеризуется хорошими природными условиями для животноводства, такими как плодородные почвы и обилие пастбищ. Правительство области планирует уделить максимальное внимание развитию животноводческой продукции. Если будет добавлено 5-7% производства ежегодно, производство мяса и молока может значительно увеличиться в течение трех-четырех лет. Увеличение производства мяса и молока может повысить самообеспеченность региона продуктами питания и уменьшить зависимость от импорта. Для достижения поставленных целей по увеличению производства необходимо внедрять современные технологии, повышать квалификацию работников и развивать инфраструктуру для животноводства. Активное развитие животноводческого сектора может привести к увеличению экономического роста и улучшению жизни сельского населения области. </t>
   </si>
   <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-1.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-5.jpg</t>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-2.png</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-6.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-7.jpg</t>
   </si>
 </sst>
 </file>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>h2</t>
   </si>
@@ -25,76 +25,148 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>PROBLEMS AND PROSPECTS OF THE DAIRY SUB-AGRO-INDUSTRIAL COMPLEX IN THE REPUBLIC OF DAGESTAN</t>
-  </si>
-  <si>
-    <t>Свежий номер</t>
-  </si>
-  <si>
-    <t>Иван Федяков, глава ГК INFOLine</t>
-  </si>
-  <si>
-    <t>Андрей Дахнович, председатель совета директоров Еланского и Семикаракорского сыродельных комбинатов</t>
-  </si>
-  <si>
-    <t>Вячеслав Гладков, губернатор Белгородской области</t>
-  </si>
-  <si>
-    <t>Анатолий Лосев, генеральный директор ГК «Молвест»</t>
-  </si>
-  <si>
-    <t>Александр Поляк, директор компании «ИТ молоко»</t>
-  </si>
-  <si>
-    <t>Дмитрий Матвеев, президент ГК «Кабош»</t>
-  </si>
-  <si>
-    <t>Артем Крецу, представитель ТОО «ДЕП» (Казахстан)</t>
-  </si>
-  <si>
-    <t>Игорь Брыло, помощник президента Беларуси по Витебской области</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статья рассматривает развитие молочной субреспублики и нацелена на решение проблем, связанных с увеличением производства молока в RD. В статье проведен анализ структуры затрат на молоко и молочные продукты, что может свидетельствовать о неэффективностях в текущем процессе производства. Статья подчеркивает важность увеличения производства молока, вероятно, в связи с ростом спроса на молочные продукты. Дополнительные мысли и факты: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Министерство сельского хозяйства и продовольствия Дагестана планирует разработать госпрограмму, способствующую развитию молочного скотоводства. Главная цель этой программы заключается в увеличении объемов производства собственной молочной продукции и снижении завоза молока из других регионов. В связи с этим, премьер-министр Дагестана, Абдулмуслим Абдулмуслимов, посетил молочную ферму и выразил свою обеспокоенность фактом, что регион не обеспечивает себя достаточным количеством молочной продукции. Одной из молочных ферм, которую посетил премьер-министр, является ферма ООО «Мареновский», занимающаяся разведением двух пород коров — черно-пестрой и красной степной. Однако, по данным пресс-службы правительства республики, более половины молочной продукции в Дагестане по-прежнему импортируется из других регионов, что говорит о недостаточном уровне собственного производства. В свете этих фактов, Министерство сельского хозяйства и продовольствия Дагестана получило поручение разработать республиканскую программу по развитию молочного скотоводства, которая будет ориентирована на господдержку фермеров и направлена на решение проблемы нехватки собственной молочной продукции в регионе. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роботизированная система доения коров в хозяйстве АО «Голыцино» привела к значительному улучшению качества молока и организации процесса доения. Благодаря этой системе, предприятие стало одним из лучших по показателю удоя молока. В настоящий момент в хозяйстве функционирует 8 роботов, которые обслуживают 60 коров каждый. ООО Кизляр Урицкого мясокомбината планирует создать молокоперерабатывающий завод и разведение 1000 дойных коров, чтобы расширить свою сырьевую базу. Проект будет реализован поэтапно, начиная с молочно-товарной фермы на 250 коров. В Дагестане ставятся задачи по дальнейшему развитию молочного скотоводства, так как республика еще не полностью удовлетворяет свои внутренние потребности в молоке. Для достижения этой цели в республике реализуются инвестиционные проекты при поддержке государства.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискаунтеры являются популярным выбором для бедного населения из-за своего формата, предлагающего низкие цены и ограниченный ассортимент товаров. На данный момент российские дискаунтеры сосредоточены на увеличении доли продаж товаров под маркой СТМ, и планируют достичь 50% продаж под этой маркой в течение ближайших 3-5 лет. Развитие сетей дискаунтеров является важной стратегией для крупных розничных сетей, которые хотят укрепить свою позицию на рынке и конкурировать с другими сетями. С увеличением числа бедного населения, спрос на дискаунтеры также увеличивается. Марка СТМ, скорее всего, является собственной торговой маркой дискаунтеров, позволяющей им поддерживать низкие цены на товары. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В России ежемесячное потребление пиццачиза составляет около 1200-1400 тонн. Однако, аналоги пиццачиза потребляются в России гораздо больше — около 4000 тонн в месяц. Соотношение потребления пиццы с настоящей моцареллой и пиццы с аналогом приблизительно равно 1:3. Эти данные отражают лишь потребность в пиццачизе внутри России. Заметно большее потребление аналогов пиццачиза по сравнению с настоящей моцареллой. В то же время, неизвестны факторы, влияющие на такое значительное потребление аналогов. Возможно, это связано с их доступностью и низкой стоимостью. Чтобы лучше понять причины этого различия, может быть полезна дополнительная информация о происхождении пиццачиза. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В Белгородской области аграрии сталкиваются с непростыми условиями, которые включают обстрелы и минирование. В связи с этим аграрии вынуждены работать в очень тяжелых условиях, в касках и бронежилетах. Однако, несмотря на все трудности, мужественные аграрии продолжают справляться со своими задачами. Автор искренне благодарен аграриям за их работу и усилия. Опасные условия для аграриев в Белгородской области могут быть связаны с военными действиями и конфликтами, которые представляют угрозу им и окружающей среде. Обстрелы и минирование создают серьезную угрозу для безопасности аграриев во время их работы на полях. Чтобы снизить риск, аграрии вынуждены носить каски и бронежилеты, что позволяет им защититься от возможных опасностей. Это свидетельствует о том, насколько тяжелыми и опасными являются условия работы для аграриев в регионе. Несмотря на все трудности, мужество аграриев проявляется в их способности продолжать работу в сложных условиях. Они не только справляются со своими задачами, но и успешно выполняют их, несмотря на риски, которые сопряжены с их профессией. Автор данного текста возносит благодарность аграриям за их посильный вклад и усилия. Он признает их мужество, преданность своей работе и способность преодолевать трудности, с которыми они сталкиваются ежедневно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Повышение ключевой ставки до 12% и уменьшение субсидирования от ключевой ставки являются болезненной мерой для производителей и переработчиков молока. Это означает, что предприятия, которые планировали развиваться и модернизироваться, будут вынуждены уменьшить свои инвестиции. Это приведет к сокращению объемов инвестиций в молочную отрасль. Переработчики молока, такие как сыроварни и молочные комбинаты, будут столкнуться с высокими затратами на кредиты, что может ограничить их способность рассчитывать на новое оборудование и технологии. Увеличение себестоимости молочной продукции может привести к росту цен для потребителей, что может ухудшить конкурентоспособность молочной отрасли на рынке.  Повышение ставки кредитования также повлияет на предприятия, работающие в молочной отрасли. Увеличение стоимости денег приведет к росту себестоимости производства молочной продукции. Это означает, что производители молока будут сталкиваться с большими затратами на заемные средства для покупки кормов и оборудования, а также для оплаты рабочей силы. В итоге, себестоимость производства молочной продукции вырастет, что может привести к необходимости поднятия цен на продукцию. Это осложнит конкуренцию на рынке молочной отрасли и может снизить спрос.  В свете этих изменений предприятия в молочной отрасли могут быть вынуждены искать альтернативные источники финансирования или снижать свою деятельность. Они могут обратиться к частным инвесторам или искать государственные программы поддержки. Однако, это может быть сложно, особенно для малых предприятий, которые не имеют доступа к большим источникам финансирования. В результате, развитие и инновации в молочной отрасли могут замедлиться, что негативно скажется на развитии отрасли в целом. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В ближайшем будущем ожидается повышение ключевой ставки до 12%. Это решение Центрального банка направлено на контроль инфляции и укрепление рубля. Однако, такое повышение может продлиться недолго. Спустя полгода ожидается стабилизация ставки. Стабилизация ставки будет связана с положительным торговым сальдо России за 2023 год. Улучшение экономической ситуации страны, включая рост торгового сальдо, способствует стабилизации. Это может быть достигнуто за счет увеличения экспорта и сокращения импорта товаров и услуг. Увеличение экспорта может быть обусловлено ростом мирового спроса на российскую продукцию, такую как энергоносители или сельскохозяйственные товары. Это может положительно сказаться на торговом сальдо и способствовать стабилизации экономики. Стабильная экономическая ситуация также имеет положительный эффект на бизнес-среду. Она может привлечь инвестиции в Россию и способствовать развитию страны. Таким образом, повышение ключевой ставки и стабилизация экономики имеют важное значение для будущего России. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Азия, Ближний Восток и Евросоюз имеют различия в менталитете и культуре потребления. Так, в Азии и на Ближнем Востоке существуют уникальные предпочтения и традиции при выборе и потреблении товаров, отличающиеся от европейских стандартов. Для успешного экспорта продукции в эти регионы необходимо совместное действие государства и бизнеса. Одной из важных составляющих является адаптация продукции к менталитету и культуре данных регионов. В частности, могут потребоваться изменения в упаковке, маркировке и содержании товаров. Кроме того, в странах Азии и Ближнего Востока особое внимание уделяется прошлому опыту деловых отношений и доверию к поставщику. Поэтому для успешного экспорта необходимо учитывать эти аспекты. Государство может оказать поддержку для успешного экспорта продукции в эти регионы. Среди возможных мер поддержки можно выделить установление торговых соглашений, совместное продвижение продукции на внешних рынках, привлечение инвестиций в экономику и обеспечение юридической защиты интересов бизнеса. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Россия приняла решение поддержать молочную отрасль Казахстана с целью способствовать развитию этого сектора в стране. Это решение является одной из мер поддержки российских экспортеров и поможет им укрепить свои позиции на рынке.  Поддержка молочной отрасли Казахстана имеет важное значение для республики. Казахстан является импортером продуктов сухих фракций из России, поэтому поддержка этой отрасли будет способствовать расширению ассортимента продуктов на казахстанском рынке и диверсификации его структуры.  Для развития молочной отрасли в Казахстане может потребоваться дополнительная поддержка, так как конкуренция на российском рынке достаточно высока. Поддержка экспортеров поможет увеличить объемы экспорта молочных продуктов из Казахстана и укрепить позиции на международном рынке. Ввоз продуктов сухих фракций из России способствует расширению ассортимента предлагаемых товаров и помогает разнообразить рынок в Казахстане. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Животноводческое производство в Витебской области имеет большой потенциал для увеличения производства мяса и молока. Витебская область расположена в северо-восточной части Беларуси и характеризуется хорошими природными условиями для животноводства, такими как плодородные почвы и обилие пастбищ. Правительство области планирует уделить максимальное внимание развитию животноводческой продукции. Если будет добавлено 5-7% производства ежегодно, производство мяса и молока может значительно увеличиться в течение трех-четырех лет. Увеличение производства мяса и молока может повысить самообеспеченность региона продуктами питания и уменьшить зависимость от импорта. Для достижения поставленных целей по увеличению производства необходимо внедрять современные технологии, повышать квалификацию работников и развивать инфраструктуру для животноводства. Активное развитие животноводческого сектора может привести к увеличению экономического роста и улучшению жизни сельского населения области. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-2.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-6.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/num3-7.jpg</t>
+    <t>Лучшие «балконные» сорта огурцов</t>
+  </si>
+  <si>
+    <t>Освещение</t>
+  </si>
+  <si>
+    <t>Температура</t>
+  </si>
+  <si>
+    <t>Подготавливаем емкости и место</t>
+  </si>
+  <si>
+    <t>Семена</t>
+  </si>
+  <si>
+    <t>Свет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пересадка проростков    </t>
+  </si>
+  <si>
+    <t>Схема поливов</t>
+  </si>
+  <si>
+    <t>Формирование огуречной плети</t>
+  </si>
+  <si>
+    <t>Борьба с вредителями</t>
+  </si>
+  <si>
+    <t>Сбор урожая</t>
+  </si>
+  <si>
+    <t>Также не стоит забывать о подкормке огурцов, которую рекомендуется начать через 2 недели после обнаружения первых ростков.</t>
+  </si>
+  <si>
+    <t>Сорта огурцов для выращивания на балконе</t>
+  </si>
+  <si>
+    <t>Гоша F1</t>
+  </si>
+  <si>
+    <t>Апрельский F1</t>
+  </si>
+  <si>
+    <t>Посадка на рассаду и пикирование</t>
+  </si>
+  <si>
+    <t>Полив и необходимая влажность</t>
+  </si>
+  <si>
+    <t>Подкормки</t>
+  </si>
+  <si>
+    <t>Тля</t>
+  </si>
+  <si>
+    <t>Паутинный клещ</t>
+  </si>
+  <si>
+    <t>Когда ждать урожай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На балконе высаживают не первый попавшийся сорт, а специальные балконные огурцы. На упаковке должно быть написано, что это семена для комнатного и балконного выращивания. Требования к сортам для выращивания на балконе или подоконнике: Балконные сорта дают плоды, которые по вкусу ничем не уступают аналогам, выращенным на традиционных грядках или в теплицах. Популярные сорта огурцов для балконов.:       Сорт "Городской огурчик"   Огурцы сорта "Махаон"   Огурцы "Балконное чудо"   Огурцы сорта "Апрельские"   Сорт огурцов "Балаган"   Огурцы "Дебют"   Сорт огурцов "Зозуля"   Огурцы "Колибри"   Огурцы сорта "Маша"   Огурцы "Изящные"   Сорт огурцов "Гирлянда"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важное условие роста огурцов – хорошее освещение. Летом на балконы и лоджии, через стеклопакеты, проникает достаточно света. Проблема может появиться в марте, когда естественного освещения недостаточно для роста овощей. Чтобы устранить дефицит света, на балконе ставят специальные лампы для парников – их оставляют включенными на всю ночь. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идеальная температура для роста огурцов – 18-22°C тепла. Чтобы обеспечить такую температуру на балконе, недостаточно обычного остекления. Сеют огурцы в феврале, когда на улице еще очень холодно. Чтобы температура на балконе была на уровне комнатной, его необходимо дополнительно утеплить. При температуре выше +22°C растения вянут, а почва пересыхает – ее приходится увлажнять чаще положенного, что способствует развитию грибковых заболеваний. Если же столбик термометра опустится ниже +18°C, кусты хоть и будут расти, завязей не дадут. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы на балконе без проблем росли огурцы, надо до мелочей продумать систему контроля – при малейших заморозках огурцы погибают. В зависимости от периода выращивания предусматривают обеспечение оптимальной температуры и освещения. Роль «грядок» будут играть различные емкости. Особенности выбора тары: Рассаду, выращенную в торфяных стаканах, пересаживают в грунт вместе с тарой – она не только со временем растворится, но и удобрит грунт.  В качестве тары также подойдут мешки. В одном мешке помещается 2-3 куста (на 1 кв. м – 3 растения). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Посев семян на рассаду начинают в марте или даже в феврале. Время высадки ростков в грунт – апрель. Много балконных сортов относится к скороспелым, в среднем от посева до созревания плодов проходит 2-2,5 месяца. Подготовка семян:    Чтобы получить хорошую рассаду, семена надо проращивать. Держат посевы в комнате – на застекленном балконе им будет холодно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если помещение, в котором выращивают рассаду, испытывает дефицит света, включают искусственное освещение. Лампы для подсветки располагают так, чтобы рассада находилась на достаточном удалении от источников света. На рассаду не должен падать прямой солнечный свет. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Высадка рассады в контейнеры производится через 30 дней после посева. Последняя подкормка должна быть произведена не менее, чем за 7 дней до пересадки. Порядок высадки огуречной рассады:  Чтобы рассада лучше укоренялась и приживалась, рекомендуется пересаживать ее в грунт, аналогичный по составу тому, в котором были выращены сеянцы. Емкости с высаженными сеянцами расставляют так, чтобы они не стояли под открытым солнцем. Им также противопоказан сквозняк. Лучше всего ставить ящики и горшки возле боковых стен балкона и в его углах. Сразу после расстановки емкостей, можно поставить приспособления для плетей – шпалеру или сетку. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особенности полива огурцов на балконе: Важно увлажнять не только почву, но и воздух – если наблюдается пониженная влажность. Для этого устанавливают увлажнитель или опрыскивают пространство из обычного пульверизатора. Также повысить влажность можно путем установки емкостей с водой. При орошении воздух из пульверизатора, нельзя допускать попадания воды на растения. После впитывания влаги, почву аккуратно рыхлят. Если грунт в горшках и контейнерах оседает, надо досыпать его до первоначального уровня.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы растение хорошо плодоносило, и не тратило силы на образование лишней зеленой массы, его прищипывают. Прищипка делается с учетом особенностей сорта. Как прищипывать огурцы в зависимости от сорта: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выращивая огурцы на балконе, надо стараться обойтись без химии. С помощью народных средств модно справиться с большинством огуречных вредителей. У балконных огурцов три главных врага: Больше о вредителях и болезнях огурцов читайте здесь. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">На балконе плоды надо срывать по мере достижения ими нормального для сорта размера. Слишком большие плоды ослабляют куст. Максимальную длина плодов смотрите на пакете с семенами. Чем чаще собирают плоды, тем больше их растет. Сбросив урожай, растение вновь направляет силы на плодоношение – начинается цветение, завязывание плодов и т.д. Большая часть сортов дает урожай через 55-70 дней после посева семян. Созревшие плоды должны быть насыщенно-зеленого цвета, при аккуратном сдавливании – твердые. Нужно аккуратно срезать плоды секатором, нельзя срывать их – можно повредить плети. Если обеспечить огурцам благоприятные условия, урожая хватит не только на ежедневные салаты, но даже на небольшие заготовки. Каждое растение дает не менее десяти плодов, а постаравшись, можно получить 35-40 штук. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понравилась статья? Подпишитесь на канал, чтобы быть в курсе самых интересных материалов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выращивание огурцов на балконе Вырастить огурцы на балконе можно, если выбрать удачный сорт и правильно формировать куст. Уход за лианой, растущей в емкости, имеет особенности. Потребуется плодородный грунт, мероприятия, усиливающие фотосинтетическую активность листьев, и препараты, повышающие урожайность. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для выращивания на балконе идеально подходят партенокарпические гибриды. У этой разновидности огурцов плоды завязываются без опыления. Балконные огурцы будут чуть мельче тепличных и грунтовых, но на вкусе и аромате это никак не отразится. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гоша F1 тоже от фирмы «Партнер» и тоже стабильно плодоносит на балконе. При грамотном уходе и подсыпке грунта куст работает до 2 месяцев, а у кого-то и больше. Продолжительность жизни зависит от: Это корнишонная разновидность с ранним сроком созревания (38 дней). Характеристики плода: длина − 10−12 см, диаметр – 3 см, вес − 100−110 г. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот гибрид любители домашнего растениеводства распробовали давно. В холодное время года успешно выращивают на подоконнике, а в конце весны и летом – на балконе. Огурец Апрельский хорош в салатах и нарезках, для заготовок не годится. Плодоносить начинает на 40−45 день. В пазухах формируется по одной завязи. Боковое ветвление ограничено, поэтому легко поддерживать оптимальную форму куста. Характеристики плода: длина − 12−22 см, диаметр – 3,5 см, вес – до 300 г. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если балкон не застеклен, то прибегают к рассадному методу выращивания. Сеянцы спокойно подрастают на подоконнике, а с наступлением тепла их пересаживают в большие емкости. Семена высевают в легкую пропаренную почву. В качестве тары используют: В помещении днем поддерживают температуру 22−24°C, ночью − 17−18°C. В большие горшки рассаду пикируют в возрасте 20−25 дней (фаза 4−5 листа). Если с рассадой возиться некогда, то семена проращивают в хорошо обработанных хвойных опилках. После появления семядолей и одного настоящего листа проростки пересаживают в постоянную емкость. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В фазе рассады нежные побеги огурцов плохо переносят пересыхание и переувлажнение грунта, хорошо отзываются на регулярные, но умеренные поливы. Подросшие и вступившие в пору плодоношения растения поливают ежедневно. Замечание! Огурец родом из тропиков, ему хорошо при высокой влажности воздуха (90−95%). В жаркую погоду воздух на балконе увлажняют. Используют обычный пульверизатор или бытовой увлажнитель. Чтобы снизить риск грибковых заболеваний, почву увлажняют в первой половине дня. Объем поливной воды регулируют по погоде, в солнечную - расход увеличивают. При правильном поливе она быстро впитывается и в горшке не образуется «болото». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рассаду первый раз подкармливают в фазе семядолей, а второй раз через 10−14 дней. Используют Биогумус (5 мл/л) или комплексные удобрения (по 1 чайной ложке на 5 л воды): Если семена сеют сразу в большой горшок, то до цветения используют аналогичные подкормки. При вступлении в плодоношение огурцы раз в 7−10 дней подкармливают под корень: Если листья блеклые, то прибегают к внекорневым подкормкам. Огурцы на балконе опрыскивают кальциевой селитрой (1 г/л) или мочевиной (2 г/л). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тля паразитирует на нижней стороне листьев. На начальном этапе мелкого паразита можно извести настоем, приготовленным из: При сильном заселении тлей листья скручиваются и тогда используют биопрепарат Фитоверм, он не токсичен и его можно использовать на балконе. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поселяется и на стеблях, и на листьях, и на плодах. О присутствии вредителя говорит легкая паутинка. Паразит угнетает растение. Листья сначала приобретают мраморный оттенок, потом буреют и усыхают. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сроки ожидания урожая указаны на упаковке с семенами – характеристика «Срок созревания». Отсчет начинают со дня появления всходов. Если огурцы пикируют, то к сроку созревания добавляют 5−7 дней. После пересадки растение может притормозить в развитии. Замечание! Чтобы активизировать плодоношение, первые зеленцы срывают небольшими, не ждут пока они достигнут сортовых размеров. На балконе нужно выращивать партенокарпические огурцы, которые завязывают плоды без опыления. Если сторона не солнечная, то требуются теневыносливые гибриды – такие, как Атлет, Ухажер, Татьяна, Королек, Стелла. Подробнее о выращивании огурцов на балконе вы узнаете из видео.  Метки: балконОгурцы </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/11-girlyand-2.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/torfyanye-gorshochki-3.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/maxresdefault-4-3.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/ogurtcy-tri-balkon.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/ogurcy-na-podokonnike.jpg</t>
   </si>
 </sst>
 </file>
@@ -465,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +562,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -501,18 +576,18 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -520,10 +595,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -531,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -542,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -553,13 +631,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -567,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -578,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -589,13 +667,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -603,17 +678,143 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>h2</t>
   </si>
@@ -25,148 +25,72 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>Лучшие «балконные» сорта огурцов</t>
-  </si>
-  <si>
-    <t>Освещение</t>
-  </si>
-  <si>
-    <t>Температура</t>
-  </si>
-  <si>
-    <t>Подготавливаем емкости и место</t>
-  </si>
-  <si>
-    <t>Семена</t>
-  </si>
-  <si>
-    <t>Свет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пересадка проростков    </t>
-  </si>
-  <si>
-    <t>Схема поливов</t>
-  </si>
-  <si>
-    <t>Формирование огуречной плети</t>
-  </si>
-  <si>
-    <t>Борьба с вредителями</t>
-  </si>
-  <si>
-    <t>Сбор урожая</t>
-  </si>
-  <si>
-    <t>Также не стоит забывать о подкормке огурцов, которую рекомендуется начать через 2 недели после обнаружения первых ростков.</t>
-  </si>
-  <si>
-    <t>Сорта огурцов для выращивания на балконе</t>
-  </si>
-  <si>
-    <t>Гоша F1</t>
-  </si>
-  <si>
-    <t>Апрельский F1</t>
-  </si>
-  <si>
-    <t>Посадка на рассаду и пикирование</t>
-  </si>
-  <si>
-    <t>Полив и необходимая влажность</t>
-  </si>
-  <si>
-    <t>Подкормки</t>
-  </si>
-  <si>
-    <t>Тля</t>
-  </si>
-  <si>
-    <t>Паутинный клещ</t>
-  </si>
-  <si>
-    <t>Когда ждать урожай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На балконе высаживают не первый попавшийся сорт, а специальные балконные огурцы. На упаковке должно быть написано, что это семена для комнатного и балконного выращивания. Требования к сортам для выращивания на балконе или подоконнике: Балконные сорта дают плоды, которые по вкусу ничем не уступают аналогам, выращенным на традиционных грядках или в теплицах. Популярные сорта огурцов для балконов.:       Сорт "Городской огурчик"   Огурцы сорта "Махаон"   Огурцы "Балконное чудо"   Огурцы сорта "Апрельские"   Сорт огурцов "Балаган"   Огурцы "Дебют"   Сорт огурцов "Зозуля"   Огурцы "Колибри"   Огурцы сорта "Маша"   Огурцы "Изящные"   Сорт огурцов "Гирлянда"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Важное условие роста огурцов – хорошее освещение. Летом на балконы и лоджии, через стеклопакеты, проникает достаточно света. Проблема может появиться в марте, когда естественного освещения недостаточно для роста овощей. Чтобы устранить дефицит света, на балконе ставят специальные лампы для парников – их оставляют включенными на всю ночь. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идеальная температура для роста огурцов – 18-22°C тепла. Чтобы обеспечить такую температуру на балконе, недостаточно обычного остекления. Сеют огурцы в феврале, когда на улице еще очень холодно. Чтобы температура на балконе была на уровне комнатной, его необходимо дополнительно утеплить. При температуре выше +22°C растения вянут, а почва пересыхает – ее приходится увлажнять чаще положенного, что способствует развитию грибковых заболеваний. Если же столбик термометра опустится ниже +18°C, кусты хоть и будут расти, завязей не дадут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чтобы на балконе без проблем росли огурцы, надо до мелочей продумать систему контроля – при малейших заморозках огурцы погибают. В зависимости от периода выращивания предусматривают обеспечение оптимальной температуры и освещения. Роль «грядок» будут играть различные емкости. Особенности выбора тары: Рассаду, выращенную в торфяных стаканах, пересаживают в грунт вместе с тарой – она не только со временем растворится, но и удобрит грунт.  В качестве тары также подойдут мешки. В одном мешке помещается 2-3 куста (на 1 кв. м – 3 растения). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посев семян на рассаду начинают в марте или даже в феврале. Время высадки ростков в грунт – апрель. Много балконных сортов относится к скороспелым, в среднем от посева до созревания плодов проходит 2-2,5 месяца. Подготовка семян:    Чтобы получить хорошую рассаду, семена надо проращивать. Держат посевы в комнате – на застекленном балконе им будет холодно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если помещение, в котором выращивают рассаду, испытывает дефицит света, включают искусственное освещение. Лампы для подсветки располагают так, чтобы рассада находилась на достаточном удалении от источников света. На рассаду не должен падать прямой солнечный свет. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Высадка рассады в контейнеры производится через 30 дней после посева. Последняя подкормка должна быть произведена не менее, чем за 7 дней до пересадки. Порядок высадки огуречной рассады:  Чтобы рассада лучше укоренялась и приживалась, рекомендуется пересаживать ее в грунт, аналогичный по составу тому, в котором были выращены сеянцы. Емкости с высаженными сеянцами расставляют так, чтобы они не стояли под открытым солнцем. Им также противопоказан сквозняк. Лучше всего ставить ящики и горшки возле боковых стен балкона и в его углах. Сразу после расстановки емкостей, можно поставить приспособления для плетей – шпалеру или сетку. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Особенности полива огурцов на балконе: Важно увлажнять не только почву, но и воздух – если наблюдается пониженная влажность. Для этого устанавливают увлажнитель или опрыскивают пространство из обычного пульверизатора. Также повысить влажность можно путем установки емкостей с водой. При орошении воздух из пульверизатора, нельзя допускать попадания воды на растения. После впитывания влаги, почву аккуратно рыхлят. Если грунт в горшках и контейнерах оседает, надо досыпать его до первоначального уровня.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чтобы растение хорошо плодоносило, и не тратило силы на образование лишней зеленой массы, его прищипывают. Прищипка делается с учетом особенностей сорта. Как прищипывать огурцы в зависимости от сорта: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выращивая огурцы на балконе, надо стараться обойтись без химии. С помощью народных средств модно справиться с большинством огуречных вредителей. У балконных огурцов три главных врага: Больше о вредителях и болезнях огурцов читайте здесь. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">На балконе плоды надо срывать по мере достижения ими нормального для сорта размера. Слишком большие плоды ослабляют куст. Максимальную длина плодов смотрите на пакете с семенами. Чем чаще собирают плоды, тем больше их растет. Сбросив урожай, растение вновь направляет силы на плодоношение – начинается цветение, завязывание плодов и т.д. Большая часть сортов дает урожай через 55-70 дней после посева семян. Созревшие плоды должны быть насыщенно-зеленого цвета, при аккуратном сдавливании – твердые. Нужно аккуратно срезать плоды секатором, нельзя срывать их – можно повредить плети. Если обеспечить огурцам благоприятные условия, урожая хватит не только на ежедневные салаты, но даже на небольшие заготовки. Каждое растение дает не менее десяти плодов, а постаравшись, можно получить 35-40 штук. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Понравилась статья? Подпишитесь на канал, чтобы быть в курсе самых интересных материалов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выращивание огурцов на балконе Вырастить огурцы на балконе можно, если выбрать удачный сорт и правильно формировать куст. Уход за лианой, растущей в емкости, имеет особенности. Потребуется плодородный грунт, мероприятия, усиливающие фотосинтетическую активность листьев, и препараты, повышающие урожайность. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для выращивания на балконе идеально подходят партенокарпические гибриды. У этой разновидности огурцов плоды завязываются без опыления. Балконные огурцы будут чуть мельче тепличных и грунтовых, но на вкусе и аромате это никак не отразится. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гоша F1 тоже от фирмы «Партнер» и тоже стабильно плодоносит на балконе. При грамотном уходе и подсыпке грунта куст работает до 2 месяцев, а у кого-то и больше. Продолжительность жизни зависит от: Это корнишонная разновидность с ранним сроком созревания (38 дней). Характеристики плода: длина − 10−12 см, диаметр – 3 см, вес − 100−110 г. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Этот гибрид любители домашнего растениеводства распробовали давно. В холодное время года успешно выращивают на подоконнике, а в конце весны и летом – на балконе. Огурец Апрельский хорош в салатах и нарезках, для заготовок не годится. Плодоносить начинает на 40−45 день. В пазухах формируется по одной завязи. Боковое ветвление ограничено, поэтому легко поддерживать оптимальную форму куста. Характеристики плода: длина − 12−22 см, диаметр – 3,5 см, вес – до 300 г. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если балкон не застеклен, то прибегают к рассадному методу выращивания. Сеянцы спокойно подрастают на подоконнике, а с наступлением тепла их пересаживают в большие емкости. Семена высевают в легкую пропаренную почву. В качестве тары используют: В помещении днем поддерживают температуру 22−24°C, ночью − 17−18°C. В большие горшки рассаду пикируют в возрасте 20−25 дней (фаза 4−5 листа). Если с рассадой возиться некогда, то семена проращивают в хорошо обработанных хвойных опилках. После появления семядолей и одного настоящего листа проростки пересаживают в постоянную емкость. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В фазе рассады нежные побеги огурцов плохо переносят пересыхание и переувлажнение грунта, хорошо отзываются на регулярные, но умеренные поливы. Подросшие и вступившие в пору плодоношения растения поливают ежедневно. Замечание! Огурец родом из тропиков, ему хорошо при высокой влажности воздуха (90−95%). В жаркую погоду воздух на балконе увлажняют. Используют обычный пульверизатор или бытовой увлажнитель. Чтобы снизить риск грибковых заболеваний, почву увлажняют в первой половине дня. Объем поливной воды регулируют по погоде, в солнечную - расход увеличивают. При правильном поливе она быстро впитывается и в горшке не образуется «болото». </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рассаду первый раз подкармливают в фазе семядолей, а второй раз через 10−14 дней. Используют Биогумус (5 мл/л) или комплексные удобрения (по 1 чайной ложке на 5 л воды): Если семена сеют сразу в большой горшок, то до цветения используют аналогичные подкормки. При вступлении в плодоношение огурцы раз в 7−10 дней подкармливают под корень: Если листья блеклые, то прибегают к внекорневым подкормкам. Огурцы на балконе опрыскивают кальциевой селитрой (1 г/л) или мочевиной (2 г/л). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тля паразитирует на нижней стороне листьев. На начальном этапе мелкого паразита можно извести настоем, приготовленным из: При сильном заселении тлей листья скручиваются и тогда используют биопрепарат Фитоверм, он не токсичен и его можно использовать на балконе. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поселяется и на стеблях, и на листьях, и на плодах. О присутствии вредителя говорит легкая паутинка. Паразит угнетает растение. Листья сначала приобретают мраморный оттенок, потом буреют и усыхают. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сроки ожидания урожая указаны на упаковке с семенами – характеристика «Срок созревания». Отсчет начинают со дня появления всходов. Если огурцы пикируют, то к сроку созревания добавляют 5−7 дней. После пересадки растение может притормозить в развитии. Замечание! Чтобы активизировать плодоношение, первые зеленцы срывают небольшими, не ждут пока они достигнут сортовых размеров. На балконе нужно выращивать партенокарпические огурцы, которые завязывают плоды без опыления. Если сторона не солнечная, то требуются теневыносливые гибриды – такие, как Атлет, Ухажер, Татьяна, Королек, Стелла. Подробнее о выращивании огурцов на балконе вы узнаете из видео.  Метки: балконОгурцы </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/11-girlyand-2.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/torfyanye-gorshochki-3.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/maxresdefault-4-3.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/ogurtcy-tri-balkon.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/ogurcy-na-podokonnike.jpg</t>
+    <t>Вливания в «молочные реки». Производство молока остается привлекательным направлением для инвесторов</t>
+  </si>
+  <si>
+    <t>Добавление статьи в новую подборку</t>
+  </si>
+  <si>
+    <t>Правило 2. Придерживайтесь сроков уборки урожая</t>
+  </si>
+  <si>
+    <t>Правило 4. Проведите сортировку плодов перед хранением</t>
+  </si>
+  <si>
+    <t>Правило 5. Защитите урожай от болезней и вредителей</t>
+  </si>
+  <si>
+    <t>Как хранить картофель</t>
+  </si>
+  <si>
+    <t>Как хранить морковь</t>
+  </si>
+  <si>
+    <t>Как хранить свеклу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подпишитесь на новости апк Любое использование материалов допускается только при соблюдении правил перепечатки и при наличии активной гиперссылки на сайт agroinvestor.ru. Редакция не несет ответственности за достоверность информации, опубликованной в рекламных объявлениях, партнерских материалах и сообщениях информационных агентств. 
+                            Свидетельство о регистрации СМИ ПИ № ФС 77 – 80404
+                            Все права защищены
+                            © 2004–2023 ООО «Континуум Риал Эстейт»
+                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправить статью 
+А вы знаете, что большая часть урожая (до 30%!) погибает не от зубов вредителей или от коварных болезней, а во время хранения? Несоблюдение температуры и влажности в помещении, слишком яркий свет, неправильные соседи – и это еще не все проблемы, которые губят ваш урожай после уборки.
+ Снижают лежкость овощей также неправильная уборка и отсутствие подготовки плодов к хранению. Однако обо всем по порядку. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Слишком ранняя, как и чересчур поздняя уборка урожая не самым лучшим образом сказывается на лежкости плодов: они гниют или, наоборот, очень быстро сохнут, повреждаются болезнями, теряют свои вкусовые качества. По этой причине одно из основных условий хорошего хранения плодов – соблюдение сроков уборки. Когда убирать урожай овощей, зависит от многих факторов: от региона проживания, от погоды в данном сезоне, от сроков созревания сорта и т. д. Однако существуют общие правила, которые помогут определиться со временем уборки урожая. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После уборки и последующей подготовки весь урожай перед отправкой на хранение тщательно сортируют. Для длительного хранения оставляют плоды и корнеплоды: Все экземпляры с поврежденной кожицей, вмятинами, другими повреждениями употребляют в пищу в первую очередь или отправляют на переработку, т. к. подобные плоды долго храниться не будут, да и, кроме того, могут стать причиной повреждения большой части здоровых плодов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Сохраниться в течение нескольких месяцев смогут только абсолютно целые плоды, без признаков заболеваний и механических повреждений. Защитить овощи от болезней поможет соблюдение агротехники выращивания культур, профилактические обработки посадок и повышение иммунитета растений. Еще одна напасть – вредители. Это могут быть и насекомые (проволочник, колорадский жук, медведка и т.д.), и враги покрупнее – грызуны и слизни с улитками. Борьбу с ними нужно начинать сразу пори появлении первых особей. Только так можно уберечь урожай от потери. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заканчивается лето. Пришла пора собирать плоды…   Хороший урожай – мечта каждого садовода. Именно для этого трудолюбивая армия дачников ежегодно выходит на поля битвы за урожай. Если лето выдалось удачное, и деревья ломятся от плодов, ягоды устилают землю, а овощи красуются на грядках – значит пришла пора заняться сохранением урожая на зиму. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Оптимальные условия для хранения картофеля – темное прохладное место. На свету картофель зеленеет, и в нем накапливаются ядовитые вещества. В теплой среде клубни начинают прорастать, а также теряется их питательная ценность. Идеальное место для хранения картофеля – погреб или подвал. Если таковых помещений у вас не имеется, подойдет и балкон, но только до наступления морозов. Для хранения картофеля хорошо подойдут деревянные ящики, предварительно продезинфицированные и просушенные. Периодически картофель следует перебирать, отбирая гнилые и проросшие клубни. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Для хранения моркови опасна, как повышенная влажность, так и пониженная. У этого корнеплода тонкая кожица, поэтому при избытке влаги в воздухе она начинает гнить, а при недостатке – увядать.   Оптимальная влажность для хранения моркови – 90%, а температура +1.   С корнеплодов моркови перед закладкой на хранение нужно обрезать ботву и удалить излишнюю грязь (но не идеально). Морковь должна быть плотной, здоровой, без проростков и механических повреждений. Замечено, что лучше всего хранится та морковь, которая убрана во время заморозков. Если уборка моркови проводилась во влажную погоду, корнеплоды перед хранением необходимо хорошо просушить.   Считается, что лучше хранится та морковь, которая выдержала правильный режим, а именно – между сбором моркови и закладкой на хранение прошло не более суток.   Хранить морковь можно:   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Свекла совершенно не переносит заморозков. Подмороженные корнеплоды быстро начинают портиться. Поэтому для уборки свеклы, предназначенной для хранения, лучше выбрать солнечный сухой день. Обычно в средней полосе России свеклу начинают убирать в октябре, а на юге – в конце октября – ноябре.   Если все же уборка свеклы пришлась на пасмурную погоду, корнеплоды перед закладкой на хранение нужно тщательно просушить во избежание развития болезнетворных бактерий. Выкапывать свеклу нужно аккуратно, стараясь не повредить кожицу.   Далее, свеклу необходимо очистить от излишней грязи, удалить корешки, оставив длину центрального корня приблизительно 6-7 см. Все эти манипуляции следует производить руками, не используя секатор или нож. Любое повреждение корнеплода намного уменьшает срок хранения.   После этого нужно удалить ботву и оставить свеклу для просушки. Сушить свеклу можно на любой подстилке на открытом воздухе (естественно при хорошей погоде).   Далее, корнеплоды можно отсортировать по размеру и разложить на хранение.   Оптимальный режим хранения свеклы:     Способы хранения свеклы:   </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-02-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-04-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-06-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -537,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +486,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -576,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -587,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -598,10 +519,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -612,18 +530,15 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -631,13 +546,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -645,10 +560,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -656,165 +574,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>h2</t>
   </si>
@@ -25,72 +25,160 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>Вливания в «молочные реки». Производство молока остается привлекательным направлением для инвесторов</t>
-  </si>
-  <si>
-    <t>Добавление статьи в новую подборку</t>
-  </si>
-  <si>
-    <t>Правило 2. Придерживайтесь сроков уборки урожая</t>
-  </si>
-  <si>
-    <t>Правило 4. Проведите сортировку плодов перед хранением</t>
-  </si>
-  <si>
-    <t>Правило 5. Защитите урожай от болезней и вредителей</t>
-  </si>
-  <si>
-    <t>Как хранить картофель</t>
-  </si>
-  <si>
-    <t>Как хранить морковь</t>
-  </si>
-  <si>
-    <t>Как хранить свеклу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">подпишитесь на новости апк Любое использование материалов допускается только при соблюдении правил перепечатки и при наличии активной гиперссылки на сайт agroinvestor.ru. Редакция не несет ответственности за достоверность информации, опубликованной в рекламных объявлениях, партнерских материалах и сообщениях информационных агентств. 
-                            Свидетельство о регистрации СМИ ПИ № ФС 77 – 80404
-                            Все права защищены
-                            © 2004–2023 ООО «Континуум Риал Эстейт»
-                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отправить статью 
-А вы знаете, что большая часть урожая (до 30%!) погибает не от зубов вредителей или от коварных болезней, а во время хранения? Несоблюдение температуры и влажности в помещении, слишком яркий свет, неправильные соседи – и это еще не все проблемы, которые губят ваш урожай после уборки.
- Снижают лежкость овощей также неправильная уборка и отсутствие подготовки плодов к хранению. Однако обо всем по порядку. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Слишком ранняя, как и чересчур поздняя уборка урожая не самым лучшим образом сказывается на лежкости плодов: они гниют или, наоборот, очень быстро сохнут, повреждаются болезнями, теряют свои вкусовые качества. По этой причине одно из основных условий хорошего хранения плодов – соблюдение сроков уборки. Когда убирать урожай овощей, зависит от многих факторов: от региона проживания, от погоды в данном сезоне, от сроков созревания сорта и т. д. Однако существуют общие правила, которые помогут определиться со временем уборки урожая. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> После уборки и последующей подготовки весь урожай перед отправкой на хранение тщательно сортируют. Для длительного хранения оставляют плоды и корнеплоды: Все экземпляры с поврежденной кожицей, вмятинами, другими повреждениями употребляют в пищу в первую очередь или отправляют на переработку, т. к. подобные плоды долго храниться не будут, да и, кроме того, могут стать причиной повреждения большой части здоровых плодов. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Сохраниться в течение нескольких месяцев смогут только абсолютно целые плоды, без признаков заболеваний и механических повреждений. Защитить овощи от болезней поможет соблюдение агротехники выращивания культур, профилактические обработки посадок и повышение иммунитета растений. Еще одна напасть – вредители. Это могут быть и насекомые (проволочник, колорадский жук, медведка и т.д.), и враги покрупнее – грызуны и слизни с улитками. Борьбу с ними нужно начинать сразу пори появлении первых особей. Только так можно уберечь урожай от потери. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заканчивается лето. Пришла пора собирать плоды…   Хороший урожай – мечта каждого садовода. Именно для этого трудолюбивая армия дачников ежегодно выходит на поля битвы за урожай. Если лето выдалось удачное, и деревья ломятся от плодов, ягоды устилают землю, а овощи красуются на грядках – значит пришла пора заняться сохранением урожая на зиму. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Оптимальные условия для хранения картофеля – темное прохладное место. На свету картофель зеленеет, и в нем накапливаются ядовитые вещества. В теплой среде клубни начинают прорастать, а также теряется их питательная ценность. Идеальное место для хранения картофеля – погреб или подвал. Если таковых помещений у вас не имеется, подойдет и балкон, но только до наступления морозов. Для хранения картофеля хорошо подойдут деревянные ящики, предварительно продезинфицированные и просушенные. Периодически картофель следует перебирать, отбирая гнилые и проросшие клубни. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Для хранения моркови опасна, как повышенная влажность, так и пониженная. У этого корнеплода тонкая кожица, поэтому при избытке влаги в воздухе она начинает гнить, а при недостатке – увядать.   Оптимальная влажность для хранения моркови – 90%, а температура +1.   С корнеплодов моркови перед закладкой на хранение нужно обрезать ботву и удалить излишнюю грязь (но не идеально). Морковь должна быть плотной, здоровой, без проростков и механических повреждений. Замечено, что лучше всего хранится та морковь, которая убрана во время заморозков. Если уборка моркови проводилась во влажную погоду, корнеплоды перед хранением необходимо хорошо просушить.   Считается, что лучше хранится та морковь, которая выдержала правильный режим, а именно – между сбором моркови и закладкой на хранение прошло не более суток.   Хранить морковь можно:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Свекла совершенно не переносит заморозков. Подмороженные корнеплоды быстро начинают портиться. Поэтому для уборки свеклы, предназначенной для хранения, лучше выбрать солнечный сухой день. Обычно в средней полосе России свеклу начинают убирать в октябре, а на юге – в конце октября – ноябре.   Если все же уборка свеклы пришлась на пасмурную погоду, корнеплоды перед закладкой на хранение нужно тщательно просушить во избежание развития болезнетворных бактерий. Выкапывать свеклу нужно аккуратно, стараясь не повредить кожицу.   Далее, свеклу необходимо очистить от излишней грязи, удалить корешки, оставив длину центрального корня приблизительно 6-7 см. Все эти манипуляции следует производить руками, не используя секатор или нож. Любое повреждение корнеплода намного уменьшает срок хранения.   После этого нужно удалить ботву и оставить свеклу для просушки. Сушить свеклу можно на любой подстилке на открытом воздухе (естественно при хорошей погоде).   Далее, корнеплоды можно отсортировать по размеру и разложить на хранение.   Оптимальный режим хранения свеклы:     Способы хранения свеклы:   </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-02-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-04-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-06-1.jpg</t>
+    <t>Внешний вид и характер птицы</t>
+  </si>
+  <si>
+    <t>Распространение и происхождение породы</t>
+  </si>
+  <si>
+    <t>Какие бывают расцветки?</t>
+  </si>
+  <si>
+    <t>Помещение</t>
+  </si>
+  <si>
+    <t>Летнее и зимнее содержание</t>
+  </si>
+  <si>
+    <t>Добавки и витамины</t>
+  </si>
+  <si>
+    <t>Разведение китайского расписного перепела</t>
+  </si>
+  <si>
+    <t>Условия содержания</t>
+  </si>
+  <si>
+    <t>Советы по покупке и перевозке птиц</t>
+  </si>
+  <si>
+    <t>Особенности транспортировки</t>
+  </si>
+  <si>
+    <t>Описание внешности, половые различия</t>
+  </si>
+  <si>
+    <t>Обустройство места содержания</t>
+  </si>
+  <si>
+    <t>Питание и размножение</t>
+  </si>
+  <si>
+    <t>Отличительные черты вида</t>
+  </si>
+  <si>
+    <t>Отличие самца от самки</t>
+  </si>
+  <si>
+    <t>Продуктивность</t>
+  </si>
+  <si>
+    <t>Обитание в дикой природе</t>
+  </si>
+  <si>
+    <t>Клетки</t>
+  </si>
+  <si>
+    <t>Перепелята</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайского расписного перепела можно с уверенностью назвать наиболее ярким представителем своего вида с визуальной точки зрения – его собратья далеко не так заметны. По размерам же птица довольно мала: длина ее тела варьируется в пределах 11-14 см, плюс 3 см хвоста. Весят такие перепела в среднем 45-70 г. У самок и самцов клювы черного цвета (у последних они с легким оттенком синевы), желто-рыжие лапы и кирпично-красного цвета радужины. Китайские расписные перепела обладают приятным тихим пением. Продолжительность жизни птиц в неволе составляет примерно 10 лет. Характер у китайского расписного довольно спокойный. К соседям по клетке птица относится нормально, особенно если они находятся на верхних этажах. Но для взрослых самцов этого вида перепелов, ужиться вместе будет сложно – они защищают свою территорию и по отношению друг к другу проявляют агрессию. Поэтому лучше держать в отдельной клетке одного самца и самку, либо территория содержания должна быть достаточно большой для нескольких пар. У самок подобной агрессивности не наблюдается. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данный вид повсеместно распространен на юго-востоке Азии вплоть до островов Новой Гвинеи и австралийского континента, встречается и на африканском материке. В связи с большой областью его обитания, включающей обширную территории Китая, вполне объяснимо название породы. В Китае птица на протяжении длительного времени ценится в качестве декоративного питомца. В Европе данная порода начала приобретать популярность лишь в 17 веке. В дикой природе расписной перепел селится на влажных лугах, а для строительства гнезд использует сухую траву и листья. Птицы живут парами, самец (что довольно редко бывает у подобных животных) участвует в выращивании потомства: до появления птенцов он приносит самке корм и защищает гнездо, после появления цыплят – помогает самке с выращиванием и воспитанием потомства.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Селекционеры на сегодняшний день из базового окраса китайского расписного уже успели вывести немало различных расцветок. Среди них особо выделяются: Постоянно появляются новые расцветки птицы, и у любителей декоративных перепелов всегда есть из чего выбрать.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для содержания таких перепелов обычно используются клетки или вольеры. Среди основных требований к помещению для этих птиц стоит выделить: При обустройстве помещения для перепелов этой породы стоит учитывать то, что они являются наземными птицами, поэтому особых возвышенностей в их жилище быть не должно. Мягкий потолок нужен для того, чтобы птица не поранилась при испуге – в это время перепел способен резко прыгнуть вверх. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Летом китайских расписных перепелов желательно держать на открытом воздухе. Это позволит птицам греться естественным путем, получая необходимое количество витамина D. Для зимнего содержания птицам нужно хорошо отапливаемое помещение. Такой вольер нужно разделить на тёплую внутреннюю и холодную неотапливаемую часть для прогулок птиц. Перепелятник строят из кирпича или дерева, при этом переднюю стену, где будет прогулочная часть, хорошо застеклить, чтобы внутри было как можно больше света. Для засыпки пола в вольере используют опилки или песок. На небольшом расстоянии от пола необходимо установить несколько мощных электрических ламп. Перед входной дверью вольера следует обустроить небольших размеров тамбур, который послужит дополнительным утеплением помещения и затруднит попадание внутрь различных хищников.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среди наиболее распространенных витаминов и добавок для перепелиных кормов стоит выделить: Перебарщивать с подобными добавками нельзя – их нужно использовать строго согласно инструкции во избежание негативного воздействия на здоровье птицы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для успешного содержания и разведения перепелов им необходимо создать достойные условия содержания. Полноценный уход за птицами включает множество повседневных работ, обеспечивающих эти условия. Среди них можно выделить:    Различия внутреннего распорядка обусловлены множеством факторов, среди которых времена года, занятость занимающегося птицами человека, цель птицеводства и так далее.  Для разведения птиц данной породы стоит содержать парами, потому что это более приближено к природным условиям обитания перепелов. Китайские перепела высиживают яйца лишь на траве или в кустах – с учетом этого и перспективы разведения нужно соответственно обустроить помещение. За один раз самка откладывает до десятка яиц, которые высиживает около 2 недель. При групповом содержании китайских расписных перепелов, вероятность того, что самка станет сама высиживать яйца снижается. Тогда может потребоваться инкубация яиц. Для этого подойдет инкубатор, в котором возможно установить температуру в 37,5-38°С на 2 недели. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При содержании молодняка с родителями, необходимо следить, чтобы от взрослых особей не было агрессивных действий. В противном случае птиц рассаживают. Если угроз со стороны взрослых перепелов нет, то птенцы будут греться в оперении родителей. При содержании птенцов отдельно, им нужно дополнительное отопление. Для оптимального роста птенцов стоит обеспечить им круглосуточное освещение. Дно в клетке лучше всего выстелить тканью. В первый месяц выращивания поддерживают температуру на уровне, указанном в таблице: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для молодых птиц, в клетках обустраивают поилки-непроливайки. Для этого на дно плоского блюда устанавливается перевёрнутая пол-литровая банка с водой. Необходимо вставить прокладку толщиной пару миллиметров между дном и горлышком банки, что обеспечит место для беспрепятственного проникновения воды в поилку.  Для правильного развития, птенцам в корм нужно подмешивать минеральные добавки. Приобрести их сегодня можно в ветеринарных клиниках. С 4 недели птенцов начинают переводить на рацион питания взрослой птицы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбор приобретаемых перепелов является крайне важным моментом, от которого в дальнейшем зависит многое. Здоровье птицы играет здесь первостепенную роль. Среди первых признаков, по которым можно на глаз определить степень самочувствия особи, принято выделять: Слишком толстые или худые птицы являются непригодными к роли производителей. Приобретать молодых птиц лучше всего под осень – так за зимний период они успеют набрать вес, окрепнуть, станут половозрелыми. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для транспортировки китайских расписных перепелов хорошо подходит обычный деревянный ящик. Одну его стенку следует выполнить из прутьев, как в клетке, в ней же лучше сделать дверь. Во избежание ран и ушибов птицы при перевозке ящик стоит выстелить сеном, оно также сохранит тепло. Слишком много птиц помещать в один ящик нельзя – для сохранения оптимальной температуры и влажности в помещении питомцу должно быть удобно, тем более стоит учитывать стрессовый фактор смены обстановки для птиц. Самцов декоративных видов перепелов лучше держать по одному в клетке, для самок допустима совместная транспортировка. Только что привезенную особь помещать в общее помещение с перепелами запрещено, первый месяц ее лучше держать отдельно. Иначе повышается вероятность заболевания птиц. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среди множества пород перепелов встречается одна порода, которая не отличается большой яйценоскостью, а по величине является одной из самых маленьких даже среди перепелов, являющимися сами по себе не самыми большими птицами. Почему же эти птички пользуются достаточно большой популярностью и их с удовольствием содержат даже в небольших квартирах? Ответ будет довольно очевиден, стоит только взглянуть на фотографию представителя этой породы перепелов. Действительно, китайский расписной перепел – это очень красивый представитель семейства пернатых, подсемейства куропатковых. К тому же содержание китайских перепелов не представляет для настоящего энтузиаста-птицевода особых сложностей, а наблюдение за их поведением и повадками доставит немало приятных минут. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайский расписной перепел является очень маленькой птичкой, вес ее составляет от 45 до 70 грамм, длина тела около 12-14 см, не считая 3,5 см хвоста. У этой породы перепелов четко выражены различия между самцами и самками. У самцов обычно яркий окрас: сверху перья окрашены в различные оттенки коричневого с яркими белыми и черными продольными крапинками, брюшко рыжеватого оттенка, щеки, зоб, лобовая часть и бока серо-голубого с фиолетовым оттенком цвета.  Интересным признаком, благодаря которому порода получила название расписной, является наличие черных и белых полос разной формы и толщины, расположенных в зоне подклювья и на горле птиц. Иногда эти полоски распространяются даже на боковую часть головы. Самки же китайских перепелов окрашены значительно скромнее – у них светло-красная с буроватым оттенком грудка, белая шея, сверху перья окрашены в светло-песочный цвет с коричневыми кончиками перьев, а брюшко у нее светлое красно-коричневое с черными полосками.  При этом у китайских перепелов обоих полов клюв черного цвета, и ноги – оранжево-желтые. Селекционеры давно уже занимаются этой породой, поэтому, кроме этой основной, так называемой дикой формы, было выведено несколько цветных разновидностей китайских расписных перепелов: серебряных, розоватых, голубых, «изабелловых», белых, шоколадных. Голоса у перепелов этой породы негромкие, приятные, при содержании даже в небольшом помещении не возникает дискомфорта от их присутствия. Внимание! В брачный период нередко можно услышать достаточно высокий голос самца, издающего нечто похожее на «куии-кии-кью».  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нередко в домашних условиях китайских расписных перепелов содержат в клетках или вольерах, не соответствующих их требованиям. Ведь, кажется, что эти птички такие маленькие, что им требуется совсем немного места. Но в действительности китайским перепелам для полноценной жизни и размножения требуется поверхность, составляющая 2х2 метра. Эти требования, конечно, малореальные для небольших квартир, но стоит иметь в виду, что такая площадь необходима китайским перепелам, прежде всего, для полноценного размножения. Если вы согласны использовать инкубатор для вывода птенцов, то ничего не помешает использовать для содержания китайских перепелов клетки меньшей площади. Если же имеется возможность соорудить вольер подобной площади, то при высоте в один метр, птицам будет предоставлено прекрасное помещение для жизни, в котором они будут чувствовать себя максимально комфортно, и не будут подвержены постоянным стрессовым ситуациям, как при существовании в тесных условиях.  Так как способность к полету у китайских расписных перепелов практически не реализуется в реальной жизни, то в установлении высоких веток, жердочек и прочих подобных приспособлений нет необходимости. Зато пол в таком вольере лучше устроить травянистый, желательно высадить несколько кустов. Возможно использование искусственной растительности. На полу вольера также важно разместить несколько небольших веток, живописных коряг и больших кусков древесной коры, чтобы имитировать природные укрытия и места для гнездования самок китайских перепелов. Если свободного места для размещения перепелов немного, то можно использовать содержание птиц в невысоких (до 50 см) клетках, но необходимо учитывать, что насиживать яйца самки в подобных условиях, скорее всего, не будут, и тогда лучшим вариантом будет содержать китайских перепелов группами. Пол в небольших клетках лучше покрывать опилками или древесной стружкой.  Еще одну особенность китайских расписных перепелов необходимо обязательно учитывать, если птицы будут проживать в невысоких клетках. Дело в том, что если их что-либо напугает, китайский перепел способен взмывать вертикально вверх и может разбить себе голову о железную поверхность клетки. Чтобы этого не случилось, необходимо натянуть недалеко от верхней поверхности клетки с внутренней стороны мелкую матерчатую сетку светлого оттенка, чтобы она не сильно загораживала свет. Таким несложным способом вы сможете защитить перепелов от травм головы и неизбежных неприятных последствий, связанных с ними. Освещение для китайских перепелов лучше устраивать естественное, и если вы будете дополнительно подсвечивать клетки, то необходимо учитывать, что чересчур яркое освещение может спровоцировать излишнюю агрессивность птиц, поэтому этим не стоит увлекаться. Естественной средой обитания перепелов являются затененные заросли, поэтому свет им нужен приглушенный. Еще одним интересным вариантом содержанием китайских перепелов являются террариумы. Ниже можно посмотреть видео про обустройство подобных мест:  Необходимо учитывать любовь китайских перепелов к купанию в песке, поэтому птицам обязательно нужно устроить емкость со слоем сухого песка в 5-6 см глубиной. Желательно, не насыпать песок просто в поддон клетки, так как даже при высоте бортиков клетки в 10-12 см при купании перепелов песок сильно разлетается, и половина его невольно окажется за пределами клетки. Поэтому емкость для купания должна быть закрыта со всех сторон, кроме входа для птиц. Замечание! Возможно использование для песчаных ванн готового пластикового домика для птиц. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кормят китайских перепелов обычно около 3 раз в день. В обычный рацион входит, прежде всего, смесь мелких зерновых культур (кроме овса) с добавлением части зерна в проращенном виде (обычно пшеница). Летом перепелам обязательно давать ежедневно свежую зелень, зимой – по мере возможности. Из белковых кормов необходимо скармливать перепелам различных насекомых, мотыля и червей, также в небольших количествах дается творог и яичные смеси. Для полноценного рациона китайским перепелам обязательно нужны различные минеральные и витаминные добавки. Миска для еды должна быть отдельной от миски с гравием и ракушняком. Присутствие воды для питья в клетке обязательно, ее необходимо ежедневно менять. Комбикормом кормят самок китайских перепелов лишь в период насиживания, когда им жизненно необходимо оптимальное сочетание питательных веществ, витаминов и минералов. Предупреждение! Постоянно кормить комбикормом не рекомендуется, потому что в этом случае самки будут нестись без отдыха, что может привести к их истощению. Когда кладка будет завершена, самке китайских перепелов обычно предоставляют отдых – пересаживают ее в отдельную клетку, уменьшают освещение и переходят на кормление обычной зерновой смесью. Иногда в качестве отдыха используют понижение температуры содержания. При сильном истощении самки можно дать ей раствор иммунофана и примешивать к корму глюконат кальция.  Перепелята этой породы рождаются совсем крошечными, не более 2-3 см, но несмотря на такие размеры, отличаются самостоятельностью и очень быстро развиваются и растут. С первого же дня, находясь в гнезде, они могут начать питаться тем же, что и взрослый китайский перепел. Но обычно их необходимо подкармливать отдельно и добавлять им в пищу насыщенные белком корма: яичные смеси, проращенные семена просо и мака. При выводе молодых перепелов в инкубаторе, следует с первой же кормежки легонько постукивать карандашом или спичкой по месту нахождения корма, чтобы вызвать у них инстинкт клевания. Перепелята отличаются большой подвижностью и быстрым ростом. Уже на третий день они оперяются, а еще через несколько дней становятся способными к полетам. В возрасте трех недель птенцы достигают половины веса взрослых китайских перепелов, в 35-40 дней их уже не отличишь от взрослых птиц по окраске, а в два месяца они становятся половозрелыми. Китайский перепел может жить в неволе около 10 лет. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайский расписной перепел родом из Азии и является самым маленьким представителем отряда курообразных. Его длина составляет около 14 см, а вес колеблется в пределах 28-40 г. Имеются сведения, что раньше в Китае этих птичек брали с собой в дорогу и использовали для согревания рук в холодную погоду. В настоящее время их держат из-за их красоты и яиц, которые считаются деликатесом.  Китайский перепел относится к плодовитому виду, который характеризуется половым деформизмом. Они обитают в юго-восточной части Азии, Африке и Австралии. Летом их содержат на свежем воздухе, зимой — в обогреваемых вольерах и клетках. Перепела весьма чувствительны к сквознякам. При содержании их в неволе в помещении, где они обитают, необходимо поддерживать определенный режим освещения и обогрева. Кормят перепелов зерном, насекомыми, зеленью, червяками. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">К отличительным чертам данного вида птиц следует отнести, во-первых, их внешний вид, а во-вторых, место высиживания перепелкой яиц. Вне зависимости от половой принадлежности цвет клюва у китайских перепелок черный, хвостик короткий с темно-коричневым оттенком, а лапы окрашены в оранжевый или желтый цвета. Самец и самка китайского расписного перепела окрашены в коричневый цвет, однако в результате селекции был получен вид с серебристой окраской. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расписной перепел как биологический вид характеризуется половым деформизмом, который проявляется в анатомических различиях самцов и самок. Так, перепел отличается от перепелки окраской и размерами. Самец крупнее самочки. Основные размеры самца и самки этих птиц: Самец имеет пеструю коричневую окраску, сине-серую грудку с серо-коричневым оттенком. Брюшко самца окрашено в темный красный цвет. Горлышко перепелов имеет оттенки коричневого с яркими белыми и черными полосками. Окраска самки однотонная коричневая с ржавым оттенком на брюшке и грудке, горло — белое. Каждое перышко имеет окантовку черного или темно-коричневого цвета. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для привлечения самок самец издает нечто похожее на «КУИИ-КИИ-КЬЮ». Такие звуки слышны на расстоянии более 1 км. При гнездовании перепел не участвует в создании гнезда, но приносит еду самке и помогает в дальнейшем с потомством.  Самка перепелов китайских сооружает гнезда на земле, собирая травинки и листочки. Данная разновидность птиц является плодовитой и приносит от 150 до 200 яиц  в год размером с оливку с многочисленными крапинками на скорлупе и весом до 12 г. Яйца перепелок содержат 1,4 мкг/100 г витамина D, а также витамины группы В, А, Е, РР, К, макро- и микроэлементы. Перепелка высиживает в гнезде обычно 4-6 яиц, редко — до 14 шт. в течение двух недель. Птенцы расписного перепела рождаются размером не больше шмеля и уже в первый день покидают гнезда. По истечении нескольких недель они уже летают, а через 3 месяца — могут откладывать яйца. За сезон одна пара перепелок может отложить не более 3 кладок, что зависит от качества содержания их и количества пищи. После завершения кладки яиц самок пересаживают в другое помещение с освещением специально темнее обычного и переводят на зерновой корм. Из-за стресса самки перестают высиживать яйца и тогда используют инкубатор, в котором яйца выдерживают две недели при температуре 37,5-38°С. После того, как птенцы вылупляются, их помещают на несколько суток в ящик с температурой 28-30°С, которую постепенно понижают до комнатной. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайские дикие расписные перепела проживают на Африканской территории, Южной и Восточной части Азии, а также в Австралии. Основное место обитания их — это горы, а также степи с зарослями травы, в которой они прокладывают тропинки в виде нор. Самцы живут всю жизнь только с одной самкой, о которой тщательно заботятся и делятся едой. Питаются китайские расписные перепела в дикой природе насекомыми, семенами. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зимой перепелок забирают в дом и содержат в клетках либо сооружают для них специальные деревянные  или кирпичные отапливаемые вольеры с освещением, одна из стен которых стеклянная. Крыша и стены перепелятника должны быть хорошо утеплены. Вольер для зимовки также состоит из двух частей, разделенных щитами, меньшая из которых — отапливаемая. Вторая, более обширная его часть, предназначенная для прогулок, не отапливаемая. Пол вольера должен быть усыпан песком, опилками. Необходимо установить под стенами гнезда. Для дополнительного утепления предусматривают тамбур перед входом в вольер. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Китайские домашние расписные перепела в домашних условиях держат на застекленных отапливаемых балконах в небольших дощатых клетках размером Д×Ш×В — 100×50×70 см, одна сторона которых сделана из металлической окрашенной сетки. В случае, если птиц и летом держат в клетках, из досок или фанеры делают только пол и потолок клетки, а стены — из металлической сетки. В передней части клетки располагают продольное отверстие для яиц и полочку с бортиком на внешней стороне, куда скатываются яйца. Внутри клетки находятся контейнеры для еды и воды. Дно должно быть засыпано сухим материалом (например, стружкой). Потолок умягчают специальным материалом для предотвращения ударов птиц головой об потолок. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птенцов китайского расписного перепела в первый день надо кормить измельченным вареным яйцом. Затем постепенно в их рацион вводят насекомых, зелень, морковь, семена. Разрешается птенцам давать комбикорм. Количество кормлений птенцов на первой неделе жизни составляет 5 раз в день, затем к концу месяца постепенно снижают до 3 раз. В клетки ставят поилки-непроливайки. В питание перепелят включают специальные витаминные добавки. Ближе к месяцу их переводят на взрослую пищу. </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-1.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-1.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-2.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-2.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-2.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-2.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -461,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -497,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -508,7 +596,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -519,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -530,15 +621,21 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -546,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -560,34 +657,201 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D16" r:id="rId7"/>
+    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D23" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -151,34 +151,34 @@
     <t xml:space="preserve">Птенцов китайского расписного перепела в первый день надо кормить измельченным вареным яйцом. Затем постепенно в их рацион вводят насекомых, зелень, морковь, семена. Разрешается птенцам давать комбикорм. Количество кормлений птенцов на первой неделе жизни составляет 5 раз в день, затем к концу месяца постепенно снижают до 3 раз. В клетки ставят поилки-непроливайки. В питание перепелят включают специальные витаминные добавки. Ближе к месяцу их переводят на взрослую пищу. </t>
   </si>
   <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-1.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-1.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-2.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-2.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-2.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-2.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-2.jpg</t>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-3.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-3.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-4.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-4.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-3.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-3.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-3.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-4.jpg</t>
   </si>
 </sst>
 </file>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>h2</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Внешний вид и характер птицы</t>
   </si>
   <si>
-    <t>Распространение и происхождение породы</t>
+    <t>Различия самца и самки</t>
   </si>
   <si>
     <t>Какие бывают расцветки?</t>
@@ -64,28 +64,37 @@
     <t>Питание и размножение</t>
   </si>
   <si>
-    <t>Отличительные черты вида</t>
-  </si>
-  <si>
-    <t>Отличие самца от самки</t>
+    <t>Что это за порода</t>
+  </si>
+  <si>
+    <t>Характеристики и описание</t>
+  </si>
+  <si>
+    <t>Содержание в домашних условиях</t>
+  </si>
+  <si>
+    <t>Варианты содержания</t>
+  </si>
+  <si>
+    <t>Инкубация</t>
+  </si>
+  <si>
+    <t>Кормление (птенцов, взрослых особей)</t>
+  </si>
+  <si>
+    <t>Возможные болезни породы</t>
   </si>
   <si>
     <t>Продуктивность</t>
   </si>
   <si>
-    <t>Обитание в дикой природе</t>
-  </si>
-  <si>
-    <t>Клетки</t>
-  </si>
-  <si>
-    <t>Перепелята</t>
+    <t>Советы и рекомендации по содержанию от опытных фермеров</t>
   </si>
   <si>
     <t xml:space="preserve">Китайского расписного перепела можно с уверенностью назвать наиболее ярким представителем своего вида с визуальной точки зрения – его собратья далеко не так заметны. По размерам же птица довольно мала: длина ее тела варьируется в пределах 11-14 см, плюс 3 см хвоста. Весят такие перепела в среднем 45-70 г. У самок и самцов клювы черного цвета (у последних они с легким оттенком синевы), желто-рыжие лапы и кирпично-красного цвета радужины. Китайские расписные перепела обладают приятным тихим пением. Продолжительность жизни птиц в неволе составляет примерно 10 лет. Характер у китайского расписного довольно спокойный. К соседям по клетке птица относится нормально, особенно если они находятся на верхних этажах. Но для взрослых самцов этого вида перепелов, ужиться вместе будет сложно – они защищают свою территорию и по отношению друг к другу проявляют агрессию. Поэтому лучше держать в отдельной клетке одного самца и самку, либо территория содержания должна быть достаточно большой для нескольких пар. У самок подобной агрессивности не наблюдается. </t>
   </si>
   <si>
-    <t xml:space="preserve">Данный вид повсеместно распространен на юго-востоке Азии вплоть до островов Новой Гвинеи и австралийского континента, встречается и на африканском материке. В связи с большой областью его обитания, включающей обширную территории Китая, вполне объяснимо название породы. В Китае птица на протяжении длительного времени ценится в качестве декоративного питомца. В Европе данная порода начала приобретать популярность лишь в 17 веке. В дикой природе расписной перепел селится на влажных лугах, а для строительства гнезд использует сухую траву и листья. Птицы живут парами, самец (что довольно редко бывает у подобных животных) участвует в выращивании потомства: до появления птенцов он приносит самке корм и защищает гнездо, после появления цыплят – помогает самке с выращиванием и воспитанием потомства.  </t>
+    <t xml:space="preserve">Далеко не всегда половые особенности в животном мире явно заметны. У этой же породы перепелов на глаз можно сразу определить пол особи: самки – неприметного серо-коричневатого окраса, самцы — яркой расцветки с синим отливом и характерным узором в области под клювом. «Расписными» этих перепелов называют из-за самцов — у них идет белая полоса от клюва до глаз, под ней располагается черная полоса, переходящая в пятно на горле, обрамляющее белую бороду. </t>
   </si>
   <si>
     <t xml:space="preserve">Селекционеры на сегодняшний день из базового окраса китайского расписного уже успели вывести немало различных расцветок. Среди них особо выделяются: Постоянно появляются новые расцветки птицы, и у любителей декоративных перепелов всегда есть из чего выбрать.  </t>
@@ -127,58 +136,61 @@
     <t xml:space="preserve"> Кормят китайских перепелов обычно около 3 раз в день. В обычный рацион входит, прежде всего, смесь мелких зерновых культур (кроме овса) с добавлением части зерна в проращенном виде (обычно пшеница). Летом перепелам обязательно давать ежедневно свежую зелень, зимой – по мере возможности. Из белковых кормов необходимо скармливать перепелам различных насекомых, мотыля и червей, также в небольших количествах дается творог и яичные смеси. Для полноценного рациона китайским перепелам обязательно нужны различные минеральные и витаминные добавки. Миска для еды должна быть отдельной от миски с гравием и ракушняком. Присутствие воды для питья в клетке обязательно, ее необходимо ежедневно менять. Комбикормом кормят самок китайских перепелов лишь в период насиживания, когда им жизненно необходимо оптимальное сочетание питательных веществ, витаминов и минералов. Предупреждение! Постоянно кормить комбикормом не рекомендуется, потому что в этом случае самки будут нестись без отдыха, что может привести к их истощению. Когда кладка будет завершена, самке китайских перепелов обычно предоставляют отдых – пересаживают ее в отдельную клетку, уменьшают освещение и переходят на кормление обычной зерновой смесью. Иногда в качестве отдыха используют понижение температуры содержания. При сильном истощении самки можно дать ей раствор иммунофана и примешивать к корму глюконат кальция.  Перепелята этой породы рождаются совсем крошечными, не более 2-3 см, но несмотря на такие размеры, отличаются самостоятельностью и очень быстро развиваются и растут. С первого же дня, находясь в гнезде, они могут начать питаться тем же, что и взрослый китайский перепел. Но обычно их необходимо подкармливать отдельно и добавлять им в пищу насыщенные белком корма: яичные смеси, проращенные семена просо и мака. При выводе молодых перепелов в инкубаторе, следует с первой же кормежки легонько постукивать карандашом или спичкой по месту нахождения корма, чтобы вызвать у них инстинкт клевания. Перепелята отличаются большой подвижностью и быстрым ростом. Уже на третий день они оперяются, а еще через несколько дней становятся способными к полетам. В возрасте трех недель птенцы достигают половины веса взрослых китайских перепелов, в 35-40 дней их уже не отличишь от взрослых птиц по окраске, а в два месяца они становятся половозрелыми. Китайский перепел может жить в неволе около 10 лет. </t>
   </si>
   <si>
-    <t xml:space="preserve">Китайский расписной перепел родом из Азии и является самым маленьким представителем отряда курообразных. Его длина составляет около 14 см, а вес колеблется в пределах 28-40 г. Имеются сведения, что раньше в Китае этих птичек брали с собой в дорогу и использовали для согревания рук в холодную погоду. В настоящее время их держат из-за их красоты и яиц, которые считаются деликатесом.  Китайский перепел относится к плодовитому виду, который характеризуется половым деформизмом. Они обитают в юго-восточной части Азии, Африке и Австралии. Летом их содержат на свежем воздухе, зимой — в обогреваемых вольерах и клетках. Перепела весьма чувствительны к сквознякам. При содержании их в неволе в помещении, где они обитают, необходимо поддерживать определенный режим освещения и обогрева. Кормят перепелов зерном, насекомыми, зеленью, червяками. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К отличительным чертам данного вида птиц следует отнести, во-первых, их внешний вид, а во-вторых, место высиживания перепелкой яиц. Вне зависимости от половой принадлежности цвет клюва у китайских перепелок черный, хвостик короткий с темно-коричневым оттенком, а лапы окрашены в оранжевый или желтый цвета. Самец и самка китайского расписного перепела окрашены в коричневый цвет, однако в результате селекции был получен вид с серебристой окраской. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расписной перепел как биологический вид характеризуется половым деформизмом, который проявляется в анатомических различиях самцов и самок. Так, перепел отличается от перепелки окраской и размерами. Самец крупнее самочки. Основные размеры самца и самки этих птиц: Самец имеет пеструю коричневую окраску, сине-серую грудку с серо-коричневым оттенком. Брюшко самца окрашено в темный красный цвет. Горлышко перепелов имеет оттенки коричневого с яркими белыми и черными полосками. Окраска самки однотонная коричневая с ржавым оттенком на брюшке и грудке, горло — белое. Каждое перышко имеет окантовку черного или темно-коричневого цвета. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Для привлечения самок самец издает нечто похожее на «КУИИ-КИИ-КЬЮ». Такие звуки слышны на расстоянии более 1 км. При гнездовании перепел не участвует в создании гнезда, но приносит еду самке и помогает в дальнейшем с потомством.  Самка перепелов китайских сооружает гнезда на земле, собирая травинки и листочки. Данная разновидность птиц является плодовитой и приносит от 150 до 200 яиц  в год размером с оливку с многочисленными крапинками на скорлупе и весом до 12 г. Яйца перепелок содержат 1,4 мкг/100 г витамина D, а также витамины группы В, А, Е, РР, К, макро- и микроэлементы. Перепелка высиживает в гнезде обычно 4-6 яиц, редко — до 14 шт. в течение двух недель. Птенцы расписного перепела рождаются размером не больше шмеля и уже в первый день покидают гнезда. По истечении нескольких недель они уже летают, а через 3 месяца — могут откладывать яйца. За сезон одна пара перепелок может отложить не более 3 кладок, что зависит от качества содержания их и количества пищи. После завершения кладки яиц самок пересаживают в другое помещение с освещением специально темнее обычного и переводят на зерновой корм. Из-за стресса самки перестают высиживать яйца и тогда используют инкубатор, в котором яйца выдерживают две недели при температуре 37,5-38°С. После того, как птенцы вылупляются, их помещают на несколько суток в ящик с температурой 28-30°С, которую постепенно понижают до комнатной. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские дикие расписные перепела проживают на Африканской территории, Южной и Восточной части Азии, а также в Австралии. Основное место обитания их — это горы, а также степи с зарослями травы, в которой они прокладывают тропинки в виде нор. Самцы живут всю жизнь только с одной самкой, о которой тщательно заботятся и делятся едой. Питаются китайские расписные перепела в дикой природе насекомыми, семенами. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зимой перепелок забирают в дом и содержат в клетках либо сооружают для них специальные деревянные  или кирпичные отапливаемые вольеры с освещением, одна из стен которых стеклянная. Крыша и стены перепелятника должны быть хорошо утеплены. Вольер для зимовки также состоит из двух частей, разделенных щитами, меньшая из которых — отапливаемая. Вторая, более обширная его часть, предназначенная для прогулок, не отапливаемая. Пол вольера должен быть усыпан песком, опилками. Необходимо установить под стенами гнезда. Для дополнительного утепления предусматривают тамбур перед входом в вольер. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Китайские домашние расписные перепела в домашних условиях держат на застекленных отапливаемых балконах в небольших дощатых клетках размером Д×Ш×В — 100×50×70 см, одна сторона которых сделана из металлической окрашенной сетки. В случае, если птиц и летом держат в клетках, из досок или фанеры делают только пол и потолок клетки, а стены — из металлической сетки. В передней части клетки располагают продольное отверстие для яиц и полочку с бортиком на внешней стороне, куда скатываются яйца. Внутри клетки находятся контейнеры для еды и воды. Дно должно быть засыпано сухим материалом (например, стружкой). Потолок умягчают специальным материалом для предотвращения ударов птиц головой об потолок. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Птенцов китайского расписного перепела в первый день надо кормить измельченным вареным яйцом. Затем постепенно в их рацион вводят насекомых, зелень, морковь, семена. Разрешается птенцам давать комбикорм. Количество кормлений птенцов на первой неделе жизни составляет 5 раз в день, затем к концу месяца постепенно снижают до 3 раз. В клетки ставят поилки-непроливайки. В питание перепелят включают специальные витаминные добавки. Ближе к месяцу их переводят на взрослую пищу. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-3.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-3.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-4.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-4.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-3.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-3.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-3.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-4.jpg</t>
+    <t xml:space="preserve">Разведение китайских расписных перепелов набирает огромную популярность среди птицеводов. Это обусловлено необыкновенным по красоте видом особей при не значительных размерах. Данный факт позволяет держать птиц в стеснённых пространствах.  Содержание </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайский расписной перепел — один из самых маленьких по размерам из всех видов перепелов. Их популярность среди птицеводов обусловлена красивым внешним видом. Они неприхотливы при нахождении в неволе. Далее рассмотрим более детально факты о китайском расписном перепеле. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семейство китайского расписного перепела отличается маленькими размерами птиц. Длина туловища находится в диапазоне от 12 до 14 сантиметров, без учёта размера хвоста. Он ограничивается 3.5 сантиметрами. Вес взрослой особи находится в пределах от 40 до 75 граммов. Масштабное увлечение разведением китайского расписного перепела привело к тому, что селекционеры вывели породы многих окрасок. Сейчас встречаются следующие окрасы птиц: Китайские перепела не отличаются сильными голосовыми связками. Поэтому их содержание в неволе не сопровождается дискомфортом из-за шума. Наиболее громкий издаваемый звук наблюдается у самцов в брачный период. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При возникновении желания обзавестись китайским перепелом в частном домовладении, требуется понимать, что указанные породы птиц предназначены исключительно для эстетического любования или создания декоративного образа. Они не способствуют устранения потребности в перепелиных яйцах или мясе. В большинстве случаев, они заводятся коллекционерами редких и красивых пород птиц. При этом китайский перепел показывает высокую уживчивость с разными видами пернатых. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наиболее рациональным и интересным способом содержания китайских расписных перепелов является их поселение парами. Это обусловлено их естественным природным инстинктом. Тогда держатель птиц будет наблюдать за процессом брачного периода. Для откладывания самками яиц потребуется от трёх до четырех месяцев при условии создания приближенной к реальности среды обитания. Самка перепела способна принести от шести до двенадцати яиц. Они отличаются по цветовой гамме – жёлтые, коричневые или оливковые с пятнышками темных оттенков. Для вывода птенцов требуется порядка двух недель. При правильном содержании и питании птиц ожидайте птенцов до нескольких раз за год. Содержать птиц попарно в ограниченном пространстве не рекомендуется. Это приводит к проявлению агрессии самца к самке на первоначальных стадиях брачного периода. В результате постоянных нападок самка полностью повредит свой перьевой покров. В таких условиях лучше размещать птиц небольшими группами, в которых один самец будет помещаться к трём или четырём самкам. При этом ожидать размножения от птиц не стоит. Если существует такая необходимость, то понадобится приобрести инкубатор. При содержании птиц группами в ограниченном пространстве, рекомендуется изготовить для пернатых различные виды убежищ. Это требуется на случай проявления у самца китайского расписного перепела излишней агрессии. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для получения выводка птенцов с помощью инкубатора, понадобится вложить в него яйца не позднее трёх суток после их откладывания самками. После загрузки яиц в инкубатор останется ждать появления цыплят. После этого потребуется правильный уход за ними в течение первых дней жизни. Требуется использовать лампу для обогрева пространства, в котором находятся птенцы. Температура воздуха должна находиться в районе 30 градусов Цельсия. Она выдерживается на протяжении 4 суток. В дальнейшем будет её ступенчатое понижение, вплоть до достижения комнатной температуры. Процесс занимает около 2 недель. Для того чтобы быстрее приучить птенцов к самостоятельному питанию, требуется насыпать корм и постукивать по нему острым предметом. Это позволит развить способность клевания.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кормить птиц понадобится трижды в день. В качестве основного корма используются измельчённые зерновые культуры, за исключением овса. Допускается добавлять цельные зерна пшеницы. В летний период времени птицам требуется обогатить рацион зеленью. Для поддержания требуемого уровня белка, китайским расписным перепелам периодически требуется скармливать мотыльков, червяков или других видов насекомых. Используйте небольшие дозировки рубленых яиц и творога. Также понадобится запастись минеральными и витаминными комплексами. Птенцы, как правило, приступают к самостоятельному питанию с первых дней жизни. Это позволяет использовать для них тот же корм, что и для взрослых особей. При этом всё же потребуется обогатить рацион птенцов белковыми компонентами. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несмотря на значительную устойчивость к вирусным и бактериальным видам заболевания, китайские расписные перепела подвергаются болезням. Наиболее характерными для породы являются: Помимо указанных заболеваний, китайские расписные перепела подвержены укусам вредоносных насекомых и паразитов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самка китайского расписного перепела способна снести за год порядка 200 яиц. Их размер маленький и сопоставим с оливкой. Они считаются деликатесной продукцией, которая содержит повышенное количество антиоксидантов и обогащена витамином D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опытные птицеводы дают такие рекомендации для правильного ухода за китайским перепелом: Китайский расписной перепел отличается красочным внешним видом. Селекционерами были выведены новые породы, которые имеют яркую окраску. Они украсят любую коллекцию птицеводов. Смотрите видео о китайском расписном перепеле:  Заметили ошибку? Выделите ее и нажмите Ctrl+Enter, чтобы сообщить нам. </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-4.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-4.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-5.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-5.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/2266085-1.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/maxresdefault-2-1100x619-3.jpg</t>
   </si>
 </sst>
 </file>
@@ -549,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -585,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -596,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -610,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -621,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -635,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -646,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -660,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -668,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -682,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -693,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -701,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -712,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -726,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -740,10 +752,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -751,10 +763,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -765,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -776,7 +788,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -787,10 +799,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -801,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -809,10 +818,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -820,13 +832,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -834,10 +843,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -850,8 +881,7 @@
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
     <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D23" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>h2</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Внешний вид и характер птицы</t>
   </si>
   <si>
-    <t>Различия самца и самки</t>
+    <t>Распространение и происхождение породы</t>
   </si>
   <si>
     <t>Какие бывают расцветки?</t>
@@ -64,37 +64,28 @@
     <t>Питание и размножение</t>
   </si>
   <si>
-    <t>Что это за порода</t>
-  </si>
-  <si>
-    <t>Характеристики и описание</t>
-  </si>
-  <si>
-    <t>Содержание в домашних условиях</t>
-  </si>
-  <si>
-    <t>Варианты содержания</t>
-  </si>
-  <si>
-    <t>Инкубация</t>
-  </si>
-  <si>
-    <t>Кормление (птенцов, взрослых особей)</t>
-  </si>
-  <si>
-    <t>Возможные болезни породы</t>
+    <t>Отличительные черты вида</t>
+  </si>
+  <si>
+    <t>Отличие самца от самки</t>
   </si>
   <si>
     <t>Продуктивность</t>
   </si>
   <si>
-    <t>Советы и рекомендации по содержанию от опытных фермеров</t>
+    <t>Обитание в дикой природе</t>
+  </si>
+  <si>
+    <t>Клетки</t>
+  </si>
+  <si>
+    <t>Перепелята</t>
   </si>
   <si>
     <t xml:space="preserve">Китайского расписного перепела можно с уверенностью назвать наиболее ярким представителем своего вида с визуальной точки зрения – его собратья далеко не так заметны. По размерам же птица довольно мала: длина ее тела варьируется в пределах 11-14 см, плюс 3 см хвоста. Весят такие перепела в среднем 45-70 г. У самок и самцов клювы черного цвета (у последних они с легким оттенком синевы), желто-рыжие лапы и кирпично-красного цвета радужины. Китайские расписные перепела обладают приятным тихим пением. Продолжительность жизни птиц в неволе составляет примерно 10 лет. Характер у китайского расписного довольно спокойный. К соседям по клетке птица относится нормально, особенно если они находятся на верхних этажах. Но для взрослых самцов этого вида перепелов, ужиться вместе будет сложно – они защищают свою территорию и по отношению друг к другу проявляют агрессию. Поэтому лучше держать в отдельной клетке одного самца и самку, либо территория содержания должна быть достаточно большой для нескольких пар. У самок подобной агрессивности не наблюдается. </t>
   </si>
   <si>
-    <t xml:space="preserve">Далеко не всегда половые особенности в животном мире явно заметны. У этой же породы перепелов на глаз можно сразу определить пол особи: самки – неприметного серо-коричневатого окраса, самцы — яркой расцветки с синим отливом и характерным узором в области под клювом. «Расписными» этих перепелов называют из-за самцов — у них идет белая полоса от клюва до глаз, под ней располагается черная полоса, переходящая в пятно на горле, обрамляющее белую бороду. </t>
+    <t xml:space="preserve">Данный вид повсеместно распространен на юго-востоке Азии вплоть до островов Новой Гвинеи и австралийского континента, встречается и на африканском материке. В связи с большой областью его обитания, включающей обширную территории Китая, вполне объяснимо название породы. В Китае птица на протяжении длительного времени ценится в качестве декоративного питомца. В Европе данная порода начала приобретать популярность лишь в 17 веке. В дикой природе расписной перепел селится на влажных лугах, а для строительства гнезд использует сухую траву и листья. Птицы живут парами, самец (что довольно редко бывает у подобных животных) участвует в выращивании потомства: до появления птенцов он приносит самке корм и защищает гнездо, после появления цыплят – помогает самке с выращиванием и воспитанием потомства.  </t>
   </si>
   <si>
     <t xml:space="preserve">Селекционеры на сегодняшний день из базового окраса китайского расписного уже успели вывести немало различных расцветок. Среди них особо выделяются: Постоянно появляются новые расцветки птицы, и у любителей декоративных перепелов всегда есть из чего выбрать.  </t>
@@ -136,61 +127,58 @@
     <t xml:space="preserve"> Кормят китайских перепелов обычно около 3 раз в день. В обычный рацион входит, прежде всего, смесь мелких зерновых культур (кроме овса) с добавлением части зерна в проращенном виде (обычно пшеница). Летом перепелам обязательно давать ежедневно свежую зелень, зимой – по мере возможности. Из белковых кормов необходимо скармливать перепелам различных насекомых, мотыля и червей, также в небольших количествах дается творог и яичные смеси. Для полноценного рациона китайским перепелам обязательно нужны различные минеральные и витаминные добавки. Миска для еды должна быть отдельной от миски с гравием и ракушняком. Присутствие воды для питья в клетке обязательно, ее необходимо ежедневно менять. Комбикормом кормят самок китайских перепелов лишь в период насиживания, когда им жизненно необходимо оптимальное сочетание питательных веществ, витаминов и минералов. Предупреждение! Постоянно кормить комбикормом не рекомендуется, потому что в этом случае самки будут нестись без отдыха, что может привести к их истощению. Когда кладка будет завершена, самке китайских перепелов обычно предоставляют отдых – пересаживают ее в отдельную клетку, уменьшают освещение и переходят на кормление обычной зерновой смесью. Иногда в качестве отдыха используют понижение температуры содержания. При сильном истощении самки можно дать ей раствор иммунофана и примешивать к корму глюконат кальция.  Перепелята этой породы рождаются совсем крошечными, не более 2-3 см, но несмотря на такие размеры, отличаются самостоятельностью и очень быстро развиваются и растут. С первого же дня, находясь в гнезде, они могут начать питаться тем же, что и взрослый китайский перепел. Но обычно их необходимо подкармливать отдельно и добавлять им в пищу насыщенные белком корма: яичные смеси, проращенные семена просо и мака. При выводе молодых перепелов в инкубаторе, следует с первой же кормежки легонько постукивать карандашом или спичкой по месту нахождения корма, чтобы вызвать у них инстинкт клевания. Перепелята отличаются большой подвижностью и быстрым ростом. Уже на третий день они оперяются, а еще через несколько дней становятся способными к полетам. В возрасте трех недель птенцы достигают половины веса взрослых китайских перепелов, в 35-40 дней их уже не отличишь от взрослых птиц по окраске, а в два месяца они становятся половозрелыми. Китайский перепел может жить в неволе около 10 лет. </t>
   </si>
   <si>
-    <t xml:space="preserve">Разведение китайских расписных перепелов набирает огромную популярность среди птицеводов. Это обусловлено необыкновенным по красоте видом особей при не значительных размерах. Данный факт позволяет держать птиц в стеснённых пространствах.  Содержание </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайский расписной перепел — один из самых маленьких по размерам из всех видов перепелов. Их популярность среди птицеводов обусловлена красивым внешним видом. Они неприхотливы при нахождении в неволе. Далее рассмотрим более детально факты о китайском расписном перепеле. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семейство китайского расписного перепела отличается маленькими размерами птиц. Длина туловища находится в диапазоне от 12 до 14 сантиметров, без учёта размера хвоста. Он ограничивается 3.5 сантиметрами. Вес взрослой особи находится в пределах от 40 до 75 граммов. Масштабное увлечение разведением китайского расписного перепела привело к тому, что селекционеры вывели породы многих окрасок. Сейчас встречаются следующие окрасы птиц: Китайские перепела не отличаются сильными голосовыми связками. Поэтому их содержание в неволе не сопровождается дискомфортом из-за шума. Наиболее громкий издаваемый звук наблюдается у самцов в брачный период. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При возникновении желания обзавестись китайским перепелом в частном домовладении, требуется понимать, что указанные породы птиц предназначены исключительно для эстетического любования или создания декоративного образа. Они не способствуют устранения потребности в перепелиных яйцах или мясе. В большинстве случаев, они заводятся коллекционерами редких и красивых пород птиц. При этом китайский перепел показывает высокую уживчивость с разными видами пернатых. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наиболее рациональным и интересным способом содержания китайских расписных перепелов является их поселение парами. Это обусловлено их естественным природным инстинктом. Тогда держатель птиц будет наблюдать за процессом брачного периода. Для откладывания самками яиц потребуется от трёх до четырех месяцев при условии создания приближенной к реальности среды обитания. Самка перепела способна принести от шести до двенадцати яиц. Они отличаются по цветовой гамме – жёлтые, коричневые или оливковые с пятнышками темных оттенков. Для вывода птенцов требуется порядка двух недель. При правильном содержании и питании птиц ожидайте птенцов до нескольких раз за год. Содержать птиц попарно в ограниченном пространстве не рекомендуется. Это приводит к проявлению агрессии самца к самке на первоначальных стадиях брачного периода. В результате постоянных нападок самка полностью повредит свой перьевой покров. В таких условиях лучше размещать птиц небольшими группами, в которых один самец будет помещаться к трём или четырём самкам. При этом ожидать размножения от птиц не стоит. Если существует такая необходимость, то понадобится приобрести инкубатор. При содержании птиц группами в ограниченном пространстве, рекомендуется изготовить для пернатых различные виды убежищ. Это требуется на случай проявления у самца китайского расписного перепела излишней агрессии. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для получения выводка птенцов с помощью инкубатора, понадобится вложить в него яйца не позднее трёх суток после их откладывания самками. После загрузки яиц в инкубатор останется ждать появления цыплят. После этого потребуется правильный уход за ними в течение первых дней жизни. Требуется использовать лампу для обогрева пространства, в котором находятся птенцы. Температура воздуха должна находиться в районе 30 градусов Цельсия. Она выдерживается на протяжении 4 суток. В дальнейшем будет её ступенчатое понижение, вплоть до достижения комнатной температуры. Процесс занимает около 2 недель. Для того чтобы быстрее приучить птенцов к самостоятельному питанию, требуется насыпать корм и постукивать по нему острым предметом. Это позволит развить способность клевания.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кормить птиц понадобится трижды в день. В качестве основного корма используются измельчённые зерновые культуры, за исключением овса. Допускается добавлять цельные зерна пшеницы. В летний период времени птицам требуется обогатить рацион зеленью. Для поддержания требуемого уровня белка, китайским расписным перепелам периодически требуется скармливать мотыльков, червяков или других видов насекомых. Используйте небольшие дозировки рубленых яиц и творога. Также понадобится запастись минеральными и витаминными комплексами. Птенцы, как правило, приступают к самостоятельному питанию с первых дней жизни. Это позволяет использовать для них тот же корм, что и для взрослых особей. При этом всё же потребуется обогатить рацион птенцов белковыми компонентами. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Несмотря на значительную устойчивость к вирусным и бактериальным видам заболевания, китайские расписные перепела подвергаются болезням. Наиболее характерными для породы являются: Помимо указанных заболеваний, китайские расписные перепела подвержены укусам вредоносных насекомых и паразитов. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самка китайского расписного перепела способна снести за год порядка 200 яиц. Их размер маленький и сопоставим с оливкой. Они считаются деликатесной продукцией, которая содержит повышенное количество антиоксидантов и обогащена витамином D. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опытные птицеводы дают такие рекомендации для правильного ухода за китайским перепелом: Китайский расписной перепел отличается красочным внешним видом. Селекционерами были выведены новые породы, которые имеют яркую окраску. Они украсят любую коллекцию птицеводов. Смотрите видео о китайском расписном перепеле:  Заметили ошибку? Выделите ее и нажмите Ctrl+Enter, чтобы сообщить нам. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-4.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-4.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-5.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-5.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/2266085-1.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/maxresdefault-2-1100x619-3.jpg</t>
+    <t xml:space="preserve">Китайский расписной перепел родом из Азии и является самым маленьким представителем отряда курообразных. Его длина составляет около 14 см, а вес колеблется в пределах 28-40 г. Имеются сведения, что раньше в Китае этих птичек брали с собой в дорогу и использовали для согревания рук в холодную погоду. В настоящее время их держат из-за их красоты и яиц, которые считаются деликатесом.  Китайский перепел относится к плодовитому виду, который характеризуется половым деформизмом. Они обитают в юго-восточной части Азии, Африке и Австралии. Летом их содержат на свежем воздухе, зимой — в обогреваемых вольерах и клетках. Перепела весьма чувствительны к сквознякам. При содержании их в неволе в помещении, где они обитают, необходимо поддерживать определенный режим освещения и обогрева. Кормят перепелов зерном, насекомыми, зеленью, червяками. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">К отличительным чертам данного вида птиц следует отнести, во-первых, их внешний вид, а во-вторых, место высиживания перепелкой яиц. Вне зависимости от половой принадлежности цвет клюва у китайских перепелок черный, хвостик короткий с темно-коричневым оттенком, а лапы окрашены в оранжевый или желтый цвета. Самец и самка китайского расписного перепела окрашены в коричневый цвет, однако в результате селекции был получен вид с серебристой окраской. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расписной перепел как биологический вид характеризуется половым деформизмом, который проявляется в анатомических различиях самцов и самок. Так, перепел отличается от перепелки окраской и размерами. Самец крупнее самочки. Основные размеры самца и самки этих птиц: Самец имеет пеструю коричневую окраску, сине-серую грудку с серо-коричневым оттенком. Брюшко самца окрашено в темный красный цвет. Горлышко перепелов имеет оттенки коричневого с яркими белыми и черными полосками. Окраска самки однотонная коричневая с ржавым оттенком на брюшке и грудке, горло — белое. Каждое перышко имеет окантовку черного или темно-коричневого цвета. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для привлечения самок самец издает нечто похожее на «КУИИ-КИИ-КЬЮ». Такие звуки слышны на расстоянии более 1 км. При гнездовании перепел не участвует в создании гнезда, но приносит еду самке и помогает в дальнейшем с потомством.  Самка перепелов китайских сооружает гнезда на земле, собирая травинки и листочки. Данная разновидность птиц является плодовитой и приносит от 150 до 200 яиц  в год размером с оливку с многочисленными крапинками на скорлупе и весом до 12 г. Яйца перепелок содержат 1,4 мкг/100 г витамина D, а также витамины группы В, А, Е, РР, К, макро- и микроэлементы. Перепелка высиживает в гнезде обычно 4-6 яиц, редко — до 14 шт. в течение двух недель. Птенцы расписного перепела рождаются размером не больше шмеля и уже в первый день покидают гнезда. По истечении нескольких недель они уже летают, а через 3 месяца — могут откладывать яйца. За сезон одна пара перепелок может отложить не более 3 кладок, что зависит от качества содержания их и количества пищи. После завершения кладки яиц самок пересаживают в другое помещение с освещением специально темнее обычного и переводят на зерновой корм. Из-за стресса самки перестают высиживать яйца и тогда используют инкубатор, в котором яйца выдерживают две недели при температуре 37,5-38°С. После того, как птенцы вылупляются, их помещают на несколько суток в ящик с температурой 28-30°С, которую постепенно понижают до комнатной. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайские дикие расписные перепела проживают на Африканской территории, Южной и Восточной части Азии, а также в Австралии. Основное место обитания их — это горы, а также степи с зарослями травы, в которой они прокладывают тропинки в виде нор. Самцы живут всю жизнь только с одной самкой, о которой тщательно заботятся и делятся едой. Питаются китайские расписные перепела в дикой природе насекомыми, семенами. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зимой перепелок забирают в дом и содержат в клетках либо сооружают для них специальные деревянные  или кирпичные отапливаемые вольеры с освещением, одна из стен которых стеклянная. Крыша и стены перепелятника должны быть хорошо утеплены. Вольер для зимовки также состоит из двух частей, разделенных щитами, меньшая из которых — отапливаемая. Вторая, более обширная его часть, предназначенная для прогулок, не отапливаемая. Пол вольера должен быть усыпан песком, опилками. Необходимо установить под стенами гнезда. Для дополнительного утепления предусматривают тамбур перед входом в вольер. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Китайские домашние расписные перепела в домашних условиях держат на застекленных отапливаемых балконах в небольших дощатых клетках размером Д×Ш×В — 100×50×70 см, одна сторона которых сделана из металлической окрашенной сетки. В случае, если птиц и летом держат в клетках, из досок или фанеры делают только пол и потолок клетки, а стены — из металлической сетки. В передней части клетки располагают продольное отверстие для яиц и полочку с бортиком на внешней стороне, куда скатываются яйца. Внутри клетки находятся контейнеры для еды и воды. Дно должно быть засыпано сухим материалом (например, стружкой). Потолок умягчают специальным материалом для предотвращения ударов птиц головой об потолок. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птенцов китайского расписного перепела в первый день надо кормить измельченным вареным яйцом. Затем постепенно в их рацион вводят насекомых, зелень, морковь, семена. Разрешается птенцам давать комбикорм. Количество кормлений птенцов на первой неделе жизни составляет 5 раз в день, затем к концу месяца постепенно снижают до 3 раз. В клетки ставят поилки-непроливайки. В питание перепелят включают специальные витаминные добавки. Ближе к месяцу их переводят на взрослую пищу. </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-5.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-5.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-6.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-6.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-5.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-5.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-5.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-5.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-5.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-5.jpg</t>
   </si>
 </sst>
 </file>
@@ -561,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -597,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -608,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -622,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -633,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -647,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -658,10 +646,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -672,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -680,10 +668,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -694,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -705,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -713,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -724,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -738,10 +726,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -752,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -763,10 +751,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -777,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -788,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -799,7 +787,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -810,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -818,13 +809,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -832,10 +820,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -843,32 +834,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +850,8 @@
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
     <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D22" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D23" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>h2</t>
   </si>
@@ -25,160 +25,133 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>Внешний вид и характер птицы</t>
-  </si>
-  <si>
-    <t>Распространение и происхождение породы</t>
-  </si>
-  <si>
-    <t>Какие бывают расцветки?</t>
-  </si>
-  <si>
-    <t>Помещение</t>
-  </si>
-  <si>
-    <t>Летнее и зимнее содержание</t>
-  </si>
-  <si>
-    <t>Добавки и витамины</t>
-  </si>
-  <si>
-    <t>Разведение китайского расписного перепела</t>
-  </si>
-  <si>
-    <t>Условия содержания</t>
-  </si>
-  <si>
-    <t>Советы по покупке и перевозке птиц</t>
-  </si>
-  <si>
-    <t>Особенности транспортировки</t>
-  </si>
-  <si>
-    <t>Описание внешности, половые различия</t>
-  </si>
-  <si>
-    <t>Обустройство места содержания</t>
-  </si>
-  <si>
-    <t>Питание и размножение</t>
-  </si>
-  <si>
-    <t>Отличительные черты вида</t>
-  </si>
-  <si>
-    <t>Отличие самца от самки</t>
-  </si>
-  <si>
-    <t>Продуктивность</t>
-  </si>
-  <si>
-    <t>Обитание в дикой природе</t>
-  </si>
-  <si>
-    <t>Клетки</t>
-  </si>
-  <si>
-    <t>Перепелята</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайского расписного перепела можно с уверенностью назвать наиболее ярким представителем своего вида с визуальной точки зрения – его собратья далеко не так заметны. По размерам же птица довольно мала: длина ее тела варьируется в пределах 11-14 см, плюс 3 см хвоста. Весят такие перепела в среднем 45-70 г. У самок и самцов клювы черного цвета (у последних они с легким оттенком синевы), желто-рыжие лапы и кирпично-красного цвета радужины. Китайские расписные перепела обладают приятным тихим пением. Продолжительность жизни птиц в неволе составляет примерно 10 лет. Характер у китайского расписного довольно спокойный. К соседям по клетке птица относится нормально, особенно если они находятся на верхних этажах. Но для взрослых самцов этого вида перепелов, ужиться вместе будет сложно – они защищают свою территорию и по отношению друг к другу проявляют агрессию. Поэтому лучше держать в отдельной клетке одного самца и самку, либо территория содержания должна быть достаточно большой для нескольких пар. У самок подобной агрессивности не наблюдается. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данный вид повсеместно распространен на юго-востоке Азии вплоть до островов Новой Гвинеи и австралийского континента, встречается и на африканском материке. В связи с большой областью его обитания, включающей обширную территории Китая, вполне объяснимо название породы. В Китае птица на протяжении длительного времени ценится в качестве декоративного питомца. В Европе данная порода начала приобретать популярность лишь в 17 веке. В дикой природе расписной перепел селится на влажных лугах, а для строительства гнезд использует сухую траву и листья. Птицы живут парами, самец (что довольно редко бывает у подобных животных) участвует в выращивании потомства: до появления птенцов он приносит самке корм и защищает гнездо, после появления цыплят – помогает самке с выращиванием и воспитанием потомства.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Селекционеры на сегодняшний день из базового окраса китайского расписного уже успели вывести немало различных расцветок. Среди них особо выделяются: Постоянно появляются новые расцветки птицы, и у любителей декоративных перепелов всегда есть из чего выбрать.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для содержания таких перепелов обычно используются клетки или вольеры. Среди основных требований к помещению для этих птиц стоит выделить: При обустройстве помещения для перепелов этой породы стоит учитывать то, что они являются наземными птицами, поэтому особых возвышенностей в их жилище быть не должно. Мягкий потолок нужен для того, чтобы птица не поранилась при испуге – в это время перепел способен резко прыгнуть вверх. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Летом китайских расписных перепелов желательно держать на открытом воздухе. Это позволит птицам греться естественным путем, получая необходимое количество витамина D. Для зимнего содержания птицам нужно хорошо отапливаемое помещение. Такой вольер нужно разделить на тёплую внутреннюю и холодную неотапливаемую часть для прогулок птиц. Перепелятник строят из кирпича или дерева, при этом переднюю стену, где будет прогулочная часть, хорошо застеклить, чтобы внутри было как можно больше света. Для засыпки пола в вольере используют опилки или песок. На небольшом расстоянии от пола необходимо установить несколько мощных электрических ламп. Перед входной дверью вольера следует обустроить небольших размеров тамбур, который послужит дополнительным утеплением помещения и затруднит попадание внутрь различных хищников.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среди наиболее распространенных витаминов и добавок для перепелиных кормов стоит выделить: Перебарщивать с подобными добавками нельзя – их нужно использовать строго согласно инструкции во избежание негативного воздействия на здоровье птицы. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для успешного содержания и разведения перепелов им необходимо создать достойные условия содержания. Полноценный уход за птицами включает множество повседневных работ, обеспечивающих эти условия. Среди них можно выделить:    Различия внутреннего распорядка обусловлены множеством факторов, среди которых времена года, занятость занимающегося птицами человека, цель птицеводства и так далее.  Для разведения птиц данной породы стоит содержать парами, потому что это более приближено к природным условиям обитания перепелов. Китайские перепела высиживают яйца лишь на траве или в кустах – с учетом этого и перспективы разведения нужно соответственно обустроить помещение. За один раз самка откладывает до десятка яиц, которые высиживает около 2 недель. При групповом содержании китайских расписных перепелов, вероятность того, что самка станет сама высиживать яйца снижается. Тогда может потребоваться инкубация яиц. Для этого подойдет инкубатор, в котором возможно установить температуру в 37,5-38°С на 2 недели. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При содержании молодняка с родителями, необходимо следить, чтобы от взрослых особей не было агрессивных действий. В противном случае птиц рассаживают. Если угроз со стороны взрослых перепелов нет, то птенцы будут греться в оперении родителей. При содержании птенцов отдельно, им нужно дополнительное отопление. Для оптимального роста птенцов стоит обеспечить им круглосуточное освещение. Дно в клетке лучше всего выстелить тканью. В первый месяц выращивания поддерживают температуру на уровне, указанном в таблице: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для молодых птиц, в клетках обустраивают поилки-непроливайки. Для этого на дно плоского блюда устанавливается перевёрнутая пол-литровая банка с водой. Необходимо вставить прокладку толщиной пару миллиметров между дном и горлышком банки, что обеспечит место для беспрепятственного проникновения воды в поилку.  Для правильного развития, птенцам в корм нужно подмешивать минеральные добавки. Приобрести их сегодня можно в ветеринарных клиниках. С 4 недели птенцов начинают переводить на рацион питания взрослой птицы. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбор приобретаемых перепелов является крайне важным моментом, от которого в дальнейшем зависит многое. Здоровье птицы играет здесь первостепенную роль. Среди первых признаков, по которым можно на глаз определить степень самочувствия особи, принято выделять: Слишком толстые или худые птицы являются непригодными к роли производителей. Приобретать молодых птиц лучше всего под осень – так за зимний период они успеют набрать вес, окрепнуть, станут половозрелыми. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для транспортировки китайских расписных перепелов хорошо подходит обычный деревянный ящик. Одну его стенку следует выполнить из прутьев, как в клетке, в ней же лучше сделать дверь. Во избежание ран и ушибов птицы при перевозке ящик стоит выстелить сеном, оно также сохранит тепло. Слишком много птиц помещать в один ящик нельзя – для сохранения оптимальной температуры и влажности в помещении питомцу должно быть удобно, тем более стоит учитывать стрессовый фактор смены обстановки для птиц. Самцов декоративных видов перепелов лучше держать по одному в клетке, для самок допустима совместная транспортировка. Только что привезенную особь помещать в общее помещение с перепелами запрещено, первый месяц ее лучше держать отдельно. Иначе повышается вероятность заболевания птиц. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среди множества пород перепелов встречается одна порода, которая не отличается большой яйценоскостью, а по величине является одной из самых маленьких даже среди перепелов, являющимися сами по себе не самыми большими птицами. Почему же эти птички пользуются достаточно большой популярностью и их с удовольствием содержат даже в небольших квартирах? Ответ будет довольно очевиден, стоит только взглянуть на фотографию представителя этой породы перепелов. Действительно, китайский расписной перепел – это очень красивый представитель семейства пернатых, подсемейства куропатковых. К тому же содержание китайских перепелов не представляет для настоящего энтузиаста-птицевода особых сложностей, а наблюдение за их поведением и повадками доставит немало приятных минут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайский расписной перепел является очень маленькой птичкой, вес ее составляет от 45 до 70 грамм, длина тела около 12-14 см, не считая 3,5 см хвоста. У этой породы перепелов четко выражены различия между самцами и самками. У самцов обычно яркий окрас: сверху перья окрашены в различные оттенки коричневого с яркими белыми и черными продольными крапинками, брюшко рыжеватого оттенка, щеки, зоб, лобовая часть и бока серо-голубого с фиолетовым оттенком цвета.  Интересным признаком, благодаря которому порода получила название расписной, является наличие черных и белых полос разной формы и толщины, расположенных в зоне подклювья и на горле птиц. Иногда эти полоски распространяются даже на боковую часть головы. Самки же китайских перепелов окрашены значительно скромнее – у них светло-красная с буроватым оттенком грудка, белая шея, сверху перья окрашены в светло-песочный цвет с коричневыми кончиками перьев, а брюшко у нее светлое красно-коричневое с черными полосками.  При этом у китайских перепелов обоих полов клюв черного цвета, и ноги – оранжево-желтые. Селекционеры давно уже занимаются этой породой, поэтому, кроме этой основной, так называемой дикой формы, было выведено несколько цветных разновидностей китайских расписных перепелов: серебряных, розоватых, голубых, «изабелловых», белых, шоколадных. Голоса у перепелов этой породы негромкие, приятные, при содержании даже в небольшом помещении не возникает дискомфорта от их присутствия. Внимание! В брачный период нередко можно услышать достаточно высокий голос самца, издающего нечто похожее на «куии-кии-кью».  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нередко в домашних условиях китайских расписных перепелов содержат в клетках или вольерах, не соответствующих их требованиям. Ведь, кажется, что эти птички такие маленькие, что им требуется совсем немного места. Но в действительности китайским перепелам для полноценной жизни и размножения требуется поверхность, составляющая 2х2 метра. Эти требования, конечно, малореальные для небольших квартир, но стоит иметь в виду, что такая площадь необходима китайским перепелам, прежде всего, для полноценного размножения. Если вы согласны использовать инкубатор для вывода птенцов, то ничего не помешает использовать для содержания китайских перепелов клетки меньшей площади. Если же имеется возможность соорудить вольер подобной площади, то при высоте в один метр, птицам будет предоставлено прекрасное помещение для жизни, в котором они будут чувствовать себя максимально комфортно, и не будут подвержены постоянным стрессовым ситуациям, как при существовании в тесных условиях.  Так как способность к полету у китайских расписных перепелов практически не реализуется в реальной жизни, то в установлении высоких веток, жердочек и прочих подобных приспособлений нет необходимости. Зато пол в таком вольере лучше устроить травянистый, желательно высадить несколько кустов. Возможно использование искусственной растительности. На полу вольера также важно разместить несколько небольших веток, живописных коряг и больших кусков древесной коры, чтобы имитировать природные укрытия и места для гнездования самок китайских перепелов. Если свободного места для размещения перепелов немного, то можно использовать содержание птиц в невысоких (до 50 см) клетках, но необходимо учитывать, что насиживать яйца самки в подобных условиях, скорее всего, не будут, и тогда лучшим вариантом будет содержать китайских перепелов группами. Пол в небольших клетках лучше покрывать опилками или древесной стружкой.  Еще одну особенность китайских расписных перепелов необходимо обязательно учитывать, если птицы будут проживать в невысоких клетках. Дело в том, что если их что-либо напугает, китайский перепел способен взмывать вертикально вверх и может разбить себе голову о железную поверхность клетки. Чтобы этого не случилось, необходимо натянуть недалеко от верхней поверхности клетки с внутренней стороны мелкую матерчатую сетку светлого оттенка, чтобы она не сильно загораживала свет. Таким несложным способом вы сможете защитить перепелов от травм головы и неизбежных неприятных последствий, связанных с ними. Освещение для китайских перепелов лучше устраивать естественное, и если вы будете дополнительно подсвечивать клетки, то необходимо учитывать, что чересчур яркое освещение может спровоцировать излишнюю агрессивность птиц, поэтому этим не стоит увлекаться. Естественной средой обитания перепелов являются затененные заросли, поэтому свет им нужен приглушенный. Еще одним интересным вариантом содержанием китайских перепелов являются террариумы. Ниже можно посмотреть видео про обустройство подобных мест:  Необходимо учитывать любовь китайских перепелов к купанию в песке, поэтому птицам обязательно нужно устроить емкость со слоем сухого песка в 5-6 см глубиной. Желательно, не насыпать песок просто в поддон клетки, так как даже при высоте бортиков клетки в 10-12 см при купании перепелов песок сильно разлетается, и половина его невольно окажется за пределами клетки. Поэтому емкость для купания должна быть закрыта со всех сторон, кроме входа для птиц. Замечание! Возможно использование для песчаных ванн готового пластикового домика для птиц. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кормят китайских перепелов обычно около 3 раз в день. В обычный рацион входит, прежде всего, смесь мелких зерновых культур (кроме овса) с добавлением части зерна в проращенном виде (обычно пшеница). Летом перепелам обязательно давать ежедневно свежую зелень, зимой – по мере возможности. Из белковых кормов необходимо скармливать перепелам различных насекомых, мотыля и червей, также в небольших количествах дается творог и яичные смеси. Для полноценного рациона китайским перепелам обязательно нужны различные минеральные и витаминные добавки. Миска для еды должна быть отдельной от миски с гравием и ракушняком. Присутствие воды для питья в клетке обязательно, ее необходимо ежедневно менять. Комбикормом кормят самок китайских перепелов лишь в период насиживания, когда им жизненно необходимо оптимальное сочетание питательных веществ, витаминов и минералов. Предупреждение! Постоянно кормить комбикормом не рекомендуется, потому что в этом случае самки будут нестись без отдыха, что может привести к их истощению. Когда кладка будет завершена, самке китайских перепелов обычно предоставляют отдых – пересаживают ее в отдельную клетку, уменьшают освещение и переходят на кормление обычной зерновой смесью. Иногда в качестве отдыха используют понижение температуры содержания. При сильном истощении самки можно дать ей раствор иммунофана и примешивать к корму глюконат кальция.  Перепелята этой породы рождаются совсем крошечными, не более 2-3 см, но несмотря на такие размеры, отличаются самостоятельностью и очень быстро развиваются и растут. С первого же дня, находясь в гнезде, они могут начать питаться тем же, что и взрослый китайский перепел. Но обычно их необходимо подкармливать отдельно и добавлять им в пищу насыщенные белком корма: яичные смеси, проращенные семена просо и мака. При выводе молодых перепелов в инкубаторе, следует с первой же кормежки легонько постукивать карандашом или спичкой по месту нахождения корма, чтобы вызвать у них инстинкт клевания. Перепелята отличаются большой подвижностью и быстрым ростом. Уже на третий день они оперяются, а еще через несколько дней становятся способными к полетам. В возрасте трех недель птенцы достигают половины веса взрослых китайских перепелов, в 35-40 дней их уже не отличишь от взрослых птиц по окраске, а в два месяца они становятся половозрелыми. Китайский перепел может жить в неволе около 10 лет. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайский расписной перепел родом из Азии и является самым маленьким представителем отряда курообразных. Его длина составляет около 14 см, а вес колеблется в пределах 28-40 г. Имеются сведения, что раньше в Китае этих птичек брали с собой в дорогу и использовали для согревания рук в холодную погоду. В настоящее время их держат из-за их красоты и яиц, которые считаются деликатесом.  Китайский перепел относится к плодовитому виду, который характеризуется половым деформизмом. Они обитают в юго-восточной части Азии, Африке и Австралии. Летом их содержат на свежем воздухе, зимой — в обогреваемых вольерах и клетках. Перепела весьма чувствительны к сквознякам. При содержании их в неволе в помещении, где они обитают, необходимо поддерживать определенный режим освещения и обогрева. Кормят перепелов зерном, насекомыми, зеленью, червяками. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К отличительным чертам данного вида птиц следует отнести, во-первых, их внешний вид, а во-вторых, место высиживания перепелкой яиц. Вне зависимости от половой принадлежности цвет клюва у китайских перепелок черный, хвостик короткий с темно-коричневым оттенком, а лапы окрашены в оранжевый или желтый цвета. Самец и самка китайского расписного перепела окрашены в коричневый цвет, однако в результате селекции был получен вид с серебристой окраской. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расписной перепел как биологический вид характеризуется половым деформизмом, который проявляется в анатомических различиях самцов и самок. Так, перепел отличается от перепелки окраской и размерами. Самец крупнее самочки. Основные размеры самца и самки этих птиц: Самец имеет пеструю коричневую окраску, сине-серую грудку с серо-коричневым оттенком. Брюшко самца окрашено в темный красный цвет. Горлышко перепелов имеет оттенки коричневого с яркими белыми и черными полосками. Окраска самки однотонная коричневая с ржавым оттенком на брюшке и грудке, горло — белое. Каждое перышко имеет окантовку черного или темно-коричневого цвета. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Для привлечения самок самец издает нечто похожее на «КУИИ-КИИ-КЬЮ». Такие звуки слышны на расстоянии более 1 км. При гнездовании перепел не участвует в создании гнезда, но приносит еду самке и помогает в дальнейшем с потомством.  Самка перепелов китайских сооружает гнезда на земле, собирая травинки и листочки. Данная разновидность птиц является плодовитой и приносит от 150 до 200 яиц  в год размером с оливку с многочисленными крапинками на скорлупе и весом до 12 г. Яйца перепелок содержат 1,4 мкг/100 г витамина D, а также витамины группы В, А, Е, РР, К, макро- и микроэлементы. Перепелка высиживает в гнезде обычно 4-6 яиц, редко — до 14 шт. в течение двух недель. Птенцы расписного перепела рождаются размером не больше шмеля и уже в первый день покидают гнезда. По истечении нескольких недель они уже летают, а через 3 месяца — могут откладывать яйца. За сезон одна пара перепелок может отложить не более 3 кладок, что зависит от качества содержания их и количества пищи. После завершения кладки яиц самок пересаживают в другое помещение с освещением специально темнее обычного и переводят на зерновой корм. Из-за стресса самки перестают высиживать яйца и тогда используют инкубатор, в котором яйца выдерживают две недели при температуре 37,5-38°С. После того, как птенцы вылупляются, их помещают на несколько суток в ящик с температурой 28-30°С, которую постепенно понижают до комнатной. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские дикие расписные перепела проживают на Африканской территории, Южной и Восточной части Азии, а также в Австралии. Основное место обитания их — это горы, а также степи с зарослями травы, в которой они прокладывают тропинки в виде нор. Самцы живут всю жизнь только с одной самкой, о которой тщательно заботятся и делятся едой. Питаются китайские расписные перепела в дикой природе насекомыми, семенами. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зимой перепелок забирают в дом и содержат в клетках либо сооружают для них специальные деревянные  или кирпичные отапливаемые вольеры с освещением, одна из стен которых стеклянная. Крыша и стены перепелятника должны быть хорошо утеплены. Вольер для зимовки также состоит из двух частей, разделенных щитами, меньшая из которых — отапливаемая. Вторая, более обширная его часть, предназначенная для прогулок, не отапливаемая. Пол вольера должен быть усыпан песком, опилками. Необходимо установить под стенами гнезда. Для дополнительного утепления предусматривают тамбур перед входом в вольер. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Китайские домашние расписные перепела в домашних условиях держат на застекленных отапливаемых балконах в небольших дощатых клетках размером Д×Ш×В — 100×50×70 см, одна сторона которых сделана из металлической окрашенной сетки. В случае, если птиц и летом держат в клетках, из досок или фанеры делают только пол и потолок клетки, а стены — из металлической сетки. В передней части клетки располагают продольное отверстие для яиц и полочку с бортиком на внешней стороне, куда скатываются яйца. Внутри клетки находятся контейнеры для еды и воды. Дно должно быть засыпано сухим материалом (например, стружкой). Потолок умягчают специальным материалом для предотвращения ударов птиц головой об потолок. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Птенцов китайского расписного перепела в первый день надо кормить измельченным вареным яйцом. Затем постепенно в их рацион вводят насекомых, зелень, морковь, семена. Разрешается птенцам давать комбикорм. Количество кормлений птенцов на первой неделе жизни составляет 5 раз в день, затем к концу месяца постепенно снижают до 3 раз. В клетки ставят поилки-непроливайки. В питание перепелят включают специальные витаминные добавки. Ближе к месяцу их переводят на взрослую пищу. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/21e73b0ad4a5fcbb15d3da8d00a2b58c-5.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/179028071-5.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p1010064_1038-1038x567-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/0_9ba0d_91ff0b90_xxl-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/76985a9928791306c4cc1a57ee140ac1-5.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/93f3019ab1bef50bf9bb037368466178-5.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/026dd409087ace5d40776e8df7bd21a6-5.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/bl54wyejh5w564je5jil-300x225-5.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/kitais43g53w5g4w3h65345pe-300x240-5.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/p104066343w5t43wyh6t3h45345-300x194-5.jpg</t>
+    <t>Описание и характеристика культуры</t>
+  </si>
+  <si>
+    <t>Достоинства и недостатки</t>
+  </si>
+  <si>
+    <t>Предпосевные работы</t>
+  </si>
+  <si>
+    <t>Выбор места для посадки</t>
+  </si>
+  <si>
+    <t>Подготовка семян</t>
+  </si>
+  <si>
+    <t>Посадка редьки в открытый грунт</t>
+  </si>
+  <si>
+    <t>Правила ухода</t>
+  </si>
+  <si>
+    <t>Режим полива</t>
+  </si>
+  <si>
+    <t>Прополка и рыхление</t>
+  </si>
+  <si>
+    <t>Окучивание</t>
+  </si>
+  <si>
+    <t>Подкормки</t>
+  </si>
+  <si>
+    <t>Уборка и хранение урожая</t>
+  </si>
+  <si>
+    <t>Чем полезна редька лобо?</t>
+  </si>
+  <si>
+    <t>Отзывы о выращивании редьки лобо</t>
+  </si>
+  <si>
+    <t>Общее описание</t>
+  </si>
+  <si>
+    <t>Обзор сортов</t>
+  </si>
+  <si>
+    <t>Посадка</t>
+  </si>
+  <si>
+    <t>Уход</t>
+  </si>
+  <si>
+    <t>Болезни и вредители</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По своим параметрам лобо схожа с дайконом. Основное отличие этих двух разновидностей – продолжительность вегетационного периода. Другие характеристики лобы следующие: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редька лобо, как и любая другая разновидность овоща, обладает рядом преимуществ и недостатков. К плюсам можно отнести следующее: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В целом, редька лобо является достаточно неприхотливой и некапризной культурой и не имеет особых предпочтений к освещению, почве или температуре. Тем не менее, для получения качественного урожая культуре необходимо создать оптимальные условия. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из-за того, что редька относится к семейству Крестоцветных, она подвергается нападению тех же самых паразитов и болезней, как и все растения этого семейства. Не сажайте редьку рядом с капустой, редиской, морковью, свеклой и хреном. Лучшие предшественники: Сейте редьку после сбора урожая ранних культур или же посадите в междурядьях картошки, лука, огурцов. Сажать редьку на месте крестоцветных можно только спустя 3-4 года. Агротехника выращивания несложная – редька хорошо растет на освещенном, солнечном участке, не боится она и небольшого тенька. Идеальным местом для посадки считаются комбинированные грядки, которые на протяжении всего дня находятся под солнечными лучами. Лобо – устойчивое к холоду растение. Всход семян начинается при температуре +2-3 градуса. Всходы могут переносить заморозки до -3-4 градусов, а взрослые растения до -5-6. Культура может расти при диапазоне температур от +5 до 25 градусов, но оптимальной является температура от +18 до +20 градусов.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семена перед посадкой калибруют, потому что отборные и полновесные семена могут гарантировать хорошие всходы и более высокий урожай. Перед посевом обработайте семена стимуляторами роста – Оракул, Вымпел-К и др.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важным фактором для продуктивности лобо является способ и схема размещения растений. Используйте схему 30 на 60 см – это значит, что в междурядьях надо оставлять расстояние 60 см, а между растениями – 30 см. Если же корнеплоды более мелкие, то используйте схему 20 на 40 см.  Этапы процесса посадки: При благоприятных условиях всходы появятся уже через 5 дней. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы урожай получился качественным, важно после посева осуществлять правильный уход за растениями. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полив иногда имеет для редьки большее значение, чем подкормка – ей приходится расти порой в экстремальных летних условиях, когда жара сильная, а осадков нет месяцами. Корнеплод должен налиться соком, вырасти, поэтому полив проводят обязательно. Наилучшим способом является дождевание, особенно если посевы замульчированы. В случае, если влаги недостаточно, плоды становятся жесткими, растения начинают стеблеваться. Переувлажнения сорт тоже не любит. За весь срок вегетации проводят 4 полива по 200-300 л на 10 кв. м. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыхление является одной из важнейших работ по уходу за редькой и помогает не только избавиться от сорняков и предотвратить их появление, но и благоприятно сказывается на состоянии почвы и развитии корнеплодов.  В уходе важно не допустить образования почвенной корки, под которой молодые всходы просто задыхаются. Рыхлить нужно регулярно, так как это предотвращает ухудшение качества почвы. Результатом рыхления становится свободное поступление органических веществ, влаги и кислорода. Наряду с этим проводят и прополку. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окучивание представляет собой прием обработки редьки, способствующий образованию дополнительной корневой системы и сохранению влаги в почве.  Этот прием применяют для обеспечения большей устойчивости к полеганию. Дополнительный слой почвы вокруг основания стеблей и образованные на нём корни хорошо удерживают растения от порывов ветра. Каждое окучивание нужно проводить после дождя или полива, когда почва подсохнет – на вторые-третьи сутки. Растения можно окучивать вручную или с использованием культиваторов (на больших площадях). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подкармливают редьку минеральными удобрениями в сухом виде или в растворах. В борозды вдоль ряда можно залить следующие виды удобрений: Первую подкормку нужно выполнять, когда только образовался первый настоящий листочек, а вторую – через 3-4 недели, когда начинается формирование корнеплода. Возможна и третья подкормка, но только в случае, если развитие растений проходит плохо. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несмотря на устойчивость лобо к морозам, убрать урожай нужно до холодов. Срок созревания раннеспелых сортов составляет от 60 до 70 дней, а среднеспелых и позднеспелых – от 70 до 110 дней.   Ориентируясь на эти сроки, можно определиться и со временем сбора урожая. Раннеспелые сорта нужно собирать в сухую погоду, по степени созревания, а зимние – убирают все подряд, так же выбрав погожий, ясный день. На песчаных грунтах редьку можно просто вытянуть из земли, а на черноземах и плотных почвах – выкопать. Сразу после завершения уборки с редьки нужно счистить землю и убрать лишние тонкие корешки Если вы выполняете эту процедуру ножом, то делайте это аккуратно, так как даже при незначительных царапинах плод уже не сможет храниться долго. Следующим шагом является отбраковка – всю редьку, которая хоть немного повреждена, нужно или пустить в употребление, или переработать. Перед тем как заложить продукт на хранение, удалите ботву, оставив 1-2 см черешков. При соблюдении всех правил сохранить редьку получится максимум на 4 месяца и то, под конец этого срока она станет вялой и пресной, к тому же потеряет часть своих полезных веществ. Лучшие условия для хранения – темное место при температуре от 1 до 2 градусов тепла и уровне влажности 80-95 %. Активная вентиляция воздуха лобе не нужна, иначе она станет волокнистой и грубой. Хранить редьку можно следующим образом: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редька богата клетчаткой, что хорошо сказывается на работе кишечника. Также в ней содержатся эфирные масла, обладающие противовоспалительным и бактерицидным действием. Лобо обладает желчегонным эффектом, что полезно при болезнях печени и желчного пузыря, а также при пониженной кислотности желудочного сока. При простудах и воспалительных заболеваниях полезен свежевыжатый сок из корнеплодов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       СкрытьДобавить свой отзыв        Имя, город        Оценка (обязательно)          Если звезды не реагируют -  обновите страницу.     Ваш отзыв                  Несмотря на то, что китайская редька лобо в нашей стране только набирает свою популярность, это отличный корнеплод, который может похвастаться своей пищевой ценностью, вкусом и пользой для человека, а также достаточно простой агротехникой выращивания. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайская редька Лоба – это незаменимый продукт в рационе каждого человека. В ней содержится огромное количество полезных веществ, витамины А, В, С, Е, РР, а также различные макро- и микроэлементы. Удивительно, но этот полезный продукт стал пользоваться интересом со стороны садоводов совсем недавно. Поэтому цель данной статьи – рассказать обо всех достоинствах китайской редьки, её отличиях от других сортов, о правилах выращивания и ухода за ней, дать подробную информацию, благодаря которой любой садовод сможет вырастить богатый и полезный урожай. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайская редька Лоба является популярной в странах Азии, например, в Китае и Японии. Расположение листьев у данного растения имеет форму приподнятой розетки, достигающей в высоту 0,5-0,6 м. Чаще всего листовые пластинки слаборассечённые, цельные, а не лировидные. Сама форма корнеплодов варьируется от округлой до продолговато-цилиндрической. Спелый плод достигает веса 0,5-1 кг. Цвет кожуры и мякоти бывает белым, малиновым, розовым и зелёным. На этапе весеннего посева китайская редька выбрасывает цветоносы, что делает эти корнеплоды несъедобными, в отличие от японского дайкона, у которого они пригодны для употребления в пищу. Спелые плоды Лобы остро-сладкие, по вкусовым характеристикам они находятся между европейской редькой и дайконом. Также существуют различия в сроках хранения: китайская редька сохраняется в зимний период хуже, чем европейские сорта, но лучше, чем японский дайкон. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одними из наиболее популярных сортов китайской редьки являются «Маргеланская», «Клык слона», «Ред мит», красная и зелёная. Их основные отличительные характеристики представлены в таблице. Основные характеристики сортов китайской редьки Лоба Сорт «Маргеланская» «Клык слона» «Ред мит» Красная Зеленая Внешний вид корнеплодов Длина – 16-20 см. Форма круглая/ овальная/удлинённая. Цвет кожицы белый или зелёный, с красным/фиолетовым оттенком (в зависимости от подвида). Цвет мякоти белый, с зеленоватым оттенком. Форма удлинённая, цилиндрическая, поверхность гладкая. Длина – до 20 см, диаметр – 8-9 см. Цвет белый, верхушка обычно зеленоватого оттенка. Мякоть белая. Форма округлая, цвет кожуры бледно-зелёный. Мякоть достаточно плотная, цвет насыщенно- алый, с розоватым оттенком Форма круглая либо вытянутая, поверхность гладкая. Снаружи мякоть красная, внутри – белая. Форма круглая либо удлинённая. Цвет кожуры и мякоти – различные оттенки зелёного. Время посадки Начало мая (для летнего урожая) или начало июля (для сбора на зиму) Середина июля Март-июль 1 декада июля 2 декада июля Вес спелого плода До 0,5 кг 0,4-0,5 кг 700 г 200-300 г от 200 г Урожайность Около 6 кг с 1 м2 3-4 кг с 1 м2 Высокая Высокая 3-5 кг с 1 м2 Вкус Слегка острый Сочный, слегка горьковатый Сахаристый, без горечи Не очень острый Мягкий, с небольшой горчинкой Срок созревания Летний урожай – 8-10 недель, осенне-зимний – 10-15 недель 10-12 недель 10-12 недель 8-11 недель 8-11 недель </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Следует отметить, что все сорта Лобы морозоустойчивы и пригодны для выращивания в открытом грунте. Сажать китайскую редьку лучше в плодородный грунт с нейтральным уровнем рН, обогащённый органическими удобрениями после таких культур, как бобовые и озимые, а также после огурцов, томатов, лука и раннего картофеля. Для посадки Лобы землю следует подготовить ещё осенью: перекопать на глубину пахотного слоя, удобрить перегноем или компостом из расчёта 5-7 кг/м2 либо суперфосфатом и аммиачной селитрой – 30-40 г/м2 и 25-30 г/м2 соответственно (если содержание кислоты в почве слишком высоко, нужно добавить гашеную известь). Весной землю необходимо снова перекопать, а накануне посева ее требуется глубоко разрыхлить и увлажнить. Оптимальная температура для посева – 18-20 градусов, однако Лоба может прорасти и при 4 градусах тепла. Чтобы добиться обильного урожая крупных корнеплодов, китайскую редьку следует высаживать на узкопрофильных гребнях, а не на участках с ровной поверхностью. Если семена Лобы сажаются рядами, то расстояние между ними должно быть 40-45 см, а если они высеваются ленточным способом, то посев будет 2-3-строчным. Глубина заделки семян – 150-200 мм, всходы появляются через 3-6 суток. Чтобы ускорить процесс, поверхность грядки мульчируют и накрывают плёнкой. Сеянцы прореживают два раза: первый раз – после появления 2 настоящих листьев, второй раз – после появления 3-4 настоящих листков. Прореживать нужно аккуратно, чтобы не повредить хрупкие корешки. Сеянцы пересаживаются с комом родной земли во влажную почву. Существует два варианта посева китайской редьки: Период с момента всходов до поспевания составляет в среднем 60-90 дней, а с момента всходов до получения семян – 120-130 дней. Китайскую редьку в зависимости от сорта можно сеять в 2 срока. Чтобы получить урожай в летне-осенний период, семена сеют в 20-х числах апреля. Если же хочется сохранить урожай на зиму, то сеять надо с 20 июня по 10 июля. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При уходе за редькой Лоба важно соблюдать водный баланс: если грунт будет недостаточно влажен, то корнеплоды вырастут грубыми и сухими, а если удобрений и полива будет слишком много, то плоды потрескаются. Максимальное потребление воды этим растением происходит в период интенсивного роста плода. В целом же почва должна быть постоянно влажной. Для китайской редьки важным моментом будет окучивание. Благодаря ему быстрее развиваются корни, а влага в почве сохраняется лучше. Помимо этого, стебли после окучивания меньше склоняются к земле. Проводить данную процедуру рекомендуется после орошения или естественных осадков, спустя пару дней. Окучивать можно вручную или с применением специальных устройств. Также не следует забывать об удобрении почвы. В момент, когда корнеплод достигает 4-5 см в диаметре, следует добавить необходимые подкормки: Для первых подкормок обычно используют удобрения, содержащие азот. На 10-литровое ведро воды берется примерно 20 граммов таких удобрений. Для последующих подкормок рекомендуется взять калий, а также суперфосфат. Они позволят получить более сладкие и крепкие корнеплоды. Лоба любит свет, поэтому посевы нужно регулярно прореживать, удалять сорные растения и засохшие, пожелтевшие листья. Также следует после каждого дождя или полива рыхлить междурядья. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда появляются первые ростки, с целью профилактики заболеваний необходимо удобрять участок табачной пылью, золой, а также настойкой из полыни. Чтобы защитить корнеплоды от вредителей, следует использовать следующие средства: </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/64635.ppt6vo.840-1.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-avgusta-red-ka-margelanskaya-zelenaya-zimnyaya-chernaya-i-repa-foto-1024x768-2.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/0dce957b5b3ef55eab1ffe3451828490-2.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/vse-o-kitajskoj-redke-loba.jpg</t>
   </si>
 </sst>
 </file>
@@ -549,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,9 +571,6 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -624,7 +594,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -648,9 +618,6 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -667,11 +634,11 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -679,10 +646,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -690,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -700,8 +670,14 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -709,13 +685,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -723,135 +696,84 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D23" r:id="rId10"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>h2</t>
   </si>
@@ -55,31 +55,31 @@
     <t>Окучивание</t>
   </si>
   <si>
-    <t>Подкормки</t>
-  </si>
-  <si>
-    <t>Уборка и хранение урожая</t>
+    <t>Основные болезни и вредители</t>
   </si>
   <si>
     <t>Чем полезна редька лобо?</t>
   </si>
   <si>
-    <t>Отзывы о выращивании редьки лобо</t>
-  </si>
-  <si>
-    <t>Общее описание</t>
-  </si>
-  <si>
-    <t>Обзор сортов</t>
-  </si>
-  <si>
-    <t>Посадка</t>
-  </si>
-  <si>
-    <t>Уход</t>
-  </si>
-  <si>
-    <t>Болезни и вредители</t>
+    <t>Агротехника сладкой редьки</t>
+  </si>
+  <si>
+    <t>Подкормка</t>
+  </si>
+  <si>
+    <t>Лоба: уборка и хранение урожая</t>
+  </si>
+  <si>
+    <t>Редька чёрная (посевная): лечебные свойства, рецепты</t>
+  </si>
+  <si>
+    <t>Выращивание редьки для осенне-зимнего потребления</t>
+  </si>
+  <si>
+    <t>Выращивание редиса в теплице круглый год</t>
+  </si>
+  <si>
+    <t>Свои семена редиса и редьки: правила выращивания</t>
   </si>
   <si>
     <t xml:space="preserve">По своим параметрам лобо схожа с дайконом. Основное отличие этих двух разновидностей – продолжительность вегетационного периода. Другие характеристики лобы следующие: </t>
@@ -112,46 +112,40 @@
     <t xml:space="preserve">Окучивание представляет собой прием обработки редьки, способствующий образованию дополнительной корневой системы и сохранению влаги в почве.  Этот прием применяют для обеспечения большей устойчивости к полеганию. Дополнительный слой почвы вокруг основания стеблей и образованные на нём корни хорошо удерживают растения от порывов ветра. Каждое окучивание нужно проводить после дождя или полива, когда почва подсохнет – на вторые-третьи сутки. Растения можно окучивать вручную или с использованием культиваторов (на больших площадях). </t>
   </si>
   <si>
-    <t xml:space="preserve">Подкармливают редьку минеральными удобрениями в сухом виде или в растворах. В борозды вдоль ряда можно залить следующие виды удобрений: Первую подкормку нужно выполнять, когда только образовался первый настоящий листочек, а вторую – через 3-4 недели, когда начинается формирование корнеплода. Возможна и третья подкормка, но только в случае, если развитие растений проходит плохо. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Несмотря на устойчивость лобо к морозам, убрать урожай нужно до холодов. Срок созревания раннеспелых сортов составляет от 60 до 70 дней, а среднеспелых и позднеспелых – от 70 до 110 дней.   Ориентируясь на эти сроки, можно определиться и со временем сбора урожая. Раннеспелые сорта нужно собирать в сухую погоду, по степени созревания, а зимние – убирают все подряд, так же выбрав погожий, ясный день. На песчаных грунтах редьку можно просто вытянуть из земли, а на черноземах и плотных почвах – выкопать. Сразу после завершения уборки с редьки нужно счистить землю и убрать лишние тонкие корешки Если вы выполняете эту процедуру ножом, то делайте это аккуратно, так как даже при незначительных царапинах плод уже не сможет храниться долго. Следующим шагом является отбраковка – всю редьку, которая хоть немного повреждена, нужно или пустить в употребление, или переработать. Перед тем как заложить продукт на хранение, удалите ботву, оставив 1-2 см черешков. При соблюдении всех правил сохранить редьку получится максимум на 4 месяца и то, под конец этого срока она станет вялой и пресной, к тому же потеряет часть своих полезных веществ. Лучшие условия для хранения – темное место при температуре от 1 до 2 градусов тепла и уровне влажности 80-95 %. Активная вентиляция воздуха лобе не нужна, иначе она станет волокнистой и грубой. Хранить редьку можно следующим образом: </t>
+    <t xml:space="preserve">При правильном проведении агротехнических мероприятий данная разновидность редьки достаточно устойчива к болезням и паразитам, но риск заражения все же существует. Самыми распространенными являются следующие из них:  </t>
   </si>
   <si>
     <t xml:space="preserve">Редька богата клетчаткой, что хорошо сказывается на работе кишечника. Также в ней содержатся эфирные масла, обладающие противовоспалительным и бактерицидным действием. Лобо обладает желчегонным эффектом, что полезно при болезнях печени и желчного пузыря, а также при пониженной кислотности желудочного сока. При простудах и воспалительных заболеваниях полезен свежевыжатый сок из корнеплодов. </t>
   </si>
   <si>
-    <t xml:space="preserve">       СкрытьДобавить свой отзыв        Имя, город        Оценка (обязательно)          Если звезды не реагируют -  обновите страницу.     Ваш отзыв                  Несмотря на то, что китайская редька лобо в нашей стране только набирает свою популярность, это отличный корнеплод, который может похвастаться своей пищевой ценностью, вкусом и пользой для человека, а также достаточно простой агротехникой выращивания. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайская редька Лоба – это незаменимый продукт в рационе каждого человека. В ней содержится огромное количество полезных веществ, витамины А, В, С, Е, РР, а также различные макро- и микроэлементы. Удивительно, но этот полезный продукт стал пользоваться интересом со стороны садоводов совсем недавно. Поэтому цель данной статьи – рассказать обо всех достоинствах китайской редьки, её отличиях от других сортов, о правилах выращивания и ухода за ней, дать подробную информацию, благодаря которой любой садовод сможет вырастить богатый и полезный урожай. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайская редька Лоба является популярной в странах Азии, например, в Китае и Японии. Расположение листьев у данного растения имеет форму приподнятой розетки, достигающей в высоту 0,5-0,6 м. Чаще всего листовые пластинки слаборассечённые, цельные, а не лировидные. Сама форма корнеплодов варьируется от округлой до продолговато-цилиндрической. Спелый плод достигает веса 0,5-1 кг. Цвет кожуры и мякоти бывает белым, малиновым, розовым и зелёным. На этапе весеннего посева китайская редька выбрасывает цветоносы, что делает эти корнеплоды несъедобными, в отличие от японского дайкона, у которого они пригодны для употребления в пищу. Спелые плоды Лобы остро-сладкие, по вкусовым характеристикам они находятся между европейской редькой и дайконом. Также существуют различия в сроках хранения: китайская редька сохраняется в зимний период хуже, чем европейские сорта, но лучше, чем японский дайкон. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одними из наиболее популярных сортов китайской редьки являются «Маргеланская», «Клык слона», «Ред мит», красная и зелёная. Их основные отличительные характеристики представлены в таблице. Основные характеристики сортов китайской редьки Лоба Сорт «Маргеланская» «Клык слона» «Ред мит» Красная Зеленая Внешний вид корнеплодов Длина – 16-20 см. Форма круглая/ овальная/удлинённая. Цвет кожицы белый или зелёный, с красным/фиолетовым оттенком (в зависимости от подвида). Цвет мякоти белый, с зеленоватым оттенком. Форма удлинённая, цилиндрическая, поверхность гладкая. Длина – до 20 см, диаметр – 8-9 см. Цвет белый, верхушка обычно зеленоватого оттенка. Мякоть белая. Форма округлая, цвет кожуры бледно-зелёный. Мякоть достаточно плотная, цвет насыщенно- алый, с розоватым оттенком Форма круглая либо вытянутая, поверхность гладкая. Снаружи мякоть красная, внутри – белая. Форма круглая либо удлинённая. Цвет кожуры и мякоти – различные оттенки зелёного. Время посадки Начало мая (для летнего урожая) или начало июля (для сбора на зиму) Середина июля Март-июль 1 декада июля 2 декада июля Вес спелого плода До 0,5 кг 0,4-0,5 кг 700 г 200-300 г от 200 г Урожайность Около 6 кг с 1 м2 3-4 кг с 1 м2 Высокая Высокая 3-5 кг с 1 м2 Вкус Слегка острый Сочный, слегка горьковатый Сахаристый, без горечи Не очень острый Мягкий, с небольшой горчинкой Срок созревания Летний урожай – 8-10 недель, осенне-зимний – 10-15 недель 10-12 недель 10-12 недель 8-11 недель 8-11 недель </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Следует отметить, что все сорта Лобы морозоустойчивы и пригодны для выращивания в открытом грунте. Сажать китайскую редьку лучше в плодородный грунт с нейтральным уровнем рН, обогащённый органическими удобрениями после таких культур, как бобовые и озимые, а также после огурцов, томатов, лука и раннего картофеля. Для посадки Лобы землю следует подготовить ещё осенью: перекопать на глубину пахотного слоя, удобрить перегноем или компостом из расчёта 5-7 кг/м2 либо суперфосфатом и аммиачной селитрой – 30-40 г/м2 и 25-30 г/м2 соответственно (если содержание кислоты в почве слишком высоко, нужно добавить гашеную известь). Весной землю необходимо снова перекопать, а накануне посева ее требуется глубоко разрыхлить и увлажнить. Оптимальная температура для посева – 18-20 градусов, однако Лоба может прорасти и при 4 градусах тепла. Чтобы добиться обильного урожая крупных корнеплодов, китайскую редьку следует высаживать на узкопрофильных гребнях, а не на участках с ровной поверхностью. Если семена Лобы сажаются рядами, то расстояние между ними должно быть 40-45 см, а если они высеваются ленточным способом, то посев будет 2-3-строчным. Глубина заделки семян – 150-200 мм, всходы появляются через 3-6 суток. Чтобы ускорить процесс, поверхность грядки мульчируют и накрывают плёнкой. Сеянцы прореживают два раза: первый раз – после появления 2 настоящих листьев, второй раз – после появления 3-4 настоящих листков. Прореживать нужно аккуратно, чтобы не повредить хрупкие корешки. Сеянцы пересаживаются с комом родной земли во влажную почву. Существует два варианта посева китайской редьки: Период с момента всходов до поспевания составляет в среднем 60-90 дней, а с момента всходов до получения семян – 120-130 дней. Китайскую редьку в зависимости от сорта можно сеять в 2 срока. Чтобы получить урожай в летне-осенний период, семена сеют в 20-х числах апреля. Если же хочется сохранить урожай на зиму, то сеять надо с 20 июня по 10 июля. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При уходе за редькой Лоба важно соблюдать водный баланс: если грунт будет недостаточно влажен, то корнеплоды вырастут грубыми и сухими, а если удобрений и полива будет слишком много, то плоды потрескаются. Максимальное потребление воды этим растением происходит в период интенсивного роста плода. В целом же почва должна быть постоянно влажной. Для китайской редьки важным моментом будет окучивание. Благодаря ему быстрее развиваются корни, а влага в почве сохраняется лучше. Помимо этого, стебли после окучивания меньше склоняются к земле. Проводить данную процедуру рекомендуется после орошения или естественных осадков, спустя пару дней. Окучивать можно вручную или с применением специальных устройств. Также не следует забывать об удобрении почвы. В момент, когда корнеплод достигает 4-5 см в диаметре, следует добавить необходимые подкормки: Для первых подкормок обычно используют удобрения, содержащие азот. На 10-литровое ведро воды берется примерно 20 граммов таких удобрений. Для последующих подкормок рекомендуется взять калий, а также суперфосфат. Они позволят получить более сладкие и крепкие корнеплоды. Лоба любит свет, поэтому посевы нужно регулярно прореживать, удалять сорные растения и засохшие, пожелтевшие листья. Также следует после каждого дождя или полива рыхлить междурядья. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда появляются первые ростки, с целью профилактики заболеваний необходимо удобрять участок табачной пылью, золой, а также настойкой из полыни. Чтобы защитить корнеплоды от вредителей, следует использовать следующие средства: </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/64635.ppt6vo.840-1.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-avgusta-red-ka-margelanskaya-zelenaya-zimnyaya-chernaya-i-repa-foto-1024x768-2.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/0dce957b5b3ef55eab1ffe3451828490-2.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/vse-o-kitajskoj-redke-loba.jpg</t>
+    <t xml:space="preserve">Если японскую редьку дайкон сейчас выращивают многие садоводы, то ее китайский вариант — лоба — практически незнаком даже любопытным овощеводам-любителям. В Китае такую редьку выращивают повсюду, и продается она на всех многочисленных базарах. Корнеплоды лобы могут быть разнообразной формы и окраски — от круглых до цилиндрических, с белой, светло-зеленой или красной кожицей. Но в верхней части головки корнеплоды всегда окрашены в интенсивный зеленый цвет. Мякоть корнеплодов имеет окраску от белой до розово-красной. Вес корнеплода колеблется от 0,5 до 1 кг и более. Вкус лобы занимает промежуточное положение между дайконом и европейскими сортами редьки, мякоть у них слабоострого вкуса. По вкусовым качествам многие ее сорта близки к редису.  Лоба хранится лучше, чем дайкон, но хуже, чем зимние сорта европейской редьки. Лоба, помимо экзотического внешнего вида, изумительных вкусовых качеств и внушительных размеров обладает целебными свойствами — сдерживает рост бактерий, выводит лишнюю воду из организма, способствует пищеварению, очищает печень и почки, растворяет камни в почках, выводит соли тяжелых металлов и радионуклидов. Они не оказывают резкого возбуждающего действия на сердечную деятельность, как наша черная редька, поэтому не противопоказаны пожилым людям. Их ценность значительно выше обычной редьки и редиса, они способствуют укреплению иммунной системы, снижению в организме уровня холестерина и канцерогенных веществ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лоба — неприхотливое растение, и даже те сорта, которые имеют круглую форму и не погружены глубоко в землю, могут культивироваться даже на тяжелых глинистых почвах, но высокий урожай получается, естественно, на плодородных почвах, хорошо заправленных органикой (компостом или перегноем) и с нейтральной реакцией.  Лучшими предшественниками для лобы являются бобовые и озимые зерновые культуры, огурец, ранний картофель, помидоры, лук. Сеют китайскую редьку и весной, и летом (в основном). При весеннем посеве она довольно часто образует цветоносы, плоды у таких растений, в отличие от дайкона, в пищу не пригодны. А при летнем сроке посева растения цветоносов не образуют и дают очень высокий урожай корнеплодов. Почву для выращивания лобы готовят так же, как и для других корнеплодов. Ее необходимо хорошо заправлять органическими удобрениями (компостом, перегноем) по 1 ведру на 1 м2 на легких плодородных почвах и по 2 ведра на 1 м2 на тяжелых глинистых почвах. Но свежий навоз вносить под нее нельзя. Его вносят только под предшествующую культуру. Глубина перекопки почвы должна быть не менее 30 см. На кислых почвах обязательно надо вносить гашеную известь. На низинных участках лобу лучше выращивать на гребнях и грядках. Из удобрений перед посевом лучше внести полное минеральное удобрение или нитрофоску по 1 чайной ложке на 1 м2. Но еще лучше использовать комплексные удобрения «Кемира-люкс» или «Кемира-универсал-2», содержащие не только азот, фосфор и калий, но и все необходимые микроэлементы. Эти удобрения стоят дороже нитрофоски, но зато значительно эффективнее. Срок посева. В зависимости от сорта лобу сеют в два срока. Для получения корнеплодов в летне-осенний период семена сеют с 25 апреля. Для зимнего хранения — с 20 июня по 10 июля, так как ранний посев зимних сортов лобы приводит к выбрасыванию соцветий в первый год жизни и растрескиванию корнеплодов.  Максимальный урожай корнеплодов получается при посеве семян в начале первой декады июля. В это время условия выращивания наиболее благоприятны для большинства сортов лобы. Но при этом почву необходимо хорошо полить, а после посева замульчировать. А если вы хотите заложить корнеплоды на зиму, то ее надо сеять в конце первой декады июля. Самый последний срок посева семян — середина июля, но такие корнеплоды в этом случае будут мелковатыми. Оптимальная температура для роста и развития 15—18°С. Культура холодостойка, выдерживает легкие заморозки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При достижении корнеплодом диаметра 3–4 см растения необходимо подкормить раствором коровяка или золой.  На богатых почвах для ранних сортов достаточно 1–2 подкормок, а для зимних сортов — 3–4 подкормок с интервалом 10–12 дней.  И еще одна особенность лобы — на грядке она дает урожай более высокий, чем на ровной поверхности. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убирают корнеплоды до заморозков. Ранние сорта убирают выборочно в сухую погоду по мере созревания, а зимние сорта — подряд.  У корнеплодов, предназначенных для хранения, ботву лучше не обрезать, а обрывать скручиванием, оставляя черешок длиной 1,5–2 см.  В холодных подвалах зимние сорта хорошо хранятся до конца зимы, оставаясь такими же сочными, как будто их только что сняли с грядки... Источники: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редька посевная — ценное лекарственное растение, применяемое в народной медицине как отхаркивающее, желчегонное, мочегонное, отвлекающее средство для лечения болезней желудка, кишечника, печени и др. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В отличие от летней редьки, редьку для осенне-зимнего потребления сажают летом. Да, летом, когда световой день сокращается, ближе к июлю, высевают семена озимой редьки. Редька для зимнего потребления вырастает крупнее, вкуснее, сочнее и хранится практически до конца зимы. Чем не довод в пользу этого способа выращивания редьки? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редис растет быстрее всех овощных культур, поэтому в теплице (защищенном грунте) редис выращивают исключительно как предшествующую, пожнивную или промежуточную культуру. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семена редиса и редьки получить просто, пересадочным и беспересадочным способом, но следует помнить, что редис и редька могут переопыляться между собой и с дикой редькой, что приводит к потере сортовых признаков </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/64635.ppt6vo.840-3.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-avgusta-red-ka-margelanskaya-zelenaya-zimnyaya-chernaya-i-repa-foto-1024x768-4.webp</t>
   </si>
 </sst>
 </file>
@@ -676,17 +670,11 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -696,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -706,11 +694,11 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -772,8 +760,6 @@
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -49,6 +49,60 @@
     <t>Паразиты, передающиеся человеку</t>
   </si>
   <si>
+    <t>Уржумская порода</t>
+  </si>
+  <si>
+    <t>Ландрас</t>
+  </si>
+  <si>
+    <t>Дюрок</t>
+  </si>
+  <si>
+    <t>Пьетрен</t>
+  </si>
+  <si>
+    <t>Эстонская беконная</t>
+  </si>
+  <si>
+    <t>Лакомб</t>
+  </si>
+  <si>
+    <t>Темворс</t>
+  </si>
+  <si>
+    <t>Вьетнамская вислобрюхая</t>
+  </si>
+  <si>
+    <t>Мясо-сальные породы</t>
+  </si>
+  <si>
+    <t>Крупная белая</t>
+  </si>
+  <si>
+    <t>Украинская степная белая</t>
+  </si>
+  <si>
+    <t>Северокавказская</t>
+  </si>
+  <si>
+    <t>Ливенская</t>
+  </si>
+  <si>
+    <t>Брейтовская</t>
+  </si>
+  <si>
+    <t>Сальные породы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беркшир  </t>
+  </si>
+  <si>
+    <t>Миргородская</t>
+  </si>
+  <si>
+    <t>Мангалицкая</t>
+  </si>
+  <si>
     <t xml:space="preserve">Жизнь на ТДС в тайге!⁠⁠
 </t>
   </si>
@@ -67,60 +121,6 @@
   <si>
     <t xml:space="preserve">Толпа правоверных врывается в аэропорт Махачкалы в поисках евреев. Предыдущее видео быстро удалили. Вот со ссылкой на официальное СМИ⁠⁠
 </t>
-  </si>
-  <si>
-    <t>Уржумская порода</t>
-  </si>
-  <si>
-    <t>Ландрас</t>
-  </si>
-  <si>
-    <t>Дюрок</t>
-  </si>
-  <si>
-    <t>Пьетрен</t>
-  </si>
-  <si>
-    <t>Эстонская беконная</t>
-  </si>
-  <si>
-    <t>Лакомб</t>
-  </si>
-  <si>
-    <t>Темворс</t>
-  </si>
-  <si>
-    <t>Вьетнамская вислобрюхая</t>
-  </si>
-  <si>
-    <t>Мясо-сальные породы</t>
-  </si>
-  <si>
-    <t>Крупная белая</t>
-  </si>
-  <si>
-    <t>Украинская степная белая</t>
-  </si>
-  <si>
-    <t>Северокавказская</t>
-  </si>
-  <si>
-    <t>Ливенская</t>
-  </si>
-  <si>
-    <t>Брейтовская</t>
-  </si>
-  <si>
-    <t>Сальные породы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беркшир  </t>
-  </si>
-  <si>
-    <t>Миргородская</t>
-  </si>
-  <si>
-    <t>Мангалицкая</t>
   </si>
   <si>
     <t xml:space="preserve">Для свиней характерно компактное телосложение и длинная морда, заканчивающаяся голым хрящевым подвижным «пятачком» — это приспособление для разрыхления земли в поисках корма. Клыки хорошо развитые, острые, изогнуты вверх. Конечности четырёхпалые; боковые пальцы (второй и четвертый) едва касаются земли. Как у всех парнокопытных, пальцы заканчиваются копытцами. Волосяной покров редкий, состоящий в основном из щетины. Желудок простой (исключение — бабирусса). У свиней короткое (8-10 см) и узкое влагалище, без чётко очерченных границ, которое переходит в шейку матки. Слизистая оболочка влагалища собрана в грубые продольные складки. В шейке матки различают два поперечных участка: ампулу и суженную (извилистую) часть. Рога матки длинные и тонкие, расположены петлеобразно[1].
@@ -159,6 +159,63 @@
  </t>
   </si>
   <si>
+    <t xml:space="preserve">Сегодня свиноводство считается одной из самых популярных и ценных отраслей животноводства. Благодаря работе селекционеров в мире насчитывается около 100 пород свиней, которые делятся на три основных вида по продуктивности: Далее в статье мы опишем самые популярные породы свиней на сегодняшний день.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порода свиней, выведенная в 20 веке в России, городе Уржум Кировской области. Официально утверждена в 1957 году. Получили ее путем длительного перекрестного скрещивания местных длинноухих свиней и хряков крупной белой породы. Выведенная для центральных регионов, уржумская свинья прекрасно себя чувствует на всей европейской части страны. Особенности породы – крепкая конституция, высокая продуктивность и жизнестойкость. Внешний вид. Белая масть с массивным грубоватым костяком. Животные имеют неширокое длинное туловище, средняя часть которого немного растянута, а передняя – вытянута. Длина самцов достигает 180 см, самок — 170 см. Голова средних размеров, уши большие и тяжелые, немного наклонены вперед. Спина и крестец прямые. Щетина длинная и густая, белая. Продуктивность. Высокая. За один опорос свиноматка приносит от 11 до 13 поросят, к полугоду вес каждого достигает 100 кг (со среднесуточным привесом около 720 г). Живая масса взрослого хряка – 315-350 кг, самки – 250 кг. Выращивание и уход. Порода выводилась, как продуктивная, неприхотливая в содержании и еде, с высокой репродуктивностью. При надлежащем уходе поросята быстро набирают вес. Простота содержания животных привлекает фермеров. Но, как и многие мясные породы, эта требует особого режима питания.  Достоинства. Уржумские свиньи неприхотливы, хорошо переносят условия северных районов. Приспособлены к содержанию на пастбищах, легко адаптируются. У свиноматок превосходно развиты материнские качества, они очень спокойны. Порода с высококачественной свининой и беконом. Недостатки. Минусы лишь экстерьерные – свислый крестец, небольшой по толщине подкожный жир, аркообразная спина.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ландрас – элитная порода, появившаяся в Дании как результат скрещивания крупной белой британской и местной, датской свиней. Популярна и в России. Для этих животных характерны вкусное постное мясо с тонкой прослойкой жира и скороспелость. Внешний вид. Свиньи светлой масти с небольшой округлой головой, торпедообразным телом, длинными, свисающими на глаза ушами. Грудь неширокая, спина ровная, щетина мягкая и редкая, кожа розовая. Длина тела хряков достигает 2 м, самок – 1,6 м. Продуктивность. За один раз матка рождает 10 поросят, редко больше (11-13). Молодняк отличается быстрым ростом, и за 2 месяца набирает уже 20 кг. Это крупная порода: вес взрослых хряков достигает 300 кг, свиней – 210-250 кг. Выращивание и уход. В разведении Ландраса не добиться высоких показателей без учета некоторых нюансов. Летом свиней необходимо выпускать на зеленые луга, а зимой обеспечить им теплый свинарник, тогда они будут набирать вес, а не тратить силы на обогрев. Свиньям необходим сбалансированный рацион, в который входит зелень и зерно, овощи, комбикорма, костная мука и не только. Достоинства. Одна из лучших пород в своей категории. В свиньях содержится на 2-5% больше мяса, и небольшое количество жира. Из очевидных плюсов называют плодовитость, быстрый рост, миролюбие. Недостатки. Прихотливы в еде и содержании. Имеют слабое строение задних конечностей. Бывают восприимчивы к стрессам.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">После скрещивания беркширской свиньи и красной гвинейской в конце 19 века, появились кабаны Дюрок. Породу зарегистрировали в США. Представители ее отличаются своим ярким окрасом: коричневый цвет с красным оттенком. Животные довольно выносливы, крупные по размеру. Удачное разведение данной породы заключается в создании комфортных условий.  Внешний вид. Имеют крепкое телосложение, высокие ноги, дугообразную спину. Тело длинное – до 2 м. Окорока толстые. Голова средняя. Уши длинные, почти закрывают глаза. Взрослые животные – самки и самцы – не сильно отличаются между собой по размерам. Продуктивность. По плодовитости уступают другим породам: за один раз свиноматка приносит 9-11 поросят. Новорожденные весят 1-1,5 кг, и уже к полугоду набирают массу до 175 кг. К зрелости вес может достигать 300-360 кг. Выращивание и уход. Дюроки привыкли жить в комфорте, они чрезвычайно требовательны к хорошему корму, теплу, просторному вольеру. Если наблюдается недостаток белковой пищи, качество мяса ухудшается. Свинки подвижны и совсем неагрессивны. Достоинства. Молодняк быстро набирает вес. Вкусовые качества мясопродуктов отличные. Можно разводить свиней массово и содержать на пастбищах. Недостатки. Капризны в уходе, теплолюбивы, требуют белкового питания. К некоторым болезням порода слабо устойчива. Плодовитость небольшая.  Больше информации о свиньях породы Дюрок вы найдёте тут. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порода выводилась на протяжении нескольких десятилетий в Бельгии. В результате скрещивания нескольких мясных пород с хорошей продуктивностью (в том числе белой крупной и беркширской) получилась Пьетрен (Петрен). Свиньи используются, как генетический материал для разведения других пород с целью повысить их мясистость. Внешний вид. Крупные животные с широким туловищем цилиндрической формы. Мускулатура развита (особенно филейная часть), крестец широкий, окорока развиты. Маленькая голова и уши, стоящие торчком. Окрас светлый с темными пятнами. Продуктивность. Матки маломолочны и малоплодны. В среднем рождает 8 поросят. За 200 дней молодняк набирает до 90 кг. Вес взрослых животных может достигать 270 кг (хряков), 150-200 кг – самок. Выращивание и уход. Из-за низкой сальности свиньи данной породы не терпят низких (менее 16 градусов) и высоких (больше 30) температур. Требуют специально оборудованного помещения и на зимнее, и на летнее время. Животные разборчивы в еде из-за высокого метаболизма. Достоинства. Отличный мясной выход (70%), низкая сальность. Устойчивость к некоторым вирусным заболеваниям. Хороший аппетит. Недостатки. Из-за близкородственного скрещивания в селекционном отборе, животные имеют ряд недостатков. К ним относят малый суточный привес, прихотливость в содержании, мясо низкого качества (быстро окисляется), плохая стрессоустойчивость.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первая выведенная в СССР масть беконного назначения. Получилась в результате селекционной работы с Ландрасами и белыми немецкими свиньями. Окончательно порода сформировалась в 60-е годы 20 века. Внешне напоминает крупную белую свинью, и хотя меньше по массе, на выходе дают больше мяса. Внешний вид. Плотная конституция. Широкая спина, небольшая голова и прямые ноги. Лопатки легкие, окорока большие. Мышцы хорошо развиты. Окрас белый, кожа розовая и просматривается сквозь щетину. Продуктивность. Средний вес кабанов – 300 кг, свиноматок – 200. Одна самка рождает до 12 поросят. Молодняк отличается высокой выживаемостью. Средний суточный привес поросят – 700 г. Выращивание и уход. Эстонские свиньи не требуют особенных кормов, они всеядны и неприхотливы. Находят пищу сами при содержании на пастбище. Самки приносят здоровое потомство. Достоинства. Хорошие вкусовые качества бекона. Простой уход. Животные крепкие и выносливые, отличаются продуктивностью.  Недостатки. Экстерьерные минусы – свислость или рыхловатость крестца. Но на качество мяса это не влияет.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порода, появившаяся в Канаде в середине 20 века, где она до сих пор пользуется популярностью. Разводят свиней и в других странах, том числе и России (с 60-70 гг.). Выведены Лакомбы в результате многопородных воспроизводительных скрещиваний (Ландраса, Беркширских свиней и других). Масть обладает хорошими экстерьерными показателями и крепкой конституцией. Внешний вид. Свиньи средних размеров, крепкого телосложения, мясной конституции. Туловище небольшое, но удлиненное. Голова средняя. Большие уши свисают на глаза. Коротковатые, но крепкие конечности. Продуктивность. Показатели плодовитости выше среднего. Свиноматки многоплодны, рождают по 10-11 поросят одновременно. Молодняк быстро набирает необходимую массу – в среднем к 150 дню. Вес взрослых животных: 220-280 кг (самцов и самок соответственно). Выращивание и уход. По темпераменту эти животные флегматичны и неприхотливы. В том числе поросята – они спокойны и послушны. Разводят их в Канаде, но в России эти свиньи также приживаются. При правильном кормлении прирост молодняка хороший. Достоинства. Кроткий нрав, устойчивость к стрессам и некоторым болезням (риниту). Продуктивность. Быстрый рост молодняка. Хорошее качество мяса. Недостатки. Явных минусов у породы не выявлено. Некоторые называют минусом недостаточный вес свиней.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одна из самых старых пород в мире, выведенная в Англии. Эти свиньи приспособлены к суровым климатическим условиям, поэтому разводятся в северных странах (США, Канаде), а также Австралии и Новой Зеландии, Великобритании. Внешний вид. Конституция крепкая, рельефная. Костная система развита хорошо. Ярко выражена мускулатура, корпус узкий и удлиненный. Длина туловища достигает 100-150 см. Уши острые, стоят прямо. Шея длинная и широкая. Ноги крепкие. Щетина блестящая, окрас варьируется от рыжего до темно-красного и даже бурого. Продуктивность. В среднем за раз самка рождает от 6 до 10 поросят. С материнскими обязанностями справляются отлично, и это сказывается на здоровье детенышей. К 30 неделям молодняк достигает массы 100 кг. Выращивание и уход. Эти свиньи удивительно выносливы, не боятся холода, дождя и ветра. Очень общительны и дружелюбны, ладят с другими питомцами. Подходят для содержания на пастбищах и вместе с коровами. Употребляют в пищу любые корма, в том числе предназначенные для скота. Достоинства. Неприхотливость (к условиям содержания и кормам). Особая выносливость и приспособляемость. Дружелюбие. Бекон высокого качества. Недостатки. Среднее многоплодие. Иногда щетина у животных вьющаяся и тонкая.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оригинальная масть свиней, популярная из-за высоких показателей мясной и сальной продукции – она считается деликатесом. Выведена в Юго-Восточной Азии. Впервые завезена в Европу и Канаду из Вьетнама в 1985 году. Но активная работа по улучшению породы продолжается до сих пор. Селекционеры пытаются увеличить процент мышечной массы животных. Внешний вид. Некрупные животные (средний вес взрослой особи 140-150 кг). Сложение беконное: имеют широкие туловище и грудную клетку. Голова небольшая, мопсовидная. Кабаны к половой зрелости отращивают клыки. Щетина образует «ирокез», который вздыбливается в момент эмоционального потрясения. Окрас черный, но может варьироваться до темно-рыжего оттенка.  Продуктивность. Животные отличаются интенсивной скороспелостью. Уже в 4 месяца самки достигают половой зрелости, кабаны – к полугоду. Свиноматки славятся уравновешенностью, высокой молочностью. За один опорос на свет появляется до 15 поросят. Кроме того, самки способны дважды за год оплодотворяться. Выращивание и уход. Животные покладистые, спокойные и удивительно чистоплотные, разводить их одно удовольствие. Адаптированы к жаркому влажному климату и одновременно к суровым зимам. Свиньи хорошо используют пастбища. Из пищи предпочитают растительные корма (трава и сено – до 85% рациона). Достоинства. Хороший иммунитет. Спокойный нрав. Многоплодность. Простота содержания и откорма. Вкусное мясо. Недостатки. Склонность к ожирению. За питанием свиней необходимо следить, но даже при усиленном питании прирост мяса не наблюдается, только сала.  Читайте подробнее об этой породе свиней тут. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">К данной группе относятся универсальные породы свиней, которых разводят ради мяса и сала одновременно. В России это направление пользуется большой популярностью, так как позволяет откармливать животных без ограничений. Лишь в зрелом возрасте мясосальные свиньи начинают откладывать жир. Молодые особи идут на мясо и деликатесы. Питательные качества столь же высоки, как и вкусовые. Мясосальное – выгодное направление свиноводства. Полезный выход продукции с одной туши – 70% и более. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самая распространенная в России порода, пришедшая из Англии. Прошла несколько стадий селекции, неоднократно улучшалась. Зарегистрирована в 1851 году. Иногда ее называют йоркширская. Характеризуется высокими воспроизводительными способностями, показателями развития и роста. Внешний вид. Животные белой масти с гармоничным телосложением. Туловище длинное, спина прямая, широкая и глубокая грудь. Брюхо объемистое, но не висит. Ноги крепкие, невысокие. Окорока мускулистые. Голова средняя, щеки мясистые, лоб широкий. Продуктивность. Взрослые особи могут набрать вес 300-380 кг. За опорос матка приносит до 12 малышей. При интенсивном откорме суточный прирост их может достигать 850 г. Выращивание и уход. Порода хорошо адаптируется к разным условиям, климату, хотя не терпит сильной жары и холода. При обустройстве свинарника необходимо задуматься о навесе – солнечные лучи негативно влияют на светлую кожу свиней. Возможны ожоги.  Достоинства. Отличные продуктивные качества. Неприхотливость животных к предоставленному рациону. Высокая плодовитость и хороший набор массы. Недостатки. Склонны к ожирению и перегреву. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из названия ясно, что родиной этих свиней является Украина. Одна из лучших пород, она выводилась специально для степной части страны – регионов с засушливым климатом. Свиньи хорошо приспособлены к предоставленному им ареалу обитания, хорошо акклиматизируются. Порода используется для выведения новых разновидностей, усовершенствования существующих. Внешний вид. Животные похожи на свиней крупной белой породы, но голова у них длиннее и уже, щетина грубее. Скелет крепкий. Туловище широкое и глубокое, ноги крепкие, без складок. Цвет щетины у чистопородных особей белый, редко возможно появление темных сизых пятен. Продуктивность. Выводилась, как порода с высокой репродуктивностью. Свиноматки рождают в среднем 12 поросят за один раз. Средний привес молодняка – 700-710 г за день. Взрослые особи достигают массы 210-340 кг.  Выращивание и уход. Универсальная порода, которая легко адаптируется к неприятностям погоды (ветер, холод, жара) и способна усваивать низкокалорийные корма. Период выпаса большой. Достоинства. Выносливость. Возможность приспосабливаться к различным условиям. Плодовитость. Скороспелость. Недостатки. Экстерьерный – у некоторых особей свислый крестец. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порода получена путем скрещивания кубанской свиньи с представителями крупной белой, беркширской и белой короткоухой. Сегодня для того, чтобы улучшить мясные качества, северокавказских свиней скрещивают с Пьетренами. Животных используют для чистопородного скрещивания в промышленных масштабах. Внешний вид. Крепкие животные с широкой головой и грудью. Туловище бочкообразное, грудь глубокая. Хорошо выполнены окорока, ноги крепкие. Костяк тоньше, чем у свиней похожих мастей. Щетина густая, в зимнее время с мягким подшерстком. Окрас пестрый. Продуктивность. Вес взрослых хряков достигает 350 кг, самок – 230 кг. Отличаются многоплодием, рожают в среднем 10-11 поросят. К полугоду малыши достигают массы в 100-120 кг. Выращивание и уход. Северокавказские свиньи приспособлены к условиям резко континентального климата. Они могут содержаться в свинарниках открытого типа круглый год, а также хорошо используют пастбища. Достоинства. Скороспелость. Многоплодность и хорошие материнские качества. Спокойный нрав. Возможность содержаться на открытом воздухе. Недостатки. Мясные качества не на высоте. Костяк тонкий.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свинья комбинированного типа, выращиваемая на мясо и сало. Прародители породы – крупная белая, Беркширы и Ландрасы. Выведены Ливенские свиньи в начале 19 века, утверждена порода в 1949 г., к 1980-му было зарегистрировано 60 000 особей. Это сильные выносливые животные со спокойным нравом, получившие хорошую репутацию благодаря качественному мясу. Внешний вид. Крупные габариты: туловище удлиненное (150-180 см), обхват груди 150-165 см, высокая холка, крепкое сложение. Брюхо немного провисает. Спина широкая и прямая. Голова короткая, профиль курносый. Уши большие. В нижней части шеи расположены характерные сережки. Масть белая с серыми пятнами. Продуктивность. Свиньи характеризуются хорошими откормочными свойствами. Взрослые особи достигают веса 250-330 кг (самки и самцы соответственно). Свиноматки плодовиты, за один опорос приносят в среднем 11 поросят. Выращивание и уход. Животные неприхотливы и выносливы, приспосабливаются к различным условиям, замечательно переносят пастбищное содержание. Непривередливы в еде, с удовольствием поедают объемистые корма, рожь, картофель. Достоинства. Простота в уходе. Непритязательность в выборе корма. Развитый материнский инстинкт и спокойный нрав. Недостатки. Рыхлая конституция, большие складки на коже.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этих свиней выводили в Ярославской области методом скрещивания местных животных с несколькими породами: Латвийскими вислоухими и Полесскими свиньями, датскими Ландрасами, крупными и средними белыми. В 1948 году породу утвердили, и она массово распространилась по стране. Брейтовские свиньи подходят для сырого и холодного климата, т. к. легко адаптируются к этим условиям. Внешний вид. Крупные животные с пропорциональной головой и немного изогнутым профилем. Большие уши нависают на глаза. Шея выражена, средней длины. Тело мускулистое, ноги прямые и крепкие, окорока выражены. Кожа упругая, но при большом наборе веса могут образовываться складки. Щетина густая. Окрас белый, редко встречаются пятнистые особи. Продуктивность. Высокая. За один опорос матка приносит 11-12, реже 13-14 малышей. При правильном питании ежедневная прибавка в весе составляет 680-750 г. Взрослые особи достигают массы 250-350 кг (в зависимости от пола). Выращивание и уход. Животные выносливы, приспосабливаются к разным климатическим условиям. Их разводят не только в центральных регионах, но и в Мурманской и Ленинградской областях. Главной заботы требуют поросята и их мать – они должны содержаться в сухости и чистоте.  Достоинства. Брейтовские свиньи породы миролюбивы, заботливы по отношению к детенышам. Непривередливы в питании. Адаптируются к температурным перепадам. Мясо средней жирности. Недостатки. Порода нуждается в повышении мясных качеств. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В последние годы сальные породы составляют конкуренцию универсальным и мясным. Явное их преимущество – быстрый набор веса животных, раннее накопление жировых отложений под кожей. Всего за 8-10 месяцев откорма можно получить вкусное сало и мясо. Они составляют около 40-50% от всей туши животного. По сравнению с двумя другими разновидностями способность к воспроизведению ниже. Фермеры останавливают свой выбор на данном виде свиней за явные плюсы: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скороспелая порода, выведенная в одноименном графстве Великобритании в середине 19 века. Их прародители: английские, неаполитанские, сиамские и китайские породы. В России Беркширов утвердили в 1975 году. Их гены до сих пор активно используются селекционерами. Из них вывели многие известные масти свиней. Условно Беркширов относят к мясосальному направлению, но все зависит от откорма. Внешний вид. Животные с крепкой конституцией, вытянутым и объемным туловищем. Спина широкая. Костяк у хряков хорошо развит, у самок он нежный. Ноги сильные, короткие, окорока развиты. Голова крупная, но легкая, уши торчат вперед и вверх. Окрас черный, на кончиках хвоста, рыла и ног имеются светлые пятна. Кожа тонкая и без морщин, щетина длинная, густая.  Продуктивность. Средний вес взрослых кабанов – 220-250 кг, самок – от 180 до 220 кг. Веса в 100 кг поросята достигают к 197-200 дню. Матки не очень плодовиты, в среднем рожают по 6-9 детенышей. Выращивание и уход. Порода популярна среди фермеров в разных регионах России, так как непритязательна, легко акклиматизируется. Поросята быстро набирают вес. Свиньи славятся своей неприхотливостью в содержании, но требуют особый рацион. Беркширы комфортно чувствуют себя на открытых пространствах, могут содержаться на пастбищах. Достоинства. Хорошая скороспелость, высокие откормочные качества. Убойный выход – 88%. Продукция с хорошим соотношением и мяса, и сала. Неприхотливость в содержании и к кормам. Недостатки. Животные склонны к ожирению. Самки немногоплодны. Из внешних недостатков выделяют мопсовитость, карпообразную спину, иксообразные конечности. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миргородская порода свиней выведена еще в 19 веке, но окончательно утвержденная в 1940 году. Родина – Украина, Полтавская область. Получили ее путем скрещивания местных свиней (короткоухих пестрой масти) и кабанов Темворсов, Беркширов, средних и крупных белых пород. Миргородская хорошо известна на Украине, качество и толщина ее сала считается эталонным. Внешний вид. Характеризуются крепкой конституцией, глубокой и широкой и грудью, объемным туловищем умеренной длины. Спина прямая. Голова средняя. Ноги средней длины, крепкие. Окорока округлые и массивные. Кожа гладкая. Масть черно-пестрая в большинстве случаев, но иногда встречаются свиньи рыжей, черной и черно-рыжей масти.  Продуктивность. За опорос матки рожают 10 и более малышей. С первых дней жизни поросята активно набирают вес. К трем годам масса хряков достигает 280-300 кг, самок – 220-240 кг. В племенных заводах показатели еще выше. Выращивание и уход. В уходе животные неприхотливы, с радостью едят самые разные корма. В южных регионах большую часть времени свиньи проводят на пастбищах, экономя на зерновых кормах. На стойловом содержании можно заменить их объемными кормами. Достоинства. Хороший убойный вес: 85% от жировой массы, из которых 30% приходится на вес сала. Животные отличаются спокойным нравом, неприхотливостью к условиям содержания. Недостатки. Небольшая доля постного мяса в свиной туше. Некоторым не нравятся его вкусовые качества. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одна из древнейших пород в мире, выведенная в 1833 году в Венгрии. Произошла от диких свиней, скрещенных с карпатской мангалицей. В России порода появилась в 1945 г. Свиней завезли на Северный Кавказ и Московскую область в больших количествах. Внешний вид. Внешне мангалицкую свинью трудно спутать с какой-нибудь другой из-за ее шикарной кудрявой шерсти, напоминающей овечью. Окрас животных может быть разным: рыжим, черным, белым. Зимой шерсть завивается. На краю ушей имеется темное пятно – признак породы. Размеры свиней средние. Ноги мощные, с твердыми копытами.  Продуктивность. Самки приносят мало поросят – от 4 до 6 штук, реже больше. В годовалом возрасте средний вес самок не превышает 150 кг, кабанов – 180 кг. К трем годам достигает 300 кг. Выращивание и уход. Мангалицкие свиньи непривередливы к содержанию, отлично приспособлены к пастбищам. На выгуле готовы пребывать и зимой, и летом. Если содержать животных под открытым небом, шерсть их будет густой и теплой. А если перевести в теплое помещение на зимнее время, станет обычной. Достоинства. Возможность содержания на выпасе круглый год. Хороший иммунитет, в прививках практически не нуждаются. Кроткий нрав. Недостатки. Низкая плодовитость. Склонность к ожирению. Редкий вид. Выбирая, какую породу разводить, важно учитывать множество факторов: где предполагается разводить животных (тип стойла, климатические условия), в каких количествах, какое направление продуктивности сделать основным. Выгоднее остановиться на животных, адаптированных к условиям содержания и кормам той местности, где будут выращиваться. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Пятачок, щетина и хвост, закрученный в штопор. Всё это прекрасно и ёмко описывает нашу героиню. Но если внешний вид животного знаком всем с самого детства, то о его повадках, привычках и характере — знают далеко не все. А знал бы человек о способностях свиней больше, возможно, полностью поменял бы к ним отношение. Идеальный навигатор Свиньи, пасущиеся на свинофермах и поедающие провизию в загоне, не сбегают, им хорошо! Еда под пятачком, отправляться в леса по желуди нет никакого смысла. Но если бы свинье что-то не понравилось, она вполне могла бы уйти на вольные хлеба или к предыдущему хозяину. Да, да. Ориентация в пространстве у животных практически идеальная. Дорогу они запоминают с первого раза — два раза объяснять не нужно. График и режим — наше всё Как только свинья попадает в определённые условия — она тут же приспособится к ним. Ферма? Хорошо! Когда здесь провизию выдают? Живём на птичьем дворе? Не вопрос: когда здесь общий отбой? Обычно хрюшки уже через несколько дней проявляют чудеса привычки. Открыл хозяин ворота, чтобы куриц загнать, а свиньи уже самостоятельно пробираются к двери, дабы надавить на массу. Болтливость на грани Свиньи без остановки разговаривают друг с другом. Если услышите громкое возмущённое похрюкивание — это героиня пытается передать своё отношение к происходящему непотребству: в одном загоне больше провизии, в другом — недостаток. Не порядок! Сигналы, обсуждение проблем, жалобы — будто всё это знакомо розовощёким. Даже во сне свин может слегка похрюкивать, что-то интересное снится! Проблемы с зеркалом Если свинья посмотрит в зеркало, то она не сообразит, что в нём она видит себя. Самомнение, видимо, отказывается воспринимать тот факт, что эта — нестройная особа, оснащённая забавным пятачком, и правда может оказаться красивой и ухоженной персоной, коей считается себя каждая свинья. Но если в зеркале она увидит другой предмет — хоть кусок хлеба, то его хрюша сумеет идентифицировать. Настоящая истерика Свинья может устроить и поединок, если сообразит, что ей грозит реальная опасность. А если получится так, что героиня застрянет в узком месте и не сможет выбраться — запасайтесь берушами. Панические атаки для свиньи — в порядке вещей. Животное понимает, что осталось полностью беззащитным, тогда-то и начинается настоящая истерика. И хорошо, если на визг прилетит любимый хозяин, а если супостат? Не грязнуля, а чистюля Свинья по пояс измазалась в грязи! Никогда не сопоставишь сей образ с чистоплотностью, а ведь свиньи трепетно относятся к состоянию своей кожи. Они тщательно её намывают, а потом старательно «бальзамируют» в грязи. Это помогает избавиться от надоевших паразитов! Но и в качестве инструмента нормализации теплообмена животные не редко используют грязевой панцирь. Потеть-то не получается. Пятак — инструмент и панацея Запахи наша героиня может различать на запредельных расстояниях: не секрет, что свиней используют для поиска знаменитого лакомства — трюфелей. Мышцы пятачка настолько сильные, что помогают свиньям выкапывать плотные коряги: хряки часто роют землю в поисках съестного. И это ещё не всё. Единственное место, где можно увидеть потовые железы — тот же пятачок. Какой-то универсальный инструмент! Свиноматкины колыбельные Поросят свинья будет кормить молоком. А в то время, пока мальцы присмоктались к вымени, мать обязательно станет похрюкивать. Таким образом она успокаивает поросей и пытается наладить с ними контакт. Мелодия отдалённо напоминает колыбельную, ведь звучит тихо и протяжно. С помощью такой «музыки», у поросёнка формируется привыкание к голосу матери. Повзрослев, он узнает его среди толпы. Здоровье и музыка Если свиньи постоянно будут слушать классическую музыку, то показатели их здоровья значительно улучшатся. Подпевать не станут, но мелодичное музыкальное сопровождение — оценят очень высоко. Заботливый хозяин уже через неделю отметит удивительный факт: недугов в этом стаде поубавилось. Иммунитет свиньи-меломанки на порядок выше, чем у обычного хряка  источник </t>
   </si>
   <si>
@@ -177,130 +234,73 @@
     <t xml:space="preserve">https://www.gazeta.ru/social/news/2023/10/29/21600787.shtml Свидетельство о регистрации СМИ Эл № ФС77-67642 </t>
   </si>
   <si>
-    <t xml:space="preserve">Сегодня свиноводство считается одной из самых популярных и ценных отраслей животноводства. Благодаря работе селекционеров в мире насчитывается около 100 пород свиней, которые делятся на три основных вида по продуктивности: Далее в статье мы опишем самые популярные породы свиней на сегодняшний день.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода свиней, выведенная в 20 веке в России, городе Уржум Кировской области. Официально утверждена в 1957 году. Получили ее путем длительного перекрестного скрещивания местных длинноухих свиней и хряков крупной белой породы. Выведенная для центральных регионов, уржумская свинья прекрасно себя чувствует на всей европейской части страны. Особенности породы – крепкая конституция, высокая продуктивность и жизнестойкость. Внешний вид. Белая масть с массивным грубоватым костяком. Животные имеют неширокое длинное туловище, средняя часть которого немного растянута, а передняя – вытянута. Длина самцов достигает 180 см, самок — 170 см. Голова средних размеров, уши большие и тяжелые, немного наклонены вперед. Спина и крестец прямые. Щетина длинная и густая, белая. Продуктивность. Высокая. За один опорос свиноматка приносит от 11 до 13 поросят, к полугоду вес каждого достигает 100 кг (со среднесуточным привесом около 720 г). Живая масса взрослого хряка – 315-350 кг, самки – 250 кг. Выращивание и уход. Порода выводилась, как продуктивная, неприхотливая в содержании и еде, с высокой репродуктивностью. При надлежащем уходе поросята быстро набирают вес. Простота содержания животных привлекает фермеров. Но, как и многие мясные породы, эта требует особого режима питания.  Достоинства. Уржумские свиньи неприхотливы, хорошо переносят условия северных районов. Приспособлены к содержанию на пастбищах, легко адаптируются. У свиноматок превосходно развиты материнские качества, они очень спокойны. Порода с высококачественной свининой и беконом. Недостатки. Минусы лишь экстерьерные – свислый крестец, небольшой по толщине подкожный жир, аркообразная спина.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ландрас – элитная порода, появившаяся в Дании как результат скрещивания крупной белой британской и местной, датской свиней. Популярна и в России. Для этих животных характерны вкусное постное мясо с тонкой прослойкой жира и скороспелость. Внешний вид. Свиньи светлой масти с небольшой округлой головой, торпедообразным телом, длинными, свисающими на глаза ушами. Грудь неширокая, спина ровная, щетина мягкая и редкая, кожа розовая. Длина тела хряков достигает 2 м, самок – 1,6 м. Продуктивность. За один раз матка рождает 10 поросят, редко больше (11-13). Молодняк отличается быстрым ростом, и за 2 месяца набирает уже 20 кг. Это крупная порода: вес взрослых хряков достигает 300 кг, свиней – 210-250 кг. Выращивание и уход. В разведении Ландраса не добиться высоких показателей без учета некоторых нюансов. Летом свиней необходимо выпускать на зеленые луга, а зимой обеспечить им теплый свинарник, тогда они будут набирать вес, а не тратить силы на обогрев. Свиньям необходим сбалансированный рацион, в который входит зелень и зерно, овощи, комбикорма, костная мука и не только. Достоинства. Одна из лучших пород в своей категории. В свиньях содержится на 2-5% больше мяса, и небольшое количество жира. Из очевидных плюсов называют плодовитость, быстрый рост, миролюбие. Недостатки. Прихотливы в еде и содержании. Имеют слабое строение задних конечностей. Бывают восприимчивы к стрессам.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">После скрещивания беркширской свиньи и красной гвинейской в конце 19 века, появились кабаны Дюрок. Породу зарегистрировали в США. Представители ее отличаются своим ярким окрасом: коричневый цвет с красным оттенком. Животные довольно выносливы, крупные по размеру. Удачное разведение данной породы заключается в создании комфортных условий.  Внешний вид. Имеют крепкое телосложение, высокие ноги, дугообразную спину. Тело длинное – до 2 м. Окорока толстые. Голова средняя. Уши длинные, почти закрывают глаза. Взрослые животные – самки и самцы – не сильно отличаются между собой по размерам. Продуктивность. По плодовитости уступают другим породам: за один раз свиноматка приносит 9-11 поросят. Новорожденные весят 1-1,5 кг, и уже к полугоду набирают массу до 175 кг. К зрелости вес может достигать 300-360 кг. Выращивание и уход. Дюроки привыкли жить в комфорте, они чрезвычайно требовательны к хорошему корму, теплу, просторному вольеру. Если наблюдается недостаток белковой пищи, качество мяса ухудшается. Свинки подвижны и совсем неагрессивны. Достоинства. Молодняк быстро набирает вес. Вкусовые качества мясопродуктов отличные. Можно разводить свиней массово и содержать на пастбищах. Недостатки. Капризны в уходе, теплолюбивы, требуют белкового питания. К некоторым болезням порода слабо устойчива. Плодовитость небольшая.  Больше информации о свиньях породы Дюрок вы найдёте тут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода выводилась на протяжении нескольких десятилетий в Бельгии. В результате скрещивания нескольких мясных пород с хорошей продуктивностью (в том числе белой крупной и беркширской) получилась Пьетрен (Петрен). Свиньи используются, как генетический материал для разведения других пород с целью повысить их мясистость. Внешний вид. Крупные животные с широким туловищем цилиндрической формы. Мускулатура развита (особенно филейная часть), крестец широкий, окорока развиты. Маленькая голова и уши, стоящие торчком. Окрас светлый с темными пятнами. Продуктивность. Матки маломолочны и малоплодны. В среднем рождает 8 поросят. За 200 дней молодняк набирает до 90 кг. Вес взрослых животных может достигать 270 кг (хряков), 150-200 кг – самок. Выращивание и уход. Из-за низкой сальности свиньи данной породы не терпят низких (менее 16 градусов) и высоких (больше 30) температур. Требуют специально оборудованного помещения и на зимнее, и на летнее время. Животные разборчивы в еде из-за высокого метаболизма. Достоинства. Отличный мясной выход (70%), низкая сальность. Устойчивость к некоторым вирусным заболеваниям. Хороший аппетит. Недостатки. Из-за близкородственного скрещивания в селекционном отборе, животные имеют ряд недостатков. К ним относят малый суточный привес, прихотливость в содержании, мясо низкого качества (быстро окисляется), плохая стрессоустойчивость.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первая выведенная в СССР масть беконного назначения. Получилась в результате селекционной работы с Ландрасами и белыми немецкими свиньями. Окончательно порода сформировалась в 60-е годы 20 века. Внешне напоминает крупную белую свинью, и хотя меньше по массе, на выходе дают больше мяса. Внешний вид. Плотная конституция. Широкая спина, небольшая голова и прямые ноги. Лопатки легкие, окорока большие. Мышцы хорошо развиты. Окрас белый, кожа розовая и просматривается сквозь щетину. Продуктивность. Средний вес кабанов – 300 кг, свиноматок – 200. Одна самка рождает до 12 поросят. Молодняк отличается высокой выживаемостью. Средний суточный привес поросят – 700 г. Выращивание и уход. Эстонские свиньи не требуют особенных кормов, они всеядны и неприхотливы. Находят пищу сами при содержании на пастбище. Самки приносят здоровое потомство. Достоинства. Хорошие вкусовые качества бекона. Простой уход. Животные крепкие и выносливые, отличаются продуктивностью.  Недостатки. Экстерьерные минусы – свислость или рыхловатость крестца. Но на качество мяса это не влияет.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода, появившаяся в Канаде в середине 20 века, где она до сих пор пользуется популярностью. Разводят свиней и в других странах, том числе и России (с 60-70 гг.). Выведены Лакомбы в результате многопородных воспроизводительных скрещиваний (Ландраса, Беркширских свиней и других). Масть обладает хорошими экстерьерными показателями и крепкой конституцией. Внешний вид. Свиньи средних размеров, крепкого телосложения, мясной конституции. Туловище небольшое, но удлиненное. Голова средняя. Большие уши свисают на глаза. Коротковатые, но крепкие конечности. Продуктивность. Показатели плодовитости выше среднего. Свиноматки многоплодны, рождают по 10-11 поросят одновременно. Молодняк быстро набирает необходимую массу – в среднем к 150 дню. Вес взрослых животных: 220-280 кг (самцов и самок соответственно). Выращивание и уход. По темпераменту эти животные флегматичны и неприхотливы. В том числе поросята – они спокойны и послушны. Разводят их в Канаде, но в России эти свиньи также приживаются. При правильном кормлении прирост молодняка хороший. Достоинства. Кроткий нрав, устойчивость к стрессам и некоторым болезням (риниту). Продуктивность. Быстрый рост молодняка. Хорошее качество мяса. Недостатки. Явных минусов у породы не выявлено. Некоторые называют минусом недостаточный вес свиней.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одна из самых старых пород в мире, выведенная в Англии. Эти свиньи приспособлены к суровым климатическим условиям, поэтому разводятся в северных странах (США, Канаде), а также Австралии и Новой Зеландии, Великобритании. Внешний вид. Конституция крепкая, рельефная. Костная система развита хорошо. Ярко выражена мускулатура, корпус узкий и удлиненный. Длина туловища достигает 100-150 см. Уши острые, стоят прямо. Шея длинная и широкая. Ноги крепкие. Щетина блестящая, окрас варьируется от рыжего до темно-красного и даже бурого. Продуктивность. В среднем за раз самка рождает от 6 до 10 поросят. С материнскими обязанностями справляются отлично, и это сказывается на здоровье детенышей. К 30 неделям молодняк достигает массы 100 кг. Выращивание и уход. Эти свиньи удивительно выносливы, не боятся холода, дождя и ветра. Очень общительны и дружелюбны, ладят с другими питомцами. Подходят для содержания на пастбищах и вместе с коровами. Употребляют в пищу любые корма, в том числе предназначенные для скота. Достоинства. Неприхотливость (к условиям содержания и кормам). Особая выносливость и приспособляемость. Дружелюбие. Бекон высокого качества. Недостатки. Среднее многоплодие. Иногда щетина у животных вьющаяся и тонкая.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оригинальная масть свиней, популярная из-за высоких показателей мясной и сальной продукции – она считается деликатесом. Выведена в Юго-Восточной Азии. Впервые завезена в Европу и Канаду из Вьетнама в 1985 году. Но активная работа по улучшению породы продолжается до сих пор. Селекционеры пытаются увеличить процент мышечной массы животных. Внешний вид. Некрупные животные (средний вес взрослой особи 140-150 кг). Сложение беконное: имеют широкие туловище и грудную клетку. Голова небольшая, мопсовидная. Кабаны к половой зрелости отращивают клыки. Щетина образует «ирокез», который вздыбливается в момент эмоционального потрясения. Окрас черный, но может варьироваться до темно-рыжего оттенка.  Продуктивность. Животные отличаются интенсивной скороспелостью. Уже в 4 месяца самки достигают половой зрелости, кабаны – к полугоду. Свиноматки славятся уравновешенностью, высокой молочностью. За один опорос на свет появляется до 15 поросят. Кроме того, самки способны дважды за год оплодотворяться. Выращивание и уход. Животные покладистые, спокойные и удивительно чистоплотные, разводить их одно удовольствие. Адаптированы к жаркому влажному климату и одновременно к суровым зимам. Свиньи хорошо используют пастбища. Из пищи предпочитают растительные корма (трава и сено – до 85% рациона). Достоинства. Хороший иммунитет. Спокойный нрав. Многоплодность. Простота содержания и откорма. Вкусное мясо. Недостатки. Склонность к ожирению. За питанием свиней необходимо следить, но даже при усиленном питании прирост мяса не наблюдается, только сала.  Читайте подробнее об этой породе свиней тут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К данной группе относятся универсальные породы свиней, которых разводят ради мяса и сала одновременно. В России это направление пользуется большой популярностью, так как позволяет откармливать животных без ограничений. Лишь в зрелом возрасте мясосальные свиньи начинают откладывать жир. Молодые особи идут на мясо и деликатесы. Питательные качества столь же высоки, как и вкусовые. Мясосальное – выгодное направление свиноводства. Полезный выход продукции с одной туши – 70% и более. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самая распространенная в России порода, пришедшая из Англии. Прошла несколько стадий селекции, неоднократно улучшалась. Зарегистрирована в 1851 году. Иногда ее называют йоркширская. Характеризуется высокими воспроизводительными способностями, показателями развития и роста. Внешний вид. Животные белой масти с гармоничным телосложением. Туловище длинное, спина прямая, широкая и глубокая грудь. Брюхо объемистое, но не висит. Ноги крепкие, невысокие. Окорока мускулистые. Голова средняя, щеки мясистые, лоб широкий. Продуктивность. Взрослые особи могут набрать вес 300-380 кг. За опорос матка приносит до 12 малышей. При интенсивном откорме суточный прирост их может достигать 850 г. Выращивание и уход. Порода хорошо адаптируется к разным условиям, климату, хотя не терпит сильной жары и холода. При обустройстве свинарника необходимо задуматься о навесе – солнечные лучи негативно влияют на светлую кожу свиней. Возможны ожоги.  Достоинства. Отличные продуктивные качества. Неприхотливость животных к предоставленному рациону. Высокая плодовитость и хороший набор массы. Недостатки. Склонны к ожирению и перегреву. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Из названия ясно, что родиной этих свиней является Украина. Одна из лучших пород, она выводилась специально для степной части страны – регионов с засушливым климатом. Свиньи хорошо приспособлены к предоставленному им ареалу обитания, хорошо акклиматизируются. Порода используется для выведения новых разновидностей, усовершенствования существующих. Внешний вид. Животные похожи на свиней крупной белой породы, но голова у них длиннее и уже, щетина грубее. Скелет крепкий. Туловище широкое и глубокое, ноги крепкие, без складок. Цвет щетины у чистопородных особей белый, редко возможно появление темных сизых пятен. Продуктивность. Выводилась, как порода с высокой репродуктивностью. Свиноматки рождают в среднем 12 поросят за один раз. Средний привес молодняка – 700-710 г за день. Взрослые особи достигают массы 210-340 кг.  Выращивание и уход. Универсальная порода, которая легко адаптируется к неприятностям погоды (ветер, холод, жара) и способна усваивать низкокалорийные корма. Период выпаса большой. Достоинства. Выносливость. Возможность приспосабливаться к различным условиям. Плодовитость. Скороспелость. Недостатки. Экстерьерный – у некоторых особей свислый крестец. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода получена путем скрещивания кубанской свиньи с представителями крупной белой, беркширской и белой короткоухой. Сегодня для того, чтобы улучшить мясные качества, северокавказских свиней скрещивают с Пьетренами. Животных используют для чистопородного скрещивания в промышленных масштабах. Внешний вид. Крепкие животные с широкой головой и грудью. Туловище бочкообразное, грудь глубокая. Хорошо выполнены окорока, ноги крепкие. Костяк тоньше, чем у свиней похожих мастей. Щетина густая, в зимнее время с мягким подшерстком. Окрас пестрый. Продуктивность. Вес взрослых хряков достигает 350 кг, самок – 230 кг. Отличаются многоплодием, рожают в среднем 10-11 поросят. К полугоду малыши достигают массы в 100-120 кг. Выращивание и уход. Северокавказские свиньи приспособлены к условиям резко континентального климата. Они могут содержаться в свинарниках открытого типа круглый год, а также хорошо используют пастбища. Достоинства. Скороспелость. Многоплодность и хорошие материнские качества. Спокойный нрав. Возможность содержаться на открытом воздухе. Недостатки. Мясные качества не на высоте. Костяк тонкий.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свинья комбинированного типа, выращиваемая на мясо и сало. Прародители породы – крупная белая, Беркширы и Ландрасы. Выведены Ливенские свиньи в начале 19 века, утверждена порода в 1949 г., к 1980-му было зарегистрировано 60 000 особей. Это сильные выносливые животные со спокойным нравом, получившие хорошую репутацию благодаря качественному мясу. Внешний вид. Крупные габариты: туловище удлиненное (150-180 см), обхват груди 150-165 см, высокая холка, крепкое сложение. Брюхо немного провисает. Спина широкая и прямая. Голова короткая, профиль курносый. Уши большие. В нижней части шеи расположены характерные сережки. Масть белая с серыми пятнами. Продуктивность. Свиньи характеризуются хорошими откормочными свойствами. Взрослые особи достигают веса 250-330 кг (самки и самцы соответственно). Свиноматки плодовиты, за один опорос приносят в среднем 11 поросят. Выращивание и уход. Животные неприхотливы и выносливы, приспосабливаются к различным условиям, замечательно переносят пастбищное содержание. Непривередливы в еде, с удовольствием поедают объемистые корма, рожь, картофель. Достоинства. Простота в уходе. Непритязательность в выборе корма. Развитый материнский инстинкт и спокойный нрав. Недостатки. Рыхлая конституция, большие складки на коже.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Этих свиней выводили в Ярославской области методом скрещивания местных животных с несколькими породами: Латвийскими вислоухими и Полесскими свиньями, датскими Ландрасами, крупными и средними белыми. В 1948 году породу утвердили, и она массово распространилась по стране. Брейтовские свиньи подходят для сырого и холодного климата, т. к. легко адаптируются к этим условиям. Внешний вид. Крупные животные с пропорциональной головой и немного изогнутым профилем. Большие уши нависают на глаза. Шея выражена, средней длины. Тело мускулистое, ноги прямые и крепкие, окорока выражены. Кожа упругая, но при большом наборе веса могут образовываться складки. Щетина густая. Окрас белый, редко встречаются пятнистые особи. Продуктивность. Высокая. За один опорос матка приносит 11-12, реже 13-14 малышей. При правильном питании ежедневная прибавка в весе составляет 680-750 г. Взрослые особи достигают массы 250-350 кг (в зависимости от пола). Выращивание и уход. Животные выносливы, приспосабливаются к разным климатическим условиям. Их разводят не только в центральных регионах, но и в Мурманской и Ленинградской областях. Главной заботы требуют поросята и их мать – они должны содержаться в сухости и чистоте.  Достоинства. Брейтовские свиньи породы миролюбивы, заботливы по отношению к детенышам. Непривередливы в питании. Адаптируются к температурным перепадам. Мясо средней жирности. Недостатки. Порода нуждается в повышении мясных качеств. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В последние годы сальные породы составляют конкуренцию универсальным и мясным. Явное их преимущество – быстрый набор веса животных, раннее накопление жировых отложений под кожей. Всего за 8-10 месяцев откорма можно получить вкусное сало и мясо. Они составляют около 40-50% от всей туши животного. По сравнению с двумя другими разновидностями способность к воспроизведению ниже. Фермеры останавливают свой выбор на данном виде свиней за явные плюсы: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скороспелая порода, выведенная в одноименном графстве Великобритании в середине 19 века. Их прародители: английские, неаполитанские, сиамские и китайские породы. В России Беркширов утвердили в 1975 году. Их гены до сих пор активно используются селекционерами. Из них вывели многие известные масти свиней. Условно Беркширов относят к мясосальному направлению, но все зависит от откорма. Внешний вид. Животные с крепкой конституцией, вытянутым и объемным туловищем. Спина широкая. Костяк у хряков хорошо развит, у самок он нежный. Ноги сильные, короткие, окорока развиты. Голова крупная, но легкая, уши торчат вперед и вверх. Окрас черный, на кончиках хвоста, рыла и ног имеются светлые пятна. Кожа тонкая и без морщин, щетина длинная, густая.  Продуктивность. Средний вес взрослых кабанов – 220-250 кг, самок – от 180 до 220 кг. Веса в 100 кг поросята достигают к 197-200 дню. Матки не очень плодовиты, в среднем рожают по 6-9 детенышей. Выращивание и уход. Порода популярна среди фермеров в разных регионах России, так как непритязательна, легко акклиматизируется. Поросята быстро набирают вес. Свиньи славятся своей неприхотливостью в содержании, но требуют особый рацион. Беркширы комфортно чувствуют себя на открытых пространствах, могут содержаться на пастбищах. Достоинства. Хорошая скороспелость, высокие откормочные качества. Убойный выход – 88%. Продукция с хорошим соотношением и мяса, и сала. Неприхотливость в содержании и к кормам. Недостатки. Животные склонны к ожирению. Самки немногоплодны. Из внешних недостатков выделяют мопсовитость, карпообразную спину, иксообразные конечности. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миргородская порода свиней выведена еще в 19 веке, но окончательно утвержденная в 1940 году. Родина – Украина, Полтавская область. Получили ее путем скрещивания местных свиней (короткоухих пестрой масти) и кабанов Темворсов, Беркширов, средних и крупных белых пород. Миргородская хорошо известна на Украине, качество и толщина ее сала считается эталонным. Внешний вид. Характеризуются крепкой конституцией, глубокой и широкой и грудью, объемным туловищем умеренной длины. Спина прямая. Голова средняя. Ноги средней длины, крепкие. Окорока округлые и массивные. Кожа гладкая. Масть черно-пестрая в большинстве случаев, но иногда встречаются свиньи рыжей, черной и черно-рыжей масти.  Продуктивность. За опорос матки рожают 10 и более малышей. С первых дней жизни поросята активно набирают вес. К трем годам масса хряков достигает 280-300 кг, самок – 220-240 кг. В племенных заводах показатели еще выше. Выращивание и уход. В уходе животные неприхотливы, с радостью едят самые разные корма. В южных регионах большую часть времени свиньи проводят на пастбищах, экономя на зерновых кормах. На стойловом содержании можно заменить их объемными кормами. Достоинства. Хороший убойный вес: 85% от жировой массы, из которых 30% приходится на вес сала. Животные отличаются спокойным нравом, неприхотливостью к условиям содержания. Недостатки. Небольшая доля постного мяса в свиной туше. Некоторым не нравятся его вкусовые качества. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одна из древнейших пород в мире, выведенная в 1833 году в Венгрии. Произошла от диких свиней, скрещенных с карпатской мангалицей. В России порода появилась в 1945 г. Свиней завезли на Северный Кавказ и Московскую область в больших количествах. Внешний вид. Внешне мангалицкую свинью трудно спутать с какой-нибудь другой из-за ее шикарной кудрявой шерсти, напоминающей овечью. Окрас животных может быть разным: рыжим, черным, белым. Зимой шерсть завивается. На краю ушей имеется темное пятно – признак породы. Размеры свиней средние. Ноги мощные, с твердыми копытами.  Продуктивность. Самки приносят мало поросят – от 4 до 6 штук, реже больше. В годовалом возрасте средний вес самок не превышает 150 кг, кабанов – 180 кг. К трем годам достигает 300 кг. Выращивание и уход. Мангалицкие свиньи непривередливы к содержанию, отлично приспособлены к пастбищам. На выгуле готовы пребывать и зимой, и летом. Если содержать животных под открытым небом, шерсть их будет густой и теплой. А если перевести в теплое помещение на зимнее время, станет обычной. Достоинства. Возможность содержания на выпасе круглый год. Хороший иммунитет, в прививках практически не нуждаются. Кроткий нрав. Недостатки. Низкая плодовитость. Склонность к ожирению. Редкий вид. Выбирая, какую породу разводить, важно учитывать множество факторов: где предполагается разводить животных (тип стойла, климатические условия), в каких количествах, какое направление продуктивности сделать основным. Выгоднее остановиться на животных, адаптированных к условиям содержания и кормам той местности, где будут выращиваться. </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/260px-d09fd0bed180d0bed181d18fd182d0b0_28d0b3d0b8d0b1d180d0b8d0b4d0bdd18bd0b529.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1698543927161417562.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1697122911314254767.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1698614402116783012.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1698604062123833164.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/m4308290-1627419904-1.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/xpigs.jpg.pagespeed.ic_.5zklo9-did-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/svinomatka-na-progulke-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/f3abbe75cc17fb2137c7f624ccc83346-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/hc-duroc-gilt-1118-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/petreny-ochen-trebovatelny-k-pitaniyu-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1233425-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/lacombe-pig-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/pig-55-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/razvedenie-vetnamskih-svinej-v-domashnih-usloviyah-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/lakomb-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/7e9e6667-94a3-48bd-9ba4-3a77ce9eae91_animal-genomics_79b-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-140-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/brandy.359203102_std-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/4025-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/2012winterberkpig-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/pa-6.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/original-1-8.webp</t>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/260px-d09fd0bed180d0bed181d18fd182d0b0_28d0b3d0b8d0b1d180d0b8d0b4d0bdd18bd0b529-2.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/xpigs.jpg.pagespeed.ic_.5zklo9-did-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/svinomatka-na-progulke-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/f3abbe75cc17fb2137c7f624ccc83346-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/hc-duroc-gilt-1118-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/petreny-ochen-trebovatelny-k-pitaniyu-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1233425-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/lacombe-pig-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/pig-55-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/razvedenie-vetnamskih-svinej-v-domashnih-usloviyah-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/lakomb-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/7e9e6667-94a3-48bd-9ba4-3a77ce9eae91_animal-genomics_79b-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-140-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/brandy.359203102_std-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/4025-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/2012winterberkpig-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/pa-9.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/original-1-11.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/169854402913624295-2.png</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1697122911314254767-4.png</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/m4308290-1627419904-8.png</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/1698604062123833164-4.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/10/m4308290-1627419904-9.png</t>
   </si>
 </sst>
 </file>
@@ -842,6 +842,9 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
@@ -850,22 +853,25 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -873,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -887,13 +893,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -901,13 +907,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -915,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -929,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -943,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
@@ -957,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -971,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -985,7 +988,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -996,7 +999,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
@@ -1010,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -1024,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -1037,9 +1040,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
@@ -1071,6 +1071,9 @@
       <c r="C31" t="s">
         <v>63</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
@@ -1083,7 +1086,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1096,9 +1099,6 @@
       <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
@@ -1107,7 +1107,7 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1121,24 +1121,24 @@
     <hyperlink ref="D11" r:id="rId3"/>
     <hyperlink ref="D12" r:id="rId4"/>
     <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId6"/>
     <hyperlink ref="D15" r:id="rId7"/>
     <hyperlink ref="D16" r:id="rId8"/>
     <hyperlink ref="D17" r:id="rId9"/>
     <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D22" r:id="rId14"/>
-    <hyperlink ref="D23" r:id="rId15"/>
-    <hyperlink ref="D24" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D28" r:id="rId19"/>
-    <hyperlink ref="D29" r:id="rId20"/>
-    <hyperlink ref="D30" r:id="rId21"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D22" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D24" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D28" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D30" r:id="rId20"/>
+    <hyperlink ref="D31" r:id="rId21"/>
     <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="D33" r:id="rId23"/>
+    <hyperlink ref="C34" r:id="rId23"/>
     <hyperlink ref="D34" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>h2</t>
   </si>
@@ -25,282 +25,196 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>Внешний вид и строение</t>
-  </si>
-  <si>
-    <t>Распространение и среда обитания</t>
-  </si>
-  <si>
-    <t>Интеллект</t>
-  </si>
-  <si>
-    <t>Свиньи и человек</t>
-  </si>
-  <si>
-    <t>Искусственное осеменение свиней</t>
-  </si>
-  <si>
-    <t>Филогения</t>
-  </si>
-  <si>
-    <t>Религиозные взгляды на свиней</t>
-  </si>
-  <si>
-    <t>Паразиты, передающиеся человеку</t>
-  </si>
-  <si>
-    <t>Уржумская порода</t>
-  </si>
-  <si>
-    <t>Ландрас</t>
-  </si>
-  <si>
-    <t>Дюрок</t>
-  </si>
-  <si>
-    <t>Пьетрен</t>
-  </si>
-  <si>
-    <t>Эстонская беконная</t>
-  </si>
-  <si>
-    <t>Лакомб</t>
-  </si>
-  <si>
-    <t>Темворс</t>
-  </si>
-  <si>
-    <t>Вьетнамская вислобрюхая</t>
-  </si>
-  <si>
-    <t>Мясо-сальные породы</t>
-  </si>
-  <si>
-    <t>Крупная белая</t>
-  </si>
-  <si>
-    <t>Украинская степная белая</t>
-  </si>
-  <si>
-    <t>Северокавказская</t>
-  </si>
-  <si>
-    <t>Ливенская</t>
-  </si>
-  <si>
-    <t>Брейтовская</t>
-  </si>
-  <si>
-    <t>Сальные породы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беркшир  </t>
-  </si>
-  <si>
-    <t>Миргородская</t>
-  </si>
-  <si>
-    <t>Мангалицкая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жизнь на ТДС в тайге!⁠⁠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дантист Оз ушел раньше чем Джимми Тюльпан⁠⁠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гостеприимство⁠⁠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ на пост «На злобу дня»⁠⁠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толпа правоверных врывается в аэропорт Махачкалы в поисках евреев. Предыдущее видео быстро удалили. Вот со ссылкой на официальное СМИ⁠⁠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для свиней характерно компактное телосложение и длинная морда, заканчивающаяся голым хрящевым подвижным «пятачком» — это приспособление для разрыхления земли в поисках корма. Клыки хорошо развитые, острые, изогнуты вверх. Конечности четырёхпалые; боковые пальцы (второй и четвертый) едва касаются земли. Как у всех парнокопытных, пальцы заканчиваются копытцами. Волосяной покров редкий, состоящий в основном из щетины. Желудок простой (исключение — бабирусса). У свиней короткое (8-10 см) и узкое влагалище, без чётко очерченных границ, которое переходит в шейку матки. Слизистая оболочка влагалища собрана в грубые продольные складки. В шейке матки различают два поперечных участка: ампулу и суженную (извилистую) часть. Рога матки длинные и тонкие, расположены петлеобразно[1].
+    <t>Декоративные сорта</t>
+  </si>
+  <si>
+    <t>Сорта, которые возможно использовать в пищу</t>
+  </si>
+  <si>
+    <t>Правила ухода за декоративным растением</t>
+  </si>
+  <si>
+    <t>Удобрения: когда их лучше вносить</t>
+  </si>
+  <si>
+    <t>Подготовка к зиме</t>
+  </si>
+  <si>
+    <t>Использование физалиса в интерьерном оформлении помещений</t>
+  </si>
+  <si>
+    <t>Болезни и вредители: проблемы и пути их решения</t>
+  </si>
+  <si>
+    <t>Проблема №2. Тля</t>
+  </si>
+  <si>
+    <t>Проблема №4. Черная ножка</t>
+  </si>
+  <si>
+    <t>Проблема №6. Проволочник</t>
+  </si>
+  <si>
+    <t>Видео описание</t>
+  </si>
+  <si>
+    <t>Выращивание рассады из семян</t>
+  </si>
+  <si>
+    <t>Черенкование</t>
+  </si>
+  <si>
+    <t>Деление корневища</t>
+  </si>
+  <si>
+    <t>Заключение</t>
+  </si>
+  <si>
+    <t>Добавление статьи в новую подборку</t>
+  </si>
+  <si>
+    <t>Декоративный физалис</t>
+  </si>
+  <si>
+    <t>Выращивание физалиса из семян в домашних условиях</t>
+  </si>
+  <si>
+    <t>Выращивание физалиса из семян в открытом грунте</t>
+  </si>
+  <si>
+    <t>Рецепты блюд из физалиса</t>
+  </si>
+  <si>
+    <t>Зеленый коктейль с физалисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Популярность использования в ландшафтном дизайне связана с эффектным видом оранжево-красных коробочек диаметром 60 мм с круглым плодом внутри. На каждой из веточек может быть до 15 таких «фонариков».
+ Из всех сортов с декоративными целями чаще всего высаживают следующие сорта:
+   Оставленные на веточках на зиму фонарики под действием погодных условий становятся скелетированными. Через многочисленные просветы сетки прожилок видна яркая ягодка. Декоративные эффектные веточки могут использоваться не только как средство украшения сада, но и для интересных композиций сухоцветов, а также поделок. Важно! Плоды декоративных сортов растения нельзя употреблять в пищу – они содержат ядовитые вещества. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Съедобные сорта подразделяются на 2 группы:
+   К ягодным сортам физалисов относятся растения с мелкими плодами:
+   Овощной однолетник имеет хорошую урожайность, имеет достаточно большие плоды – весом до 50 грамм. Наиболее популярные разновидности: Московский ранний и Королек.
+ Только съедобные сорта обладают полезными свойствами. Они богаты витаминами, белками, микроэлементами, углеводами и другими веществами. Ягоды используют в пищу в лечебных целях в сыром виде и в качестве отваров. К сведению! Ягодные сорта теплолюбивы, а овощные имеют стойкость к низким температурам. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декоративный физалис, выращивание и уход за которым не представляют больших сложностей, часто используется для оформления приусадебных участков. Взрослое растение устойчиво к ветру и засухе. И нуждается в поливе только тогда, когда долго стоит засушливая погода. Но за только посаженным физалисом необходим тщательный уход. Декоративный физалис нуждается в регулярной прополке, которую желательно проводить хотя бы раз в месяц. Это связано с тем, что сорняки способны «забивать» растение, что негативно сказывается на его росте и привлекательности. Избежать прополок можно применяя мульчирование. Эффект будет выше в том случае, если слой мульчи будет порядка 20-30 мм. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внесение удобрений желательно проводить дважды в году:
+   Для этих целей применяют комплексные минеральные удобрения или перегной. Еще одна возможная проблема – наклон веток. Если нужно, чтобы стебли оставались прямыми, их следует подвязывать.
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Естественный ареал свиней охватывает Евразию и Африку, однако благодаря человеку домашние свиньи присутствуют на всех континентах кроме Антарктиды и везде образовали отчасти одичавшие популяции.
+    <t xml:space="preserve">Декоративные качества физалиса – это необычность и оригинальность его коробочек. Важно, чтобы вызрели они до наступления осенних холодов. Для этого в конце лета рекомендуется прищепить верхушки веточек. На зимний период физалис оставляют в грунте. Осенью срезают стебли, которые используются в дальнейшем для домашнего декора. Особого укрытия для растения не организуется, но желательно участок вокруг замульчировать. Используют для этого осыпавшиеся листья и торф.
+ Физалис морозостоек, выдерживает заморозки до -30°С. Весной на том месте, где в прошлый сезон рос красивый кустик, пробиваются молодые побеги. За сезон эти «детки» воссоздают растение. Его можно весной пересаживать на новое место или оставлять на прежнем и в начале осени любоваться яркими коробочками физалиса.
+ К сведению! Даже если надземную часть растения не срезать перед холодами, она все равно отомрет от воздействия низких температур. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декоративный физалис используется в ландшафтном оформлении участка и как сухоцвет. Декоративную ценность растение получает, когда фонарики приобретают яркий оранжево-красный цвет. На этом этапе можно приступать к заготовке сырья для будущих композиций. Для этого выполняют следующие действия:
+   Лучше всего сушить физалис в подвешенном состоянии. Если растение будет использоваться в виде готового букета, можно связать стебли по несколько штук вместе, и в таком виде просушить их. Если же нужны отдельные веточки, то каждый стебель необходимо подвесить отдельно.
+ Для декора можно использовать не только веточки физалиса, но и одиночные коробочки. Из него плетут настенные венки, применяют в составе новогодних композиций вместе с хвойными ветками, краспедией, гомфреной, колосками и другими растениями. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физалис не подвержен заболеваниям и атакам вредителями при правильном содержании. Но это не означает, сто проблем не возникнет никогда. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Также существует опасность поражения многолетника тлей. Это может произойти только при соответствующих условиях:   При таком поражении необходимо использовать инсектициды. А в качестве профилактики – осуществлять по мере необходимости полив.
  </t>
   </si>
   <si>
-    <t xml:space="preserve">В ряде тестов на умственные способности, где анализировались возможности животных в решении разных задач, свиньи демонстрируют высокий результат как по параметру сообразительности, так и по параметру наблюдательности. И. И. Акимушкин вносит свиней в девятку умнейших животных[2].
+    <t xml:space="preserve">Внешнее проявление: почернение стебля ростка у основания. При таком поражении растение гибнет.
+ Привести к этому могут следующие обстоятельства:
+   Чтобы проблема не затронула все всходы, необходимо выполнить следующие действия:
+   Совет! Чтобы проблема не возникала, необходимо своевременно прореживать всходы и рыхлить почву, чтобы предотвратить ее закисание. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проволочник повреждает корневую систему растения. Способствует этому закисление почвы и распространение пырея. Справиться с проблемой поможет добавление в грунт золы и борьба с сорняками. При этом будет создаваться неблагоприятная для развития личинок проволочника среда. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        В видео о декоративном физалисе Франше и его выращивании:     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время начала работ – апрель. Перед тем как высевать семена, их необходимо подготовить. Сначала – завязать в марлю и на полчаса опустить в слабый раствор марганцовки. Одновременно готовят почвенную смесь под семена.
+ Сделать это можно одним из способов:
+   После того как земля остыла, ее засыпают в подготовленные контейнеры. С семенами проводят следующие действия:
+   Контейнеры переносят на хорошо освещенное место, в котором температура должна поддерживаться на уровне 15-20ºС. После того как появились ростки, стекло убирают.
+ Совет! Семена можно сразу высаживать, если это возможно, в отдельные емкости с субстратом. После появления на ростках двух настоящих листиков делают пикировку, вносят минеральные удобрения, поливают. В дальнейшем полив и внесение подкормки должны быть регулярными:
+   В открытый грунт рассаду переносят в конце весны. Делать это лучше в теплый, но нежаркий пасмурный день.
+ Посадку осуществляют с промежутком в 0,5 м, и расстоянием между рядками – в 0,7 м. Пока новые растения не принялись и не окрепли, за ними должен быть тщательный уход: с притенением в дневное время и поливом.
  </t>
   </si>
   <si>
-    <t xml:space="preserve">По имеющимся данным, одомашнивание свиньи впервые произошло в Китае примерно в восьмом тысячелетии до нашей эры[3][неавторитетный источник?].
- Домашняя свинья является одним из важнейших сельскохозяйственных животных. От убоя животного получают мясо, кожу, сало и различные фармакологические ингредиенты, в частности — панкреатин. Щетина свиньи издавна служила для изготовления кистей и малярных щёток. Карликовые породы домашней свиньи используют как лабораторных животных и содержат в качестве домашних любимцев.
- Внутренние органы свиньи человек прямо или косвенно применяет при лечении собственных заболеваний, потому как организмы человека и свиньи схожи. Некоторые органы свиней можно использовать как трансплантант[4], однако массовое применение ксенотрансплантации пока невозможно из-за нерешённых проблем с реакцией иммунной системы человека на свиные трасплантанты. Тем не менее, использование свиных органов, по сравнению, например, с органами приматов, в медицине весьма перспективно. Приматы гораздо ближе к человеку эволюционно, но свинью легче вырастить, по размерам и физиологически свиные органы больше похожи на человеческие, меньше проблем с этической стороной вопроса.
- Свиньи хорошо дрессируются, благодаря острому обонянию поддаются тренировке на поиск наркотиков, а также трюфелей. Их можно обучить подводному плаванию (несмотря на то, что свинья не обладает врождённым умением плавать).
- Дикие представители семейства служат объектом охоты.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анатомические особенности (влагалище без резких границ переходит в шейку матки) позволяют вводить осеменительный прибор, состоящий из полиэтиленового флакона с мягкими стенками вместимостью 150 мл и гибкого полиэтиленового катетера, в матку свиньи без визуального контроля и фиксации шейки матки через прямую кишку[5].
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В классической систематике свиньи вместе с пекариевыми и бегемотовыми образуют подотряд нежвачных парнокопытных или свинообразных (Suina), который в свою очередь относится к парнокопытным. В филогенетической систематике к парнокопытным следует отнести и китообразных, которые произошли от похожих на бегемотов предков. Следующая кладограмма отображает отношения родственных свиньям таксонов между собой:
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В некоторых мировых религиях, таких как ислам или иудаизм, употребление в пищу свинины греховно, за исключением ситуаций, когда верующему в случае соблюдения запрета угрожает смерть от голода.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поскольку представители семейства всеядны, в том числе склонны поедать падаль, дикие кабаны, а также их домашние сородичи, ведущие свободный образ жизни и самостоятельно добывающие пропитание, подвержены опасным паразитарным заболеваниям. Среди паразитарных заболеваний, передающихся от свиней к людям, можно выделить, в частности, такие гельминтозы, как трихинеллёз, энтеробиоз, анкилостомоз, трихоцефалёз. Недостаточно обработанное мясо свиньи становилось и становится в настоящее время причиной многих паразитарных и инфекционных недугов.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сегодня свиноводство считается одной из самых популярных и ценных отраслей животноводства. Благодаря работе селекционеров в мире насчитывается около 100 пород свиней, которые делятся на три основных вида по продуктивности: Далее в статье мы опишем самые популярные породы свиней на сегодняшний день.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода свиней, выведенная в 20 веке в России, городе Уржум Кировской области. Официально утверждена в 1957 году. Получили ее путем длительного перекрестного скрещивания местных длинноухих свиней и хряков крупной белой породы. Выведенная для центральных регионов, уржумская свинья прекрасно себя чувствует на всей европейской части страны. Особенности породы – крепкая конституция, высокая продуктивность и жизнестойкость. Внешний вид. Белая масть с массивным грубоватым костяком. Животные имеют неширокое длинное туловище, средняя часть которого немного растянута, а передняя – вытянута. Длина самцов достигает 180 см, самок — 170 см. Голова средних размеров, уши большие и тяжелые, немного наклонены вперед. Спина и крестец прямые. Щетина длинная и густая, белая. Продуктивность. Высокая. За один опорос свиноматка приносит от 11 до 13 поросят, к полугоду вес каждого достигает 100 кг (со среднесуточным привесом около 720 г). Живая масса взрослого хряка – 315-350 кг, самки – 250 кг. Выращивание и уход. Порода выводилась, как продуктивная, неприхотливая в содержании и еде, с высокой репродуктивностью. При надлежащем уходе поросята быстро набирают вес. Простота содержания животных привлекает фермеров. Но, как и многие мясные породы, эта требует особого режима питания.  Достоинства. Уржумские свиньи неприхотливы, хорошо переносят условия северных районов. Приспособлены к содержанию на пастбищах, легко адаптируются. У свиноматок превосходно развиты материнские качества, они очень спокойны. Порода с высококачественной свининой и беконом. Недостатки. Минусы лишь экстерьерные – свислый крестец, небольшой по толщине подкожный жир, аркообразная спина.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ландрас – элитная порода, появившаяся в Дании как результат скрещивания крупной белой британской и местной, датской свиней. Популярна и в России. Для этих животных характерны вкусное постное мясо с тонкой прослойкой жира и скороспелость. Внешний вид. Свиньи светлой масти с небольшой округлой головой, торпедообразным телом, длинными, свисающими на глаза ушами. Грудь неширокая, спина ровная, щетина мягкая и редкая, кожа розовая. Длина тела хряков достигает 2 м, самок – 1,6 м. Продуктивность. За один раз матка рождает 10 поросят, редко больше (11-13). Молодняк отличается быстрым ростом, и за 2 месяца набирает уже 20 кг. Это крупная порода: вес взрослых хряков достигает 300 кг, свиней – 210-250 кг. Выращивание и уход. В разведении Ландраса не добиться высоких показателей без учета некоторых нюансов. Летом свиней необходимо выпускать на зеленые луга, а зимой обеспечить им теплый свинарник, тогда они будут набирать вес, а не тратить силы на обогрев. Свиньям необходим сбалансированный рацион, в который входит зелень и зерно, овощи, комбикорма, костная мука и не только. Достоинства. Одна из лучших пород в своей категории. В свиньях содержится на 2-5% больше мяса, и небольшое количество жира. Из очевидных плюсов называют плодовитость, быстрый рост, миролюбие. Недостатки. Прихотливы в еде и содержании. Имеют слабое строение задних конечностей. Бывают восприимчивы к стрессам.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">После скрещивания беркширской свиньи и красной гвинейской в конце 19 века, появились кабаны Дюрок. Породу зарегистрировали в США. Представители ее отличаются своим ярким окрасом: коричневый цвет с красным оттенком. Животные довольно выносливы, крупные по размеру. Удачное разведение данной породы заключается в создании комфортных условий.  Внешний вид. Имеют крепкое телосложение, высокие ноги, дугообразную спину. Тело длинное – до 2 м. Окорока толстые. Голова средняя. Уши длинные, почти закрывают глаза. Взрослые животные – самки и самцы – не сильно отличаются между собой по размерам. Продуктивность. По плодовитости уступают другим породам: за один раз свиноматка приносит 9-11 поросят. Новорожденные весят 1-1,5 кг, и уже к полугоду набирают массу до 175 кг. К зрелости вес может достигать 300-360 кг. Выращивание и уход. Дюроки привыкли жить в комфорте, они чрезвычайно требовательны к хорошему корму, теплу, просторному вольеру. Если наблюдается недостаток белковой пищи, качество мяса ухудшается. Свинки подвижны и совсем неагрессивны. Достоинства. Молодняк быстро набирает вес. Вкусовые качества мясопродуктов отличные. Можно разводить свиней массово и содержать на пастбищах. Недостатки. Капризны в уходе, теплолюбивы, требуют белкового питания. К некоторым болезням порода слабо устойчива. Плодовитость небольшая.  Больше информации о свиньях породы Дюрок вы найдёте тут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода выводилась на протяжении нескольких десятилетий в Бельгии. В результате скрещивания нескольких мясных пород с хорошей продуктивностью (в том числе белой крупной и беркширской) получилась Пьетрен (Петрен). Свиньи используются, как генетический материал для разведения других пород с целью повысить их мясистость. Внешний вид. Крупные животные с широким туловищем цилиндрической формы. Мускулатура развита (особенно филейная часть), крестец широкий, окорока развиты. Маленькая голова и уши, стоящие торчком. Окрас светлый с темными пятнами. Продуктивность. Матки маломолочны и малоплодны. В среднем рождает 8 поросят. За 200 дней молодняк набирает до 90 кг. Вес взрослых животных может достигать 270 кг (хряков), 150-200 кг – самок. Выращивание и уход. Из-за низкой сальности свиньи данной породы не терпят низких (менее 16 градусов) и высоких (больше 30) температур. Требуют специально оборудованного помещения и на зимнее, и на летнее время. Животные разборчивы в еде из-за высокого метаболизма. Достоинства. Отличный мясной выход (70%), низкая сальность. Устойчивость к некоторым вирусным заболеваниям. Хороший аппетит. Недостатки. Из-за близкородственного скрещивания в селекционном отборе, животные имеют ряд недостатков. К ним относят малый суточный привес, прихотливость в содержании, мясо низкого качества (быстро окисляется), плохая стрессоустойчивость.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первая выведенная в СССР масть беконного назначения. Получилась в результате селекционной работы с Ландрасами и белыми немецкими свиньями. Окончательно порода сформировалась в 60-е годы 20 века. Внешне напоминает крупную белую свинью, и хотя меньше по массе, на выходе дают больше мяса. Внешний вид. Плотная конституция. Широкая спина, небольшая голова и прямые ноги. Лопатки легкие, окорока большие. Мышцы хорошо развиты. Окрас белый, кожа розовая и просматривается сквозь щетину. Продуктивность. Средний вес кабанов – 300 кг, свиноматок – 200. Одна самка рождает до 12 поросят. Молодняк отличается высокой выживаемостью. Средний суточный привес поросят – 700 г. Выращивание и уход. Эстонские свиньи не требуют особенных кормов, они всеядны и неприхотливы. Находят пищу сами при содержании на пастбище. Самки приносят здоровое потомство. Достоинства. Хорошие вкусовые качества бекона. Простой уход. Животные крепкие и выносливые, отличаются продуктивностью.  Недостатки. Экстерьерные минусы – свислость или рыхловатость крестца. Но на качество мяса это не влияет.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода, появившаяся в Канаде в середине 20 века, где она до сих пор пользуется популярностью. Разводят свиней и в других странах, том числе и России (с 60-70 гг.). Выведены Лакомбы в результате многопородных воспроизводительных скрещиваний (Ландраса, Беркширских свиней и других). Масть обладает хорошими экстерьерными показателями и крепкой конституцией. Внешний вид. Свиньи средних размеров, крепкого телосложения, мясной конституции. Туловище небольшое, но удлиненное. Голова средняя. Большие уши свисают на глаза. Коротковатые, но крепкие конечности. Продуктивность. Показатели плодовитости выше среднего. Свиноматки многоплодны, рождают по 10-11 поросят одновременно. Молодняк быстро набирает необходимую массу – в среднем к 150 дню. Вес взрослых животных: 220-280 кг (самцов и самок соответственно). Выращивание и уход. По темпераменту эти животные флегматичны и неприхотливы. В том числе поросята – они спокойны и послушны. Разводят их в Канаде, но в России эти свиньи также приживаются. При правильном кормлении прирост молодняка хороший. Достоинства. Кроткий нрав, устойчивость к стрессам и некоторым болезням (риниту). Продуктивность. Быстрый рост молодняка. Хорошее качество мяса. Недостатки. Явных минусов у породы не выявлено. Некоторые называют минусом недостаточный вес свиней.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одна из самых старых пород в мире, выведенная в Англии. Эти свиньи приспособлены к суровым климатическим условиям, поэтому разводятся в северных странах (США, Канаде), а также Австралии и Новой Зеландии, Великобритании. Внешний вид. Конституция крепкая, рельефная. Костная система развита хорошо. Ярко выражена мускулатура, корпус узкий и удлиненный. Длина туловища достигает 100-150 см. Уши острые, стоят прямо. Шея длинная и широкая. Ноги крепкие. Щетина блестящая, окрас варьируется от рыжего до темно-красного и даже бурого. Продуктивность. В среднем за раз самка рождает от 6 до 10 поросят. С материнскими обязанностями справляются отлично, и это сказывается на здоровье детенышей. К 30 неделям молодняк достигает массы 100 кг. Выращивание и уход. Эти свиньи удивительно выносливы, не боятся холода, дождя и ветра. Очень общительны и дружелюбны, ладят с другими питомцами. Подходят для содержания на пастбищах и вместе с коровами. Употребляют в пищу любые корма, в том числе предназначенные для скота. Достоинства. Неприхотливость (к условиям содержания и кормам). Особая выносливость и приспособляемость. Дружелюбие. Бекон высокого качества. Недостатки. Среднее многоплодие. Иногда щетина у животных вьющаяся и тонкая.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оригинальная масть свиней, популярная из-за высоких показателей мясной и сальной продукции – она считается деликатесом. Выведена в Юго-Восточной Азии. Впервые завезена в Европу и Канаду из Вьетнама в 1985 году. Но активная работа по улучшению породы продолжается до сих пор. Селекционеры пытаются увеличить процент мышечной массы животных. Внешний вид. Некрупные животные (средний вес взрослой особи 140-150 кг). Сложение беконное: имеют широкие туловище и грудную клетку. Голова небольшая, мопсовидная. Кабаны к половой зрелости отращивают клыки. Щетина образует «ирокез», который вздыбливается в момент эмоционального потрясения. Окрас черный, но может варьироваться до темно-рыжего оттенка.  Продуктивность. Животные отличаются интенсивной скороспелостью. Уже в 4 месяца самки достигают половой зрелости, кабаны – к полугоду. Свиноматки славятся уравновешенностью, высокой молочностью. За один опорос на свет появляется до 15 поросят. Кроме того, самки способны дважды за год оплодотворяться. Выращивание и уход. Животные покладистые, спокойные и удивительно чистоплотные, разводить их одно удовольствие. Адаптированы к жаркому влажному климату и одновременно к суровым зимам. Свиньи хорошо используют пастбища. Из пищи предпочитают растительные корма (трава и сено – до 85% рациона). Достоинства. Хороший иммунитет. Спокойный нрав. Многоплодность. Простота содержания и откорма. Вкусное мясо. Недостатки. Склонность к ожирению. За питанием свиней необходимо следить, но даже при усиленном питании прирост мяса не наблюдается, только сала.  Читайте подробнее об этой породе свиней тут. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К данной группе относятся универсальные породы свиней, которых разводят ради мяса и сала одновременно. В России это направление пользуется большой популярностью, так как позволяет откармливать животных без ограничений. Лишь в зрелом возрасте мясосальные свиньи начинают откладывать жир. Молодые особи идут на мясо и деликатесы. Питательные качества столь же высоки, как и вкусовые. Мясосальное – выгодное направление свиноводства. Полезный выход продукции с одной туши – 70% и более. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самая распространенная в России порода, пришедшая из Англии. Прошла несколько стадий селекции, неоднократно улучшалась. Зарегистрирована в 1851 году. Иногда ее называют йоркширская. Характеризуется высокими воспроизводительными способностями, показателями развития и роста. Внешний вид. Животные белой масти с гармоничным телосложением. Туловище длинное, спина прямая, широкая и глубокая грудь. Брюхо объемистое, но не висит. Ноги крепкие, невысокие. Окорока мускулистые. Голова средняя, щеки мясистые, лоб широкий. Продуктивность. Взрослые особи могут набрать вес 300-380 кг. За опорос матка приносит до 12 малышей. При интенсивном откорме суточный прирост их может достигать 850 г. Выращивание и уход. Порода хорошо адаптируется к разным условиям, климату, хотя не терпит сильной жары и холода. При обустройстве свинарника необходимо задуматься о навесе – солнечные лучи негативно влияют на светлую кожу свиней. Возможны ожоги.  Достоинства. Отличные продуктивные качества. Неприхотливость животных к предоставленному рациону. Высокая плодовитость и хороший набор массы. Недостатки. Склонны к ожирению и перегреву. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Из названия ясно, что родиной этих свиней является Украина. Одна из лучших пород, она выводилась специально для степной части страны – регионов с засушливым климатом. Свиньи хорошо приспособлены к предоставленному им ареалу обитания, хорошо акклиматизируются. Порода используется для выведения новых разновидностей, усовершенствования существующих. Внешний вид. Животные похожи на свиней крупной белой породы, но голова у них длиннее и уже, щетина грубее. Скелет крепкий. Туловище широкое и глубокое, ноги крепкие, без складок. Цвет щетины у чистопородных особей белый, редко возможно появление темных сизых пятен. Продуктивность. Выводилась, как порода с высокой репродуктивностью. Свиноматки рождают в среднем 12 поросят за один раз. Средний привес молодняка – 700-710 г за день. Взрослые особи достигают массы 210-340 кг.  Выращивание и уход. Универсальная порода, которая легко адаптируется к неприятностям погоды (ветер, холод, жара) и способна усваивать низкокалорийные корма. Период выпаса большой. Достоинства. Выносливость. Возможность приспосабливаться к различным условиям. Плодовитость. Скороспелость. Недостатки. Экстерьерный – у некоторых особей свислый крестец. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порода получена путем скрещивания кубанской свиньи с представителями крупной белой, беркширской и белой короткоухой. Сегодня для того, чтобы улучшить мясные качества, северокавказских свиней скрещивают с Пьетренами. Животных используют для чистопородного скрещивания в промышленных масштабах. Внешний вид. Крепкие животные с широкой головой и грудью. Туловище бочкообразное, грудь глубокая. Хорошо выполнены окорока, ноги крепкие. Костяк тоньше, чем у свиней похожих мастей. Щетина густая, в зимнее время с мягким подшерстком. Окрас пестрый. Продуктивность. Вес взрослых хряков достигает 350 кг, самок – 230 кг. Отличаются многоплодием, рожают в среднем 10-11 поросят. К полугоду малыши достигают массы в 100-120 кг. Выращивание и уход. Северокавказские свиньи приспособлены к условиям резко континентального климата. Они могут содержаться в свинарниках открытого типа круглый год, а также хорошо используют пастбища. Достоинства. Скороспелость. Многоплодность и хорошие материнские качества. Спокойный нрав. Возможность содержаться на открытом воздухе. Недостатки. Мясные качества не на высоте. Костяк тонкий.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свинья комбинированного типа, выращиваемая на мясо и сало. Прародители породы – крупная белая, Беркширы и Ландрасы. Выведены Ливенские свиньи в начале 19 века, утверждена порода в 1949 г., к 1980-му было зарегистрировано 60 000 особей. Это сильные выносливые животные со спокойным нравом, получившие хорошую репутацию благодаря качественному мясу. Внешний вид. Крупные габариты: туловище удлиненное (150-180 см), обхват груди 150-165 см, высокая холка, крепкое сложение. Брюхо немного провисает. Спина широкая и прямая. Голова короткая, профиль курносый. Уши большие. В нижней части шеи расположены характерные сережки. Масть белая с серыми пятнами. Продуктивность. Свиньи характеризуются хорошими откормочными свойствами. Взрослые особи достигают веса 250-330 кг (самки и самцы соответственно). Свиноматки плодовиты, за один опорос приносят в среднем 11 поросят. Выращивание и уход. Животные неприхотливы и выносливы, приспосабливаются к различным условиям, замечательно переносят пастбищное содержание. Непривередливы в еде, с удовольствием поедают объемистые корма, рожь, картофель. Достоинства. Простота в уходе. Непритязательность в выборе корма. Развитый материнский инстинкт и спокойный нрав. Недостатки. Рыхлая конституция, большие складки на коже.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Этих свиней выводили в Ярославской области методом скрещивания местных животных с несколькими породами: Латвийскими вислоухими и Полесскими свиньями, датскими Ландрасами, крупными и средними белыми. В 1948 году породу утвердили, и она массово распространилась по стране. Брейтовские свиньи подходят для сырого и холодного климата, т. к. легко адаптируются к этим условиям. Внешний вид. Крупные животные с пропорциональной головой и немного изогнутым профилем. Большие уши нависают на глаза. Шея выражена, средней длины. Тело мускулистое, ноги прямые и крепкие, окорока выражены. Кожа упругая, но при большом наборе веса могут образовываться складки. Щетина густая. Окрас белый, редко встречаются пятнистые особи. Продуктивность. Высокая. За один опорос матка приносит 11-12, реже 13-14 малышей. При правильном питании ежедневная прибавка в весе составляет 680-750 г. Взрослые особи достигают массы 250-350 кг (в зависимости от пола). Выращивание и уход. Животные выносливы, приспосабливаются к разным климатическим условиям. Их разводят не только в центральных регионах, но и в Мурманской и Ленинградской областях. Главной заботы требуют поросята и их мать – они должны содержаться в сухости и чистоте.  Достоинства. Брейтовские свиньи породы миролюбивы, заботливы по отношению к детенышам. Непривередливы в питании. Адаптируются к температурным перепадам. Мясо средней жирности. Недостатки. Порода нуждается в повышении мясных качеств. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В последние годы сальные породы составляют конкуренцию универсальным и мясным. Явное их преимущество – быстрый набор веса животных, раннее накопление жировых отложений под кожей. Всего за 8-10 месяцев откорма можно получить вкусное сало и мясо. Они составляют около 40-50% от всей туши животного. По сравнению с двумя другими разновидностями способность к воспроизведению ниже. Фермеры останавливают свой выбор на данном виде свиней за явные плюсы: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скороспелая порода, выведенная в одноименном графстве Великобритании в середине 19 века. Их прародители: английские, неаполитанские, сиамские и китайские породы. В России Беркширов утвердили в 1975 году. Их гены до сих пор активно используются селекционерами. Из них вывели многие известные масти свиней. Условно Беркширов относят к мясосальному направлению, но все зависит от откорма. Внешний вид. Животные с крепкой конституцией, вытянутым и объемным туловищем. Спина широкая. Костяк у хряков хорошо развит, у самок он нежный. Ноги сильные, короткие, окорока развиты. Голова крупная, но легкая, уши торчат вперед и вверх. Окрас черный, на кончиках хвоста, рыла и ног имеются светлые пятна. Кожа тонкая и без морщин, щетина длинная, густая.  Продуктивность. Средний вес взрослых кабанов – 220-250 кг, самок – от 180 до 220 кг. Веса в 100 кг поросята достигают к 197-200 дню. Матки не очень плодовиты, в среднем рожают по 6-9 детенышей. Выращивание и уход. Порода популярна среди фермеров в разных регионах России, так как непритязательна, легко акклиматизируется. Поросята быстро набирают вес. Свиньи славятся своей неприхотливостью в содержании, но требуют особый рацион. Беркширы комфортно чувствуют себя на открытых пространствах, могут содержаться на пастбищах. Достоинства. Хорошая скороспелость, высокие откормочные качества. Убойный выход – 88%. Продукция с хорошим соотношением и мяса, и сала. Неприхотливость в содержании и к кормам. Недостатки. Животные склонны к ожирению. Самки немногоплодны. Из внешних недостатков выделяют мопсовитость, карпообразную спину, иксообразные конечности. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миргородская порода свиней выведена еще в 19 веке, но окончательно утвержденная в 1940 году. Родина – Украина, Полтавская область. Получили ее путем скрещивания местных свиней (короткоухих пестрой масти) и кабанов Темворсов, Беркширов, средних и крупных белых пород. Миргородская хорошо известна на Украине, качество и толщина ее сала считается эталонным. Внешний вид. Характеризуются крепкой конституцией, глубокой и широкой и грудью, объемным туловищем умеренной длины. Спина прямая. Голова средняя. Ноги средней длины, крепкие. Окорока округлые и массивные. Кожа гладкая. Масть черно-пестрая в большинстве случаев, но иногда встречаются свиньи рыжей, черной и черно-рыжей масти.  Продуктивность. За опорос матки рожают 10 и более малышей. С первых дней жизни поросята активно набирают вес. К трем годам масса хряков достигает 280-300 кг, самок – 220-240 кг. В племенных заводах показатели еще выше. Выращивание и уход. В уходе животные неприхотливы, с радостью едят самые разные корма. В южных регионах большую часть времени свиньи проводят на пастбищах, экономя на зерновых кормах. На стойловом содержании можно заменить их объемными кормами. Достоинства. Хороший убойный вес: 85% от жировой массы, из которых 30% приходится на вес сала. Животные отличаются спокойным нравом, неприхотливостью к условиям содержания. Недостатки. Небольшая доля постного мяса в свиной туше. Некоторым не нравятся его вкусовые качества. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одна из древнейших пород в мире, выведенная в 1833 году в Венгрии. Произошла от диких свиней, скрещенных с карпатской мангалицей. В России порода появилась в 1945 г. Свиней завезли на Северный Кавказ и Московскую область в больших количествах. Внешний вид. Внешне мангалицкую свинью трудно спутать с какой-нибудь другой из-за ее шикарной кудрявой шерсти, напоминающей овечью. Окрас животных может быть разным: рыжим, черным, белым. Зимой шерсть завивается. На краю ушей имеется темное пятно – признак породы. Размеры свиней средние. Ноги мощные, с твердыми копытами.  Продуктивность. Самки приносят мало поросят – от 4 до 6 штук, реже больше. В годовалом возрасте средний вес самок не превышает 150 кг, кабанов – 180 кг. К трем годам достигает 300 кг. Выращивание и уход. Мангалицкие свиньи непривередливы к содержанию, отлично приспособлены к пастбищам. На выгуле готовы пребывать и зимой, и летом. Если содержать животных под открытым небом, шерсть их будет густой и теплой. А если перевести в теплое помещение на зимнее время, станет обычной. Достоинства. Возможность содержания на выпасе круглый год. Хороший иммунитет, в прививках практически не нуждаются. Кроткий нрав. Недостатки. Низкая плодовитость. Склонность к ожирению. Редкий вид. Выбирая, какую породу разводить, важно учитывать множество факторов: где предполагается разводить животных (тип стойла, климатические условия), в каких количествах, какое направление продуктивности сделать основным. Выгоднее остановиться на животных, адаптированных к условиям содержания и кормам той местности, где будут выращиваться. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пятачок, щетина и хвост, закрученный в штопор. Всё это прекрасно и ёмко описывает нашу героиню. Но если внешний вид животного знаком всем с самого детства, то о его повадках, привычках и характере — знают далеко не все. А знал бы человек о способностях свиней больше, возможно, полностью поменял бы к ним отношение. Идеальный навигатор Свиньи, пасущиеся на свинофермах и поедающие провизию в загоне, не сбегают, им хорошо! Еда под пятачком, отправляться в леса по желуди нет никакого смысла. Но если бы свинье что-то не понравилось, она вполне могла бы уйти на вольные хлеба или к предыдущему хозяину. Да, да. Ориентация в пространстве у животных практически идеальная. Дорогу они запоминают с первого раза — два раза объяснять не нужно. График и режим — наше всё Как только свинья попадает в определённые условия — она тут же приспособится к ним. Ферма? Хорошо! Когда здесь провизию выдают? Живём на птичьем дворе? Не вопрос: когда здесь общий отбой? Обычно хрюшки уже через несколько дней проявляют чудеса привычки. Открыл хозяин ворота, чтобы куриц загнать, а свиньи уже самостоятельно пробираются к двери, дабы надавить на массу. Болтливость на грани Свиньи без остановки разговаривают друг с другом. Если услышите громкое возмущённое похрюкивание — это героиня пытается передать своё отношение к происходящему непотребству: в одном загоне больше провизии, в другом — недостаток. Не порядок! Сигналы, обсуждение проблем, жалобы — будто всё это знакомо розовощёким. Даже во сне свин может слегка похрюкивать, что-то интересное снится! Проблемы с зеркалом Если свинья посмотрит в зеркало, то она не сообразит, что в нём она видит себя. Самомнение, видимо, отказывается воспринимать тот факт, что эта — нестройная особа, оснащённая забавным пятачком, и правда может оказаться красивой и ухоженной персоной, коей считается себя каждая свинья. Но если в зеркале она увидит другой предмет — хоть кусок хлеба, то его хрюша сумеет идентифицировать. Настоящая истерика Свинья может устроить и поединок, если сообразит, что ей грозит реальная опасность. А если получится так, что героиня застрянет в узком месте и не сможет выбраться — запасайтесь берушами. Панические атаки для свиньи — в порядке вещей. Животное понимает, что осталось полностью беззащитным, тогда-то и начинается настоящая истерика. И хорошо, если на визг прилетит любимый хозяин, а если супостат? Не грязнуля, а чистюля Свинья по пояс измазалась в грязи! Никогда не сопоставишь сей образ с чистоплотностью, а ведь свиньи трепетно относятся к состоянию своей кожи. Они тщательно её намывают, а потом старательно «бальзамируют» в грязи. Это помогает избавиться от надоевших паразитов! Но и в качестве инструмента нормализации теплообмена животные не редко используют грязевой панцирь. Потеть-то не получается. Пятак — инструмент и панацея Запахи наша героиня может различать на запредельных расстояниях: не секрет, что свиней используют для поиска знаменитого лакомства — трюфелей. Мышцы пятачка настолько сильные, что помогают свиньям выкапывать плотные коряги: хряки часто роют землю в поисках съестного. И это ещё не всё. Единственное место, где можно увидеть потовые железы — тот же пятачок. Какой-то универсальный инструмент! Свиноматкины колыбельные Поросят свинья будет кормить молоком. А в то время, пока мальцы присмоктались к вымени, мать обязательно станет похрюкивать. Таким образом она успокаивает поросей и пытается наладить с ними контакт. Мелодия отдалённо напоминает колыбельную, ведь звучит тихо и протяжно. С помощью такой «музыки», у поросёнка формируется привыкание к голосу матери. Повзрослев, он узнает его среди толпы. Здоровье и музыка Если свиньи постоянно будут слушать классическую музыку, то показатели их здоровья значительно улучшатся. Подпевать не станут, но мелодичное музыкальное сопровождение — оценят очень высоко. Заботливый хозяин уже через неделю отметит удивительный факт: недугов в этом стаде поубавилось. Иммунитет свиньи-меломанки на порядок выше, чем у обычного хряка  источник </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всем привет ✋Дорогие Пикабушники, хотела узнать будет ли кому-то интересна тема жизни и работы в таёжных условиях на труднодоступной станции(ТДС) метеорологической сети нашей Великой Родины!?) Мы с мужем уже 3 года живём на такой станции практически без людей, интернета и благ цивилизации. Если интересно ставьте плюсы и я начну серию рассказов о такой сложной и одновременно самой релаксной жизни в современном мире. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.S. Вспомнил шикарный фильм. К сожалению и у Брюса дела не очень. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подъём туристической отрасли зафиксирован в последние дни в Дагестане. На фоне событий происходящих во всём мире, всё больше туристов выбирает Дагестан в качестве места отдыха. Красоты гор также привлекают сюда немалое количество людей. На данном фото местные жители приветствуют прилетевших туристов лично, после чего развезут их по отелям и гостиницам. Ведь Махачкала является одним из наиболее гостеприимных мест России. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моня звонит из Израиля другу в Москву: - Сеня, что там у вас творится? - Да Дагестан немножко воюет с евреями… - Ну и что, есть потери? - Да, есть... Дагестанские власти потеряли аэропорт, русские самолёт, 10 дагестанцев в больнице, полицейские с травмами... - А что потеряли евреи? - Моня, ты не поверишь, евреи таки ещё и не прилетели... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gazeta.ru/social/news/2023/10/29/21600787.shtml Свидетельство о регистрации СМИ Эл № ФС77-67642 </t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/260px-d09fd0bed180d0bed181d18fd182d0b0_28d0b3d0b8d0b1d180d0b8d0b4d0bdd18bd0b529-2.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/xpigs.jpg.pagespeed.ic_.5zklo9-did-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/svinomatka-na-progulke-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/f3abbe75cc17fb2137c7f624ccc83346-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/hc-duroc-gilt-1118-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/petreny-ochen-trebovatelny-k-pitaniyu-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1233425-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/lacombe-pig-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/pig-55-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/razvedenie-vetnamskih-svinej-v-domashnih-usloviyah-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/lakomb-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/7e9e6667-94a3-48bd-9ba4-3a77ce9eae91_animal-genomics_79b-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1-140-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/brandy.359203102_std-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/4025-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/2012winterberkpig-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/pa-9.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/original-1-11.webp</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/169854402913624295-2.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1697122911314254767-4.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/m4308290-1627419904-8.png</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/1698604062123833164-4.jpg</t>
-  </si>
-  <si>
-    <t>https://supergardener.ru/wp-content/uploads/2023/10/m4308290-1627419904-9.png</t>
+    <t xml:space="preserve">Для размножения физалиса способом черенкования подбирают здоровое взрослое растение. В середине лета срезают верхушки с 2-3 почками. Срез присыпают золой. Черенки заглубляют в рыхлый грунт на половину длины и поливают. Для поддержания микроклимата сверху высаженные черенки следует накрыть пленкой, в которой делают несколько небольших отверстий для вентиляции. До тех пор, пока растения не принялись, им необходимо обеспечивать полив и укрытие от палящих солнечных лучей. После того как начался рост, пленку убирают. Совет! Первое время нельзя допускать пересыхания грунта, иначе черенки не примутся. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способ деления корневища взрослого растения – самый простой способ размножения физалиса. Для того чтобы провести работы подходит весна и осень. Куст аккуратно выкапывают, и разделяют корневище. К сведению! Корневая система физалиса хорошо адаптируется к новым условиям. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        О пользе и противопоказаниях физалиса в этом видео:     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарядные коробочки физалиса – оригинальное средство для ландшафтного дизайна и декора помещений. Выращивать растение не сложно, это по силам даже начинающему цветоводу. Эффектное растение, благодаря своим ярким коробочкам, не похоже ни на какое другое. Бывали ли у вас проблемы с вредителями на физалисе и как вы с ними боролись?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправить статью 
+Многие видели ярко-красные фонарики физалиса в зимних букетах. Однако не всем известно, что плоды физалиса можно употреблять в пищу. Правда, не все. Мы хотим поближе познакомить вас с китайским фонариком (так иногда называют это растение).
+ Показать еще Родиной физалиса является Северная и Южная Америка. Там он довольно часто встречается в дикой природе. В настоящее время расселен по разным континентам: культивируется растение и в Азии, и в Африке, и в Австралии. Физалис не просто вкусный овощ, но и чрезвычайно полезный. В его составе – аскорбиновая кислота и некоторые витамины группы В, особенно много витамина В3. Много в них также железа и некоторых других микроэлементов. Еще в мякоти содержатся пектиновые вещества, которые очищают организм, выводя из него токсины. Плоды физалиса обладают мочегонным свойством, поэтому применяются в народной медицине при заболеваниях почек и мочевого пузыря.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декоративный физалис – многолетнее растение, которое размножается в основном корневищем. Больше всего на нашей территории распространен физалис обыкновенный (известен также под названиями китайский фонарик, физалис Франше и физалис Алкекенги). Из всех своих собратьев это наиболее зимостойкий вид, способный выдержать температуру до –30°С. Может расти в любом месте участка, однако наиболее выразительно его красота проявится на солнечной стороне. Благодаря ярко-красным фонарикам, которые в течение многих месяцев почти не теряют декоративности, физалис обыкновенный часто применяется для составления букетов и зимних композиций. Начиная с сентября, растения срезают и высушивают в темном проветриваемом помещении. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Декоративный физалис – многолетнее растение, холодостойкое, неприхотливое. Его можно размножить и вегетативными способами (черенками и корневищем), и посевом семян. Далее он будет легко размножаться сам. Вам останется лишь контролировать и сдерживать его рост, чтобы китайский фонарик не превратился в сорняк. Перуанский физалис, как было сказано выше, в условиях средней полосы можно выращивать только в теплице. Но даже там ему часто не хватает времени для дозревания. Зная это, некоторые опытные дачники часть растений весной сажают в ведра. При наступлении холодов емкости вносят в дом. Под лампой урожай с кустов можно собирать до ноября. Если же осень теплая и долгая, плоды продолжают зреть в теплице. Овощной и ягодный физалис в наших широтах довольно легко вырастить в открытом грунте. Сделать это можно двумя способами: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Овощной и ягодный физалис можно также выращивать путем посева семян сразу в открытый грунт. Овощные сорта имеют меньшие сроки созревания и достаточно холодостойки, поэтому они могут успеть дать полноценный урожай и в средней полосе. А вот ягодный физалис разводить семенами лучше только в южных регионах, чтобы к холодам он успел полностью созреть. Многие овощные сорта могут выдержать кратковременное понижение температуры. А вот посев семян земляничного физалиса в открытый грунт начинайте только после того, как заморозки уйдут.  Для физалиса выберите солнечное или слегка затененное место. Не сажайте его после помидоров и других растений семейства Пасленовые. У них одинаковые заболевания, поэтому возбудители, оставшиеся в почве, могут стать источником заражения физалиса. К тому же "родственники" по семейству полностью истощили почву, вытянув оттуда все необходимые им вещества. Лучше всего, если в предыдущем сезоне на этом месте росли капуста или огурцы. Участок желательно подготовить к посадке заранее. Хоть большинство сортов физалиса нетребовательно к почве, однако плодородный грунт будет способствовать лучшему урожаю. Внесите перегной, компост или перепревший навоз. Если органических подкормок нет, их можно заменить комплексным минеральным удобрением. Очистите грядку от сорняков и, при необходимости, раскислите почву любым удобным способом. Подготовьте семена так же, как и для посева на рассаду. На расстоянии 30 см друг от друга сделайте неглубокие – 5-10 см – бороздки и полейте водой. Когда вода полностью впитается, расположите в них семена с интервалом 20 см. Присыпьте небольшим слоем земли и уплотните. Укройте грядку пленкой или агротекстилем – так семена взойдут быстрее. Не забывайте про полив. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Существует масса кулинарных рецептов, в состав которых входит физалис. Мы хотим предложить вам 3 простых блюда, приготовление которых не займет много времени. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Вам понадобятся: 370 мл миндального молока, 200 г черники, 1 банан, 100 г физалиса, горсть шпината, 1 ст.л. семян льна, 1 ст.л. миндального или оливкового масла. Приготовление. Добавьте в блендер молоко, шпинат, порезанный на кусочки банан, чернику, льняное семя и растительное масло. Смешайте до получения однородной массы. В высокий бокал положите лед и вылейте готовый коктейль. </t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/fa736c9fee69b6bba47b23c602a9cebf.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/d1dcd9b4c6985d75b5378849e7df476f.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/cabc43620024e2987c3f5347b5599737.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/b24a3fe7ce088c90e49907ec1131ab4c.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/77f169c8929f9061a5630a623d8517e0.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/8e3d4b90b9e468eb2062961feb4f2696.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/50aa3d88f54f9740e854adef28a41b12.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/pristroyka-k-sarayu-raznovidnosti-konstruktsiy-i-osobennosti-ikh-montazha-72552.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/6d9618e890256a0a1d290951d6cec255.webp</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/kacheli-dvukhmestnye-preimushchestva-modeley-i-osobennosti-vybora-74734.jpg</t>
+  </si>
+  <si>
+    <t>https://supergardener.ru/wp-content/uploads/2023/11/50af196d763bec05e8af3b29a9ab4ddc.png</t>
   </si>
 </sst>
 </file>
@@ -671,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +610,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -707,7 +624,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -718,7 +638,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -729,10 +652,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -743,7 +663,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -754,7 +677,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -765,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -776,18 +702,21 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -795,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -809,13 +738,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -823,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -837,13 +763,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -851,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -865,13 +788,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -882,10 +805,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -896,10 +819,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -910,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -921,10 +841,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -935,10 +852,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -949,10 +863,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -963,183 +874,22 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D16" r:id="rId8"/>
-    <hyperlink ref="D17" r:id="rId9"/>
-    <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D28" r:id="rId18"/>
-    <hyperlink ref="D29" r:id="rId19"/>
-    <hyperlink ref="D30" r:id="rId20"/>
-    <hyperlink ref="D31" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="C34" r:id="rId23"/>
-    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
